--- a/DIFFERENT_INTENSITIES/jump_freq_500/Simulation_Spectra_Avg/500Hz_10sigma_lognormal_skewed_scenario11.xlsx
+++ b/DIFFERENT_INTENSITIES/jump_freq_500/Simulation_Spectra_Avg/500Hz_10sigma_lognormal_skewed_scenario11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbhatia/Ninja/Sabyasachi_Sen/Files/DIFFERENT_INTENSITIES/jump_freq_500/Simulation_Spectra_Avg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{574EF88C-0554-DE43-985D-218A21CC8009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0F7B2E-E044-D945-964D-24BAEB1F43FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="22700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4520" yWindow="500" windowWidth="22700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="213k_simulation_spectra_sigma_0" sheetId="1" r:id="rId1"/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,13 +1130,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="11">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C4" s="11">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D4" s="11">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E4" s="11">
         <v>40</v>
@@ -1151,7 +1151,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11">
         <v>20</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="M4" s="11">
         <f>SUM(B4:L4)</f>
-        <v>1035</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,15 +1173,15 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" ref="B5:F5" si="1">B3*B4</f>
-        <v>5.3349279147907755E-2</v>
+        <v>1.333731978697694E-3</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="1"/>
-        <v>0.12043739338955234</v>
+        <v>6.0218696694776166E-3</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="1"/>
-        <v>0.21174858604998001</v>
+        <v>2.1174858604998001E-2</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="1"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" si="2"/>
-        <v>1.6731776887635511E-2</v>
+        <v>8.3658884438177553E-3</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="2"/>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="N7" s="2">
         <f>(B7*B$5+C7*C$5+D7*D$5+E7*E$5+F7*F$5+G7*G$5+H7*H$5+I7*I$5+J7*J$5+K7*K$5+L7*L$5)/SUM(B$5:L$5)</f>
-        <v>1.0470981973983563E-2</v>
+        <v>1.0759952354759504E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="N8" s="2">
         <f t="shared" ref="N8:N71" si="3">(B8*B$5+C8*C$5+D8*D$5+E8*E$5+F8*F$5+G8*G$5+H8*H$5+I8*I$5+J8*J$5+K8*K$5+L8*L$5)/SUM(B$5:L$5)</f>
-        <v>1.0510567835515992E-2</v>
+        <v>1.0800706568737686E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
-        <v>1.0550381913843469E-2</v>
+        <v>1.0841696235301464E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" si="3"/>
-        <v>1.0590425988652945E-2</v>
+        <v>1.0882923194520533E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="N11" s="2">
         <f t="shared" si="3"/>
-        <v>1.0630701857189475E-2</v>
+        <v>1.092438930465402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="N12" s="2">
         <f t="shared" si="3"/>
-        <v>1.0671211334466463E-2</v>
+        <v>1.0966096442368687E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="N13" s="2">
         <f t="shared" si="3"/>
-        <v>1.0711956253478353E-2</v>
+        <v>1.1008046502959444E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" si="3"/>
-        <v>1.0752938465416549E-2</v>
+        <v>1.1050241400573639E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="N15" s="2">
         <f t="shared" si="3"/>
-        <v>1.0794159839888217E-2</v>
+        <v>1.1092683068437879E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="N16" s="2">
         <f t="shared" si="3"/>
-        <v>1.083562226513834E-2</v>
+        <v>1.1135373459088575E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="N17" s="2">
         <f t="shared" si="3"/>
-        <v>1.0877327648274841E-2</v>
+        <v>1.117831454460556E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="N18" s="2">
         <f t="shared" si="3"/>
-        <v>1.0919277915496916E-2</v>
+        <v>1.1221508316848859E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="N19" s="2">
         <f t="shared" si="3"/>
-        <v>1.0961475012326565E-2</v>
+        <v>1.1264956787699138E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>1.1003920903843549E-2</v>
+        <v>1.1308661989301525E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="N21" s="2">
         <f t="shared" si="3"/>
-        <v>1.1046617574923498E-2</v>
+        <v>1.1352625974312459E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" si="3"/>
-        <v>1.1089567030479646E-2</v>
+        <v>1.1396850816150854E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="N23" s="2">
         <f t="shared" si="3"/>
-        <v>1.1132771295708025E-2</v>
+        <v>1.1441338609252366E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="N24" s="2">
         <f t="shared" si="3"/>
-        <v>1.1176232416335941E-2</v>
+        <v>1.1486091469327346E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="N25" s="2">
         <f t="shared" si="3"/>
-        <v>1.1219952458874236E-2</v>
+        <v>1.1531111533622553E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="3"/>
-        <v>1.1263933510873136E-2</v>
+        <v>1.1576400961186704E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="N27" s="2">
         <f t="shared" si="3"/>
-        <v>1.1308177681181883E-2</v>
+        <v>1.1621961933140018E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" si="3"/>
-        <v>1.1352687100212108E-2</v>
+        <v>1.1667796652947364E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="3"/>
-        <v>1.1397463920204706E-2</v>
+        <v>1.1713907346695447E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" si="3"/>
-        <v>1.1442510315501198E-2</v>
+        <v>1.1760296263374249E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="3"/>
-        <v>1.1487828482818532E-2</v>
+        <v>1.1806965675162423E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="3"/>
-        <v>1.1533420641528104E-2</v>
+        <v>1.185391787771671E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="3"/>
-        <v>1.1579289033939033E-2</v>
+        <v>1.1901155190466058E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="3"/>
-        <v>1.1625435925585263E-2</v>
+        <v>1.1948679956909628E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="3"/>
-        <v>1.1671863605517004E-2</v>
+        <v>1.1996494544919186E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="3"/>
-        <v>1.1718574386596767E-2</v>
+        <v>1.2044601347046428E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="3"/>
-        <v>1.1765570605799221E-2</v>
+        <v>1.2093002780834248E-2</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="3"/>
-        <v>1.1812854624516098E-2</v>
+        <v>1.2141701289133193E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="3"/>
-        <v>1.1860428828865116E-2</v>
+        <v>1.2190699340422044E-2</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="3"/>
-        <v>1.1908295630003686E-2</v>
+        <v>1.2239999429133595E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="3"/>
-        <v>1.1956457464447621E-2</v>
+        <v>1.2289604075985309E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="3"/>
-        <v>1.2004916794393906E-2</v>
+        <v>1.2339515828314516E-2</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="N43" s="2">
         <f t="shared" si="3"/>
-        <v>1.2053676108048949E-2</v>
+        <v>1.2389737260419009E-2</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="N44" s="2">
         <f t="shared" si="3"/>
-        <v>1.2102737919961512E-2</v>
+        <v>1.2440270973902705E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" si="3"/>
-        <v>1.2152104771360471E-2</v>
+        <v>1.2491119598026238E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="N46" s="2">
         <f t="shared" si="3"/>
-        <v>1.2201779230498038E-2</v>
+        <v>1.2542285790063336E-2</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="N47" s="2">
         <f t="shared" si="3"/>
-        <v>1.2251763892997874E-2</v>
+        <v>1.2593772235661998E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="N48" s="2">
         <f t="shared" si="3"/>
-        <v>1.2302061382208568E-2</v>
+        <v>1.2645581649211634E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="N49" s="2">
         <f t="shared" si="3"/>
-        <v>1.2352674349562661E-2</v>
+        <v>1.2697716774215615E-2</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="N50" s="2">
         <f t="shared" si="3"/>
-        <v>1.2403605474940561E-2</v>
+        <v>1.2750180383669148E-2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="3"/>
-        <v>1.2454857467040909E-2</v>
+        <v>1.2802975280443737E-2</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="N52" s="2">
         <f t="shared" si="3"/>
-        <v>1.2506433063755597E-2</v>
+        <v>1.2856104297676522E-2</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="3"/>
-        <v>1.2558335032551399E-2</v>
+        <v>1.2909570299166378E-2</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="3"/>
-        <v>1.2610566170856961E-2</v>
+        <v>1.2963376179775768E-2</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="3"/>
-        <v>1.2663129306455721E-2</v>
+        <v>1.3017524865838608E-2</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="3"/>
-        <v>1.2716027297885204E-2</v>
+        <v>1.307201931557482E-2</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="N57" s="2">
         <f t="shared" si="3"/>
-        <v>1.27692630348423E-2</v>
+        <v>1.3126862519511111E-2</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="N58" s="2">
         <f t="shared" si="3"/>
-        <v>1.2822839438594774E-2</v>
+        <v>1.3182057500908072E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="3"/>
-        <v>1.2876759462399129E-2</v>
+        <v>1.3237607316194243E-2</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="3"/>
-        <v>1.2931026091925205E-2</v>
+        <v>1.3293515055406662E-2</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="3"/>
-        <v>1.2985642345687179E-2</v>
+        <v>1.3349783842638532E-2</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="3"/>
-        <v>1.3040611275481393E-2</v>
+        <v>1.3406416836493743E-2</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="N63" s="2">
         <f t="shared" si="3"/>
-        <v>1.3095935966830929E-2</v>
+        <v>1.3463417230548346E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="N64" s="2">
         <f t="shared" si="3"/>
-        <v>1.3151619539437316E-2</v>
+        <v>1.35207882538197E-2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="N65" s="2">
         <f t="shared" si="3"/>
-        <v>1.3207665147639207E-2</v>
+        <v>1.3578533171242536E-2</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="N66" s="2">
         <f t="shared" si="3"/>
-        <v>1.3264075980878519E-2</v>
+        <v>1.3636655284153055E-2</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="N67" s="2">
         <f t="shared" si="3"/>
-        <v>1.3320855264173427E-2</v>
+        <v>1.3695157930780048E-2</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="N68" s="2">
         <f t="shared" si="3"/>
-        <v>1.3378006258599627E-2</v>
+        <v>1.3754044486744308E-2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="N69" s="2">
         <f t="shared" si="3"/>
-        <v>1.3435532261778422E-2</v>
+        <v>1.381331836556584E-2</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="N70" s="2">
         <f t="shared" si="3"/>
-        <v>1.3493436608373169E-2</v>
+        <v>1.3872983019178897E-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="N71" s="2">
         <f t="shared" si="3"/>
-        <v>1.3551722670593418E-2</v>
+        <v>1.3933041938455707E-2</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="N72" s="2">
         <f t="shared" ref="N72:N135" si="4">(B72*B$5+C72*C$5+D72*D$5+E72*E$5+F72*F$5+G72*G$5+H72*H$5+I72*I$5+J72*J$5+K72*K$5+L72*L$5)/SUM(B$5:L$5)</f>
-        <v>1.3610393858707007E-2</v>
+        <v>1.3993498653738081E-2</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="N73" s="2">
         <f t="shared" si="4"/>
-        <v>1.3669453621560624E-2</v>
+        <v>1.405435673537795E-2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="N74" s="2">
         <f t="shared" si="4"/>
-        <v>1.3728905447108544E-2</v>
+        <v>1.4115619794286272E-2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="N75" s="2">
         <f t="shared" si="4"/>
-        <v>1.3788752862949775E-2</v>
+        <v>1.4177291482490945E-2</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="N76" s="2">
         <f t="shared" si="4"/>
-        <v>1.3848999436874313E-2</v>
+        <v>1.4239375493703785E-2</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="N77" s="2">
         <f t="shared" si="4"/>
-        <v>1.3909648777417637E-2</v>
+        <v>1.430187556389647E-2</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="N78" s="2">
         <f t="shared" si="4"/>
-        <v>1.3970704534424708E-2</v>
+        <v>1.4364795471886033E-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="N79" s="2">
         <f t="shared" si="4"/>
-        <v>1.4032170399622734E-2</v>
+        <v>1.4428139039929719E-2</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="N80" s="2">
         <f t="shared" si="4"/>
-        <v>1.4094050107203646E-2</v>
+        <v>1.4491910134329627E-2</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="N81" s="2">
         <f t="shared" si="4"/>
-        <v>1.4156347434415689E-2</v>
+        <v>1.4556112666047127E-2</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="N82" s="2">
         <f t="shared" si="4"/>
-        <v>1.4219066202165025E-2</v>
+        <v>1.4620750591327588E-2</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="N83" s="2">
         <f t="shared" si="4"/>
-        <v>1.4282210275627082E-2</v>
+        <v>1.4685827912334991E-2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="N84" s="2">
         <f t="shared" si="4"/>
-        <v>1.4345783564867836E-2</v>
+        <v>1.475134867779726E-2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="N85" s="2">
         <f t="shared" si="4"/>
-        <v>1.4409790025475457E-2</v>
+        <v>1.4817316983661944E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="N86" s="2">
         <f t="shared" si="4"/>
-        <v>1.4474233659202551E-2</v>
+        <v>1.4883736973763342E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="N87" s="2">
         <f t="shared" si="4"/>
-        <v>1.4539118514618685E-2</v>
+        <v>1.495061284049983E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="N88" s="2">
         <f t="shared" si="4"/>
-        <v>1.4604448687773884E-2</v>
+        <v>1.5017948825523077E-2</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="N89" s="2">
         <f t="shared" si="4"/>
-        <v>1.4670228322873416E-2</v>
+        <v>1.5085749220438425E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="N90" s="2">
         <f t="shared" si="4"/>
-        <v>1.473646161296344E-2</v>
+        <v>1.5154018367517227E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="N91" s="2">
         <f t="shared" si="4"/>
-        <v>1.4803152800628437E-2</v>
+        <v>1.5222760660420666E-2</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="N92" s="2">
         <f t="shared" si="4"/>
-        <v>1.4870306178700068E-2</v>
+        <v>1.5291980544936206E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="N93" s="2">
         <f t="shared" si="4"/>
-        <v>1.4937926090978234E-2</v>
+        <v>1.5361682519726017E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="N94" s="2">
         <f t="shared" si="4"/>
-        <v>1.5006016932963993E-2</v>
+        <v>1.5431871137088238E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="N95" s="2">
         <f t="shared" si="4"/>
-        <v>1.5074583152604968E-2</v>
+        <v>1.5502551003730908E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="N96" s="2">
         <f t="shared" si="4"/>
-        <v>1.5143629251053605E-2</v>
+        <v>1.5573726781559332E-2</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="N97" s="2">
         <f t="shared" si="4"/>
-        <v>1.5213159783437676E-2</v>
+        <v>1.5645403188476351E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="N98" s="2">
         <f t="shared" si="4"/>
-        <v>1.5283179359644754E-2</v>
+        <v>1.5717584999196562E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="N99" s="2">
         <f t="shared" si="4"/>
-        <v>1.535369264511924E-2</v>
+        <v>1.5790277046074386E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="N100" s="2">
         <f t="shared" si="4"/>
-        <v>1.5424704361673515E-2</v>
+        <v>1.5863484219946013E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="N101" s="2">
         <f t="shared" si="4"/>
-        <v>1.5496219288312846E-2</v>
+        <v>1.5937211470986187E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="N102" s="2">
         <f t="shared" si="4"/>
-        <v>1.5568242262074396E-2</v>
+        <v>1.6011463809579331E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="N103" s="2">
         <f t="shared" si="4"/>
-        <v>1.5640778178880953E-2</v>
+        <v>1.608624630720604E-2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="4"/>
-        <v>1.5713831994408779E-2</v>
+        <v>1.6161564097344382E-2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="4"/>
-        <v>1.5787408724971301E-2</v>
+        <v>1.6237422376387291E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="4"/>
-        <v>1.5861513448417582E-2</v>
+        <v>1.6313826404575689E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="4"/>
-        <v>1.5936151305046442E-2</v>
+        <v>1.6390781506947633E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="N108" s="2">
         <f t="shared" si="4"/>
-        <v>1.6011327498536773E-2</v>
+        <v>1.6468293074304287E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="N109" s="2">
         <f t="shared" si="4"/>
-        <v>1.6087047296893777E-2</v>
+        <v>1.6546366564192574E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="N110" s="2">
         <f t="shared" si="4"/>
-        <v>1.6163316033412409E-2</v>
+        <v>1.6625007501905431E-2</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="N111" s="2">
         <f t="shared" si="4"/>
-        <v>1.6240139107656659E-2</v>
+        <v>1.6704221481498829E-2</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="N112" s="2">
         <f t="shared" si="4"/>
-        <v>1.6317521986457407E-2</v>
+        <v>1.6784014166827687E-2</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="N113" s="2">
         <f t="shared" si="4"/>
-        <v>1.6395470204926668E-2</v>
+        <v>1.6864391292599239E-2</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="N114" s="2">
         <f t="shared" si="4"/>
-        <v>1.6473989367490741E-2</v>
+        <v>1.6945358665445595E-2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="N115" s="2">
         <f t="shared" si="4"/>
-        <v>1.6553085148941112E-2</v>
+        <v>1.7026922165015022E-2</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N116" s="2">
         <f t="shared" si="4"/>
-        <v>1.6632763295504262E-2</v>
+        <v>1.7109087745082741E-2</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="N117" s="2">
         <f t="shared" si="4"/>
-        <v>1.6713029625930496E-2</v>
+        <v>1.7191861434681509E-2</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="N118" s="2">
         <f t="shared" si="4"/>
-        <v>1.6793890032602378E-2</v>
+        <v>1.7275249339252431E-2</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="N119" s="2">
         <f t="shared" si="4"/>
-        <v>1.6875350482662844E-2</v>
+        <v>1.7359257641816339E-2</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="N120" s="2">
         <f t="shared" si="4"/>
-        <v>1.6957417019163628E-2</v>
+        <v>1.744389260416623E-2</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="N121" s="2">
         <f t="shared" si="4"/>
-        <v>1.7040095762234739E-2</v>
+        <v>1.7529160568081376E-2</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="N122" s="2">
         <f t="shared" si="4"/>
-        <v>1.7123392910274374E-2</v>
+        <v>1.7615067956562869E-2</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="N123" s="2">
         <f t="shared" si="4"/>
-        <v>1.7207314741160908E-2</v>
+        <v>1.7701621275092051E-2</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="N124" s="2">
         <f t="shared" si="4"/>
-        <v>1.7291867613486913E-2</v>
+        <v>1.7788827112911531E-2</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="N125" s="2">
         <f t="shared" si="4"/>
-        <v>1.7377057967815329E-2</v>
+        <v>1.7876692144329551E-2</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="N126" s="2">
         <f t="shared" si="4"/>
-        <v>1.7462892327958741E-2</v>
+        <v>1.7965223130048155E-2</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="N127" s="2">
         <f t="shared" si="4"/>
-        <v>1.7549377302282031E-2</v>
+        <v>1.8054426918515519E-2</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="N128" s="2">
         <f t="shared" si="4"/>
-        <v>1.7636519585029133E-2</v>
+        <v>1.8144310447303393E-2</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="N129" s="2">
         <f t="shared" si="4"/>
-        <v>1.7724325957673745E-2</v>
+        <v>1.8234880744509487E-2</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="N130" s="2">
         <f t="shared" si="4"/>
-        <v>1.7812803290295439E-2</v>
+        <v>1.8326144930186094E-2</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="N131" s="2">
         <f t="shared" si="4"/>
-        <v>1.790195854298093E-2</v>
+        <v>1.8418110217794607E-2</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="N132" s="2">
         <f t="shared" si="4"/>
-        <v>1.7991798767251418E-2</v>
+        <v>1.8510783915687584E-2</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="N133" s="2">
         <f t="shared" si="4"/>
-        <v>1.8082331107516413E-2</v>
+        <v>1.8604173428617827E-2</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="N134" s="2">
         <f t="shared" si="4"/>
-        <v>1.8173562802554808E-2</v>
+        <v>1.8698286259275967E-2</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="N135" s="2">
         <f t="shared" si="4"/>
-        <v>1.8265501187023445E-2</v>
+        <v>1.8793130009856312E-2</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="N136" s="2">
         <f t="shared" ref="N136:N199" si="5">(B136*B$5+C136*C$5+D136*D$5+E136*E$5+F136*F$5+G136*G$5+H136*H$5+I136*I$5+J136*J$5+K136*K$5+L136*L$5)/SUM(B$5:L$5)</f>
-        <v>1.8358153692994053E-2</v>
+        <v>1.8888712383652587E-2</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="N137" s="2">
         <f t="shared" si="5"/>
-        <v>1.8451527851519121E-2</v>
+        <v>1.8985041186683097E-2</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="N138" s="2">
         <f t="shared" si="5"/>
-        <v>1.8545631294227108E-2</v>
+        <v>1.9082124329346802E-2</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="N139" s="2">
         <f t="shared" si="5"/>
-        <v>1.8640471754947846E-2</v>
+        <v>1.9179969828110401E-2</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="N140" s="2">
         <f t="shared" si="5"/>
-        <v>1.8736057071368984E-2</v>
+        <v>1.9278585807227664E-2</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="N141" s="2">
         <f t="shared" si="5"/>
-        <v>1.8832395186723336E-2</v>
+        <v>1.937798050049103E-2</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -6930,7 +6930,7 @@
       </c>
       <c r="N142" s="2">
         <f t="shared" si="5"/>
-        <v>1.8929494151509112E-2</v>
+        <v>1.9478162253016865E-2</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="N143" s="2">
         <f t="shared" si="5"/>
-        <v>1.9027362125242094E-2</v>
+        <v>1.9579139523064198E-2</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="N144" s="2">
         <f t="shared" si="5"/>
-        <v>1.9126007378242233E-2</v>
+        <v>1.9680920883889178E-2</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="N145" s="2">
         <f t="shared" si="5"/>
-        <v>1.9225438293454022E-2</v>
+        <v>1.9783515025634055E-2</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="N146" s="2">
         <f t="shared" si="5"/>
-        <v>1.9325663368302028E-2</v>
+        <v>1.9886930757253254E-2</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="N147" s="2">
         <f t="shared" si="5"/>
-        <v>1.9426691216582331E-2</v>
+        <v>1.9991177008476232E-2</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="N148" s="2">
         <f t="shared" si="5"/>
-        <v>1.9528530570390373E-2</v>
+        <v>2.0096262831808095E-2</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="N149" s="2">
         <f t="shared" si="5"/>
-        <v>1.9631190282086392E-2</v>
+        <v>2.0202197404569491E-2</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="N150" s="2">
         <f t="shared" si="5"/>
-        <v>1.9734679326299197E-2</v>
+        <v>2.0308990030975839E-2</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="N151" s="2">
         <f t="shared" si="5"/>
-        <v>1.9839006801968744E-2</v>
+        <v>2.0416650144256962E-2</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="N152" s="2">
         <f t="shared" si="5"/>
-        <v>1.9944181934428876E-2</v>
+        <v>2.0525187308818402E-2</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="N153" s="2">
         <f t="shared" si="5"/>
-        <v>2.0050214077530989E-2</v>
+        <v>2.0634611222444879E-2</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="N154" s="2">
         <f t="shared" si="5"/>
-        <v>2.0157112715809326E-2</v>
+        <v>2.0744931718547268E-2</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="N155" s="2">
         <f t="shared" si="5"/>
-        <v>2.0264887466689033E-2</v>
+        <v>2.0856158768453547E-2</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="N156" s="2">
         <f t="shared" si="5"/>
-        <v>2.0373548082738054E-2</v>
+        <v>2.0968302483745212E-2</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="N157" s="2">
         <f t="shared" si="5"/>
-        <v>2.0483104453963487E-2</v>
+        <v>2.1081373118639862E-2</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="N158" s="2">
         <f t="shared" si="5"/>
-        <v>2.059356661015365E-2</v>
+        <v>2.1195381072421155E-2</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="N159" s="2">
         <f t="shared" si="5"/>
-        <v>2.070494472326715E-2</v>
+        <v>2.1310336891917171E-2</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="N160" s="2">
         <f t="shared" si="5"/>
-        <v>2.0817249109869384E-2</v>
+        <v>2.1426251274028255E-2</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="N161" s="2">
         <f t="shared" si="5"/>
-        <v>2.0930490233618169E-2</v>
+        <v>2.1543135068305533E-2</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="N162" s="2">
         <f t="shared" si="5"/>
-        <v>2.1044678707799289E-2</v>
+        <v>2.1660999279580984E-2</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="N163" s="2">
         <f t="shared" si="5"/>
-        <v>2.1159825297913191E-2</v>
+        <v>2.1779855070650896E-2</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="N164" s="2">
         <f t="shared" si="5"/>
-        <v>2.12759409243139E-2</v>
+        <v>2.1899713765012936E-2</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="N165" s="2">
         <f t="shared" si="5"/>
-        <v>2.1393036664901943E-2</v>
+        <v>2.2020586849659331E-2</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -7938,7 +7938,7 @@
       </c>
       <c r="N166" s="2">
         <f t="shared" si="5"/>
-        <v>2.1511123757871484E-2</v>
+        <v>2.2142485977926219E-2</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="N167" s="2">
         <f t="shared" si="5"/>
-        <v>2.1630213604513792E-2</v>
+        <v>2.2265422972401212E-2</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="N168" s="2">
         <f t="shared" si="5"/>
-        <v>2.1750317772078139E-2</v>
+        <v>2.2389409827890391E-2</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="N169" s="2">
         <f t="shared" si="5"/>
-        <v>2.1871447996691259E-2</v>
+        <v>2.251445871444592E-2</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="N170" s="2">
         <f t="shared" si="5"/>
-        <v>2.1993616186336995E-2</v>
+        <v>2.2640581980456057E-2</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="N171" s="2">
         <f t="shared" si="5"/>
-        <v>2.2116834423897423E-2</v>
+        <v>2.2767792155798543E-2</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="N172" s="2">
         <f t="shared" si="5"/>
-        <v>2.2241114970256808E-2</v>
+        <v>2.2896101955059173E-2</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="N173" s="2">
         <f t="shared" si="5"/>
-        <v>2.2366470267470226E-2</v>
+        <v>2.3025524280817253E-2</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="N174" s="2">
         <f t="shared" si="5"/>
-        <v>2.2492912941997869E-2</v>
+        <v>2.3156072226998978E-2</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="N175" s="2">
         <f t="shared" si="5"/>
-        <v>2.2620455808007221E-2</v>
+        <v>2.3287759082300831E-2</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="N176" s="2">
         <f t="shared" si="5"/>
-        <v>2.2749111870743948E-2</v>
+        <v>2.3420598333684411E-2</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="N177" s="2">
         <f t="shared" si="5"/>
-        <v>2.2878894329973996E-2</v>
+        <v>2.3554603669944666E-2</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="N178" s="2">
         <f t="shared" si="5"/>
-        <v>2.3009816583497811E-2</v>
+        <v>2.3689788985352452E-2</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="N179" s="2">
         <f t="shared" si="5"/>
-        <v>2.3141892230739116E-2</v>
+        <v>2.3826168383374903E-2</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="N180" s="2">
         <f t="shared" si="5"/>
-        <v>2.3275135076409471E-2</v>
+        <v>2.3963756180473354E-2</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="N181" s="2">
         <f t="shared" si="5"/>
-        <v>2.3409559134250836E-2</v>
+        <v>2.4102566909982318E-2</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -8610,7 +8610,7 @@
       </c>
       <c r="N182" s="2">
         <f t="shared" si="5"/>
-        <v>2.3545178630857696E-2</v>
+        <v>2.4242615326070641E-2</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="N183" s="2">
         <f t="shared" si="5"/>
-        <v>2.3682008009581042E-2</v>
+        <v>2.4383916407787233E-2</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="N184" s="2">
         <f t="shared" si="5"/>
-        <v>2.3820061934516086E-2</v>
+        <v>2.4526485363193202E-2</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="N185" s="2">
         <f t="shared" si="5"/>
-        <v>2.3959355294575345E-2</v>
+        <v>2.4670337633582524E-2</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="N186" s="2">
         <f t="shared" si="5"/>
-        <v>2.4099903207649945E-2</v>
+        <v>2.4815488897793288E-2</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="N187" s="2">
         <f t="shared" si="5"/>
-        <v>2.4241721024860659E-2</v>
+        <v>2.4961955076612325E-2</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="N188" s="2">
         <f t="shared" si="5"/>
-        <v>2.4384824334901075E-2</v>
+        <v>2.5109752337274444E-2</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="N189" s="2">
         <f t="shared" si="5"/>
-        <v>2.4529228968475748E-2</v>
+        <v>2.5258897098059976E-2</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="N190" s="2">
         <f t="shared" si="5"/>
-        <v>2.4674951002834414E-2</v>
+        <v>2.5409406032991608E-2</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="N191" s="2">
         <f t="shared" si="5"/>
-        <v>2.4822006766405925E-2</v>
+        <v>2.5561296076633874E-2</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="N192" s="2">
         <f t="shared" si="5"/>
-        <v>2.497041284353382E-2</v>
+        <v>2.571458442899802E-2</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="N193" s="2">
         <f t="shared" si="5"/>
-        <v>2.5120186079316053E-2</v>
+        <v>2.5869288560553837E-2</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="N194" s="2">
         <f t="shared" si="5"/>
-        <v>2.5271343584551638E-2</v>
+        <v>2.602542621735239E-2</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="N195" s="2">
         <f t="shared" si="5"/>
-        <v>2.5423902740796672E-2</v>
+        <v>2.6183015426261155E-2</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="N196" s="2">
         <f t="shared" si="5"/>
-        <v>2.557788120553307E-2</v>
+        <v>2.6342074500315848E-2</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="N197" s="2">
         <f t="shared" si="5"/>
-        <v>2.5733296917451898E-2</v>
+        <v>2.6502622044189992E-2</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="N198" s="2">
         <f t="shared" si="5"/>
-        <v>2.5890168101855186E-2</v>
+        <v>2.6664676959787297E-2</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="N199" s="2">
         <f t="shared" si="5"/>
-        <v>2.6048513276178784E-2</v>
+        <v>2.6828258451958433E-2</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="N200" s="2">
         <f t="shared" ref="N200:N263" si="6">(B200*B$5+C200*C$5+D200*D$5+E200*E$5+F200*F$5+G200*G$5+H200*H$5+I200*I$5+J200*J$5+K200*K$5+L200*L$5)/SUM(B$5:L$5)</f>
-        <v>2.6208351255639178E-2</v>
+        <v>2.6993386034345739E-2</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="N201" s="2">
         <f t="shared" si="6"/>
-        <v>2.6369701159007799E-2</v>
+        <v>2.7160079535359496E-2</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -9450,7 +9450,7 @@
       </c>
       <c r="N202" s="2">
         <f t="shared" si="6"/>
-        <v>2.6532582414515921E-2</v>
+        <v>2.7328359104288658E-2</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="N203" s="2">
         <f t="shared" si="6"/>
-        <v>2.6697014765893458E-2</v>
+        <v>2.7498245217549833E-2</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="N204" s="2">
         <f t="shared" si="6"/>
-        <v>2.6863018278545391E-2</v>
+        <v>2.7669758685077744E-2</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="N205" s="2">
         <f t="shared" si="6"/>
-        <v>2.7030613345868992E-2</v>
+        <v>2.7842920656861257E-2</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -9618,7 +9618,7 @@
       </c>
       <c r="N206" s="2">
         <f t="shared" si="6"/>
-        <v>2.7199820695715835E-2</v>
+        <v>2.801775262962803E-2</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -9660,7 +9660,7 @@
       </c>
       <c r="N207" s="2">
         <f t="shared" si="6"/>
-        <v>2.7370661397001898E-2</v>
+        <v>2.8194276453682221E-2</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
@@ -9702,7 +9702,7 @@
       </c>
       <c r="N208" s="2">
         <f t="shared" si="6"/>
-        <v>2.7543156866470679E-2</v>
+        <v>2.8372514339899381E-2</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="N209" s="2">
         <f t="shared" si="6"/>
-        <v>2.7717328875611829E-2</v>
+        <v>2.8552488866881835E-2</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="N210" s="2">
         <f t="shared" si="6"/>
-        <v>2.7893199557740642E-2</v>
+        <v>2.8734222988279341E-2</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="N211" s="2">
         <f t="shared" si="6"/>
-        <v>2.8070791415242033E-2</v>
+        <v>2.8917740040279329E-2</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="N212" s="2">
         <f t="shared" si="6"/>
-        <v>2.8250127326983423E-2</v>
+        <v>2.9103063749270928E-2</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="N213" s="2">
         <f t="shared" si="6"/>
-        <v>2.8431230555901327E-2</v>
+        <v>2.929021823968761E-2</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="N214" s="2">
         <f t="shared" si="6"/>
-        <v>2.8614124756765637E-2</v>
+        <v>2.947922804203279E-2</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="N215" s="2">
         <f t="shared" si="6"/>
-        <v>2.8798833984127237E-2</v>
+        <v>2.9670118101094042E-2</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="N216" s="2">
         <f t="shared" si="6"/>
-        <v>2.8985382700452724E-2</v>
+        <v>2.9862913784349514E-2</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="N217" s="2">
         <f t="shared" si="6"/>
-        <v>2.9173795784452308E-2</v>
+        <v>3.0057640890573271E-2</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
@@ -10122,7 +10122,7 @@
       </c>
       <c r="N218" s="2">
         <f t="shared" si="6"/>
-        <v>2.9364098539605622E-2</v>
+        <v>3.0254325658643923E-2</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="N219" s="2">
         <f t="shared" si="6"/>
-        <v>2.9556316702890401E-2</v>
+        <v>3.0452994776561788E-2</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="N220" s="2">
         <f t="shared" si="6"/>
-        <v>2.9750476453720653E-2</v>
+        <v>3.065367539068143E-2</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="N221" s="2">
         <f t="shared" si="6"/>
-        <v>2.9946604423098523E-2</v>
+        <v>3.085639511516362E-2</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="N222" s="2">
         <f t="shared" si="6"/>
-        <v>3.0144727702986814E-2</v>
+        <v>3.1061182041654044E-2</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="N223" s="2">
         <f t="shared" si="6"/>
-        <v>3.0344873855908092E-2</v>
+        <v>3.1268064749194711E-2</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="N224" s="2">
         <f t="shared" si="6"/>
-        <v>3.0547070924775533E-2</v>
+        <v>3.1477072314373369E-2</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="N225" s="2">
         <f t="shared" si="6"/>
-        <v>3.0751347442963414E-2</v>
+        <v>3.1688234321718654E-2</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="N226" s="2">
         <f t="shared" si="6"/>
-        <v>3.0957732444622701E-2</v>
+        <v>3.1901580874347191E-2</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="N227" s="2">
         <f t="shared" si="6"/>
-        <v>3.1166255475248775E-2</v>
+        <v>3.2117142604869073E-2</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="N228" s="2">
         <f t="shared" si="6"/>
-        <v>3.1376946602508865E-2</v>
+        <v>3.2334950686559921E-2</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="N229" s="2">
         <f t="shared" si="6"/>
-        <v>3.1589836427335573E-2</v>
+        <v>3.2555036844805908E-2</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="N230" s="2">
         <f t="shared" si="6"/>
-        <v>3.1804956095294379E-2</v>
+        <v>3.2777433368829462E-2</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="N231" s="2">
         <f t="shared" si="6"/>
-        <v>3.2022337308232632E-2</v>
+        <v>3.3002173123703821E-2</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="N232" s="2">
         <f t="shared" si="6"/>
-        <v>3.2242012336218331E-2</v>
+        <v>3.3229289562664389E-2</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="N233" s="2">
         <f t="shared" si="6"/>
-        <v>3.2464014029775994E-2</v>
+        <v>3.3458816739724583E-2</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="N234" s="2">
         <f t="shared" si="6"/>
-        <v>3.2688375832429013E-2</v>
+        <v>3.3690789322605483E-2</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="N235" s="2">
         <f t="shared" si="6"/>
-        <v>3.2915131793556394E-2</v>
+        <v>3.392524260598774E-2</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="N236" s="2">
         <f t="shared" si="6"/>
-        <v>3.3144316581573151E-2</v>
+        <v>3.4162212525094479E-2</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="N237" s="2">
         <f t="shared" si="6"/>
-        <v>3.3375965497443517E-2</v>
+        <v>3.440173566961504E-2</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -10962,7 +10962,7 @@
       </c>
       <c r="N238" s="2">
         <f t="shared" si="6"/>
-        <v>3.3610114488536777E-2</v>
+        <v>3.4643849297979257E-2</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -11004,7 +11004,7 @@
       </c>
       <c r="N239" s="2">
         <f t="shared" si="6"/>
-        <v>3.3846800162834742E-2</v>
+        <v>3.4888591351991662E-2</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="N240" s="2">
         <f t="shared" si="6"/>
-        <v>3.408605980350192E-2</v>
+        <v>3.5136000471836119E-2</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -11088,7 +11088,7 @@
       </c>
       <c r="N241" s="2">
         <f t="shared" si="6"/>
-        <v>3.432793138382801E-2</v>
+        <v>3.5386116011461646E-2</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="N242" s="2">
         <f t="shared" si="6"/>
-        <v>3.4572453582554397E-2</v>
+        <v>3.5638978054360393E-2</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="N243" s="2">
         <f t="shared" si="6"/>
-        <v>3.4819665799594834E-2</v>
+        <v>3.5894627429748478E-2</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="N244" s="2">
         <f t="shared" si="6"/>
-        <v>3.5069608172162384E-2</v>
+        <v>3.615310572916175E-2</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -11256,7 +11256,7 @@
       </c>
       <c r="N245" s="2">
         <f t="shared" si="6"/>
-        <v>3.5322321591314293E-2</v>
+        <v>3.6414455323478499E-2</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="N246" s="2">
         <f t="shared" si="6"/>
-        <v>3.5577847718927212E-2</v>
+        <v>3.6678719380381211E-2</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="N247" s="2">
         <f t="shared" si="6"/>
-        <v>3.58362290051146E-2</v>
+        <v>3.6945941882269746E-2</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
@@ -11382,7 +11382,7 @@
       </c>
       <c r="N248" s="2">
         <f t="shared" si="6"/>
-        <v>3.6097508706101025E-2</v>
+        <v>3.7216167644640696E-2</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="N249" s="2">
         <f t="shared" si="6"/>
-        <v>3.6361730902564886E-2</v>
+        <v>3.7489442334944126E-2</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="N250" s="2">
         <f t="shared" si="6"/>
-        <v>3.6628940518464659E-2</v>
+        <v>3.7765812491933594E-2</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="N251" s="2">
         <f t="shared" si="6"/>
-        <v>3.6899183340362844E-2</v>
+        <v>3.8045325545523312E-2</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="N252" s="2">
         <f t="shared" si="6"/>
-        <v>3.7172506037262285E-2</v>
+        <v>3.8328029837167099E-2</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="N253" s="2">
         <f t="shared" si="6"/>
-        <v>3.7448956180969835E-2</v>
+        <v>3.8613974640774762E-2</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="N254" s="2">
         <f t="shared" si="6"/>
-        <v>3.7728582267004249E-2</v>
+        <v>3.8903210184182198E-2</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="N255" s="2">
         <f t="shared" si="6"/>
-        <v>3.8011433736063326E-2</v>
+        <v>3.9195787671190661E-2</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="N256" s="2">
         <f t="shared" si="6"/>
-        <v>3.8297560996068319E-2</v>
+        <v>3.9491759304193533E-2</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="N257" s="2">
         <f t="shared" si="6"/>
-        <v>3.8587015444802052E-2</v>
+        <v>3.9791178307406569E-2</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="N258" s="2">
         <f t="shared" si="6"/>
-        <v>3.8879849493160028E-2</v>
+        <v>4.0094098950721364E-2</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="N259" s="2">
         <f t="shared" si="6"/>
-        <v>3.9176116589031765E-2</v>
+        <v>4.0400576574199251E-2</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="N260" s="2">
         <f t="shared" si="6"/>
-        <v>3.9475871241832661E-2</v>
+        <v>4.071066761322574E-2</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="N261" s="2">
         <f t="shared" si="6"/>
-        <v>3.9779169047705745E-2</v>
+        <v>4.1024429624345375E-2</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="N262" s="2">
         <f t="shared" si="6"/>
-        <v>4.0086066715414224E-2</v>
+        <v>4.1341921311797349E-2</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="N263" s="2">
         <f t="shared" si="6"/>
-        <v>4.0396622092945908E-2</v>
+        <v>4.1663202554773501E-2</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="N264" s="2">
         <f t="shared" ref="N264:N327" si="7">(B264*B$5+C264*C$5+D264*D$5+E264*E$5+F264*F$5+G264*G$5+H264*H$5+I264*I$5+J264*J$5+K264*K$5+L264*L$5)/SUM(B$5:L$5)</f>
-        <v>4.071089419485132E-2</v>
+        <v>4.1988334435420216E-2</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
@@ -12096,7 +12096,7 @@
       </c>
       <c r="N265" s="2">
         <f t="shared" si="7"/>
-        <v>4.1028943230338934E-2</v>
+        <v>4.2317379267607487E-2</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="N266" s="2">
         <f t="shared" si="7"/>
-        <v>4.1350830632149733E-2</v>
+        <v>4.2650400626487867E-2</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="N267" s="2">
         <f t="shared" si="7"/>
-        <v>4.1676619086237446E-2</v>
+        <v>4.298746337887098E-2</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="N268" s="2">
         <f t="shared" si="7"/>
-        <v>4.2006372562277232E-2</v>
+        <v>4.3328633714436612E-2</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="N269" s="2">
         <f t="shared" si="7"/>
-        <v>4.234015634503064E-2</v>
+        <v>4.3673979177814307E-2</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="N270" s="2">
         <f t="shared" si="7"/>
-        <v>4.2678037066592719E-2</v>
+        <v>4.4023568701554522E-2</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="N271" s="2">
         <f t="shared" si="7"/>
-        <v>4.3020082739549916E-2</v>
+        <v>4.4377472640020718E-2</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="N272" s="2">
         <f t="shared" si="7"/>
-        <v>4.3366362791076661E-2</v>
+        <v>4.4735762804229577E-2</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="N273" s="2">
         <f t="shared" si="7"/>
-        <v>4.3716948098001134E-2</v>
+        <v>4.5098512497669677E-2</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="N274" s="2">
         <f t="shared" si="7"/>
-        <v>4.4071911022870565E-2</v>
+        <v>4.5465796553128879E-2</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="N275" s="2">
         <f t="shared" si="7"/>
-        <v>4.4431325451048234E-2</v>
+        <v>4.5837691370562483E-2</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
@@ -12558,7 +12558,7 @@
       </c>
       <c r="N276" s="2">
         <f t="shared" si="7"/>
-        <v>4.4795266828875045E-2</v>
+        <v>4.621427495603412E-2</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="N277" s="2">
         <f t="shared" si="7"/>
-        <v>4.516381220292992E-2</v>
+        <v>4.659562696176426E-2</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="N278" s="2">
         <f t="shared" si="7"/>
-        <v>4.5537040260424301E-2</v>
+        <v>4.698182872732018E-2</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="N279" s="2">
         <f t="shared" si="7"/>
-        <v>4.5915031370767106E-2</v>
+        <v>4.7372963321984228E-2</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="N280" s="2">
         <f t="shared" si="7"/>
-        <v>4.6297867628338166E-2</v>
+        <v>4.7769115588337276E-2</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="N281" s="2">
         <f t="shared" si="7"/>
-        <v>4.6685632896510156E-2</v>
+        <v>4.817037218709741E-2</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
@@ -12810,7 +12810,7 @@
       </c>
       <c r="N282" s="2">
         <f t="shared" si="7"/>
-        <v>4.7078412852957649E-2</v>
+        <v>4.8576821643251285E-2</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="N283" s="2">
         <f t="shared" si="7"/>
-        <v>4.7476295036297626E-2</v>
+        <v>4.8988554393522517E-2</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="N284" s="2">
         <f t="shared" si="7"/>
-        <v>4.7879368894102929E-2</v>
+        <v>4.940566283521744E-2</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
@@ -12936,7 +12936,7 @@
       </c>
       <c r="N285" s="2">
         <f t="shared" si="7"/>
-        <v>4.8287725832335184E-2</v>
+        <v>4.9828241376494088E-2</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="N286" s="2">
         <f t="shared" si="7"/>
-        <v>4.870145926624285E-2</v>
+        <v>5.0256386488099242E-2</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="N287" s="2">
         <f t="shared" si="7"/>
-        <v>4.9120664672773623E-2</v>
+        <v>5.0690196756622008E-2</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="N288" s="2">
         <f t="shared" si="7"/>
-        <v>4.9545439644550132E-2</v>
+        <v>5.1129772939311542E-2</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="N289" s="2">
         <f t="shared" si="7"/>
-        <v>4.9975883945461812E-2</v>
+        <v>5.1575218020511057E-2</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="N290" s="2">
         <f t="shared" si="7"/>
-        <v>5.0412099567925445E-2</v>
+        <v>5.2026637269759118E-2</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="N291" s="2">
         <f t="shared" si="7"/>
-        <v>5.0854190791871902E-2</v>
+        <v>5.2484138301614559E-2</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="N292" s="2">
         <f t="shared" si="7"/>
-        <v>5.1302264245514116E-2</v>
+        <v>5.2947831137258962E-2</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
@@ -13272,7 +13272,7 @@
       </c>
       <c r="N293" s="2">
         <f t="shared" si="7"/>
-        <v>5.1756428967958151E-2</v>
+        <v>5.3417828267936333E-2</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
@@ -13314,7 +13314,7 @@
       </c>
       <c r="N294" s="2">
         <f t="shared" si="7"/>
-        <v>5.2216796473718116E-2</v>
+        <v>5.3894244720289794E-2</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
@@ -13356,7 +13356,7 @@
       </c>
       <c r="N295" s="2">
         <f t="shared" si="7"/>
-        <v>5.2683480819199165E-2</v>
+        <v>5.4377198123657537E-2</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
@@ -13398,7 +13398,7 @@
       </c>
       <c r="N296" s="2">
         <f t="shared" si="7"/>
-        <v>5.3156598671214528E-2</v>
+        <v>5.4866808779391624E-2</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="N297" s="2">
         <f t="shared" si="7"/>
-        <v>5.3636269377607029E-2</v>
+        <v>5.5363199732268609E-2</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
@@ -13482,7 +13482,7 @@
       </c>
       <c r="N298" s="2">
         <f t="shared" si="7"/>
-        <v>5.4122615040043759E-2</v>
+        <v>5.5866496844058214E-2</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="N299" s="2">
         <f t="shared" si="7"/>
-        <v>5.4615760589059481E-2</v>
+        <v>5.6376828869322645E-2</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="N300" s="2">
         <f t="shared" si="7"/>
-        <v>5.5115833861425344E-2</v>
+        <v>5.6894327533521631E-2</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
@@ -13608,7 +13608,7 @@
       </c>
       <c r="N301" s="2">
         <f t="shared" si="7"/>
-        <v>5.5622965679921289E-2</v>
+        <v>5.741912761349767E-2</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
@@ -13650,7 +13650,7 @@
       </c>
       <c r="N302" s="2">
         <f t="shared" si="7"/>
-        <v>5.6137289935594574E-2</v>
+        <v>5.7951367020421328E-2</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="N303" s="2">
         <f t="shared" si="7"/>
-        <v>5.665894367259007E-2</v>
+        <v>5.8491186885279038E-2</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
@@ -13734,7 +13734,7 @@
       </c>
       <c r="N304" s="2">
         <f t="shared" si="7"/>
-        <v>5.7188067175640268E-2</v>
+        <v>5.9038731646987537E-2</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
@@ -13776,7 +13776,7 @@
       </c>
       <c r="N305" s="2">
         <f t="shared" si="7"/>
-        <v>5.7724804060306313E-2</v>
+        <v>5.9594149143222933E-2</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="N306" s="2">
         <f t="shared" si="7"/>
-        <v>5.8269301366064612E-2</v>
+        <v>6.015759070405393E-2</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
@@ -13860,7 +13860,7 @@
       </c>
       <c r="N307" s="2">
         <f t="shared" si="7"/>
-        <v>5.8821709652338496E-2</v>
+        <v>6.0729211248475912E-2</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="N308" s="2">
         <f t="shared" si="7"/>
-        <v>5.9382183097575439E-2</v>
+        <v>6.1309169383939523E-2</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
@@ -13944,7 +13944,7 @@
       </c>
       <c r="N309" s="2">
         <f t="shared" si="7"/>
-        <v>5.9950879601475077E-2</v>
+        <v>6.189762750897599E-2</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="N310" s="2">
         <f t="shared" si="7"/>
-        <v>6.0527960890479821E-2</v>
+        <v>6.2494751919024462E-2</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="N311" s="2">
         <f t="shared" si="7"/>
-        <v>6.1113592626638166E-2</v>
+        <v>6.3100712915565488E-2</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="N312" s="2">
         <f t="shared" si="7"/>
-        <v>6.1707944519960541E-2</v>
+        <v>6.3715684918675103E-2</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="N313" s="2">
         <f t="shared" si="7"/>
-        <v>6.2311190444388265E-2</v>
+        <v>6.4339846583112356E-2</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
@@ -14154,7 +14154,7 @@
       </c>
       <c r="N314" s="2">
         <f t="shared" si="7"/>
-        <v>6.2923508557502589E-2</v>
+        <v>6.4973380918061124E-2</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="N315" s="2">
         <f t="shared" si="7"/>
-        <v>6.3545081424103186E-2</v>
+        <v>6.5616475410646871E-2</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="N316" s="2">
         <f t="shared" si="7"/>
-        <v>6.4176096143793937E-2</v>
+        <v>6.6269322153358484E-2</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="N317" s="2">
         <f t="shared" si="7"/>
-        <v>6.4816744482713351E-2</v>
+        <v>6.6932117975504024E-2</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="N318" s="2">
         <f t="shared" si="7"/>
-        <v>6.5467223009557859E-2</v>
+        <v>6.7605064578837915E-2</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="N319" s="2">
         <f t="shared" si="7"/>
-        <v>6.6127733236046177E-2</v>
+        <v>6.8288368677499225E-2</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
@@ -14406,7 +14406,7 @@
       </c>
       <c r="N320" s="2">
         <f t="shared" si="7"/>
-        <v>6.6798481761983622E-2</v>
+        <v>6.8982242142407862E-2</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="N321" s="2">
         <f t="shared" si="7"/>
-        <v>6.7479680425085078E-2</v>
+        <v>6.9686902150265975E-2</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
@@ -14490,7 +14490,7 @@
       </c>
       <c r="N322" s="2">
         <f t="shared" si="7"/>
-        <v>6.8171546455726359E-2</v>
+        <v>7.0402571337322445E-2</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
@@ -14532,7 +14532,7 @@
       </c>
       <c r="N323" s="2">
         <f t="shared" si="7"/>
-        <v>6.8874302636796073E-2</v>
+        <v>7.1129477958058421E-2</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="N324" s="2">
         <f t="shared" si="7"/>
-        <v>6.9588177468828546E-2</v>
+        <v>7.1867856048960788E-2</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="N325" s="2">
         <f t="shared" si="7"/>
-        <v>7.0313405340602195E-2</v>
+        <v>7.2617945597552358E-2</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="N326" s="2">
         <f t="shared" si="7"/>
-        <v>7.1050226705398636E-2</v>
+        <v>7.3379992716857939E-2</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
@@ -14700,7 +14700,7 @@
       </c>
       <c r="N327" s="2">
         <f t="shared" si="7"/>
-        <v>7.1798888263118116E-2</v>
+        <v>7.4154249825484186E-2</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="N328" s="2">
         <f t="shared" ref="N328:N391" si="8">(B328*B$5+C328*C$5+D328*D$5+E328*E$5+F328*F$5+G328*G$5+H328*H$5+I328*I$5+J328*J$5+K328*K$5+L328*L$5)/SUM(B$5:L$5)</f>
-        <v>7.255964314846082E-2</v>
+        <v>7.4940975833504578E-2</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="N329" s="2">
         <f t="shared" si="8"/>
-        <v>7.3332751125384121E-2</v>
+        <v>7.5740436334338607E-2</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="N330" s="2">
         <f t="shared" si="8"/>
-        <v>7.4118478788060438E-2</v>
+        <v>7.6552903802829975E-2</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="N331" s="2">
         <f t="shared" si="8"/>
-        <v>7.4917099768559592E-2</v>
+        <v>7.7378657799723305E-2</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
@@ -14910,7 +14910,7 @@
       </c>
       <c r="N332" s="2">
         <f t="shared" si="8"/>
-        <v>7.5728894951494458E-2</v>
+        <v>7.8217985182754843E-2</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="N333" s="2">
         <f t="shared" si="8"/>
-        <v>7.6554152695873151E-2</v>
+        <v>7.907118032457372E-2</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="N334" s="2">
         <f t="shared" si="8"/>
-        <v>7.7393169064409031E-2</v>
+        <v>7.9938545337717742E-2</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="N335" s="2">
         <f t="shared" si="8"/>
-        <v>7.8246248060549098E-2</v>
+        <v>8.0820390306873144E-2</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="N336" s="2">
         <f t="shared" si="8"/>
-        <v>7.9113701873491246E-2</v>
+        <v>8.1717033528659E-2</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="N337" s="2">
         <f t="shared" si="8"/>
-        <v>7.9995851131464776E-2</v>
+        <v>8.262880175917478E-2</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="N338" s="2">
         <f t="shared" si="8"/>
-        <v>8.0893025163563503E-2</v>
+        <v>8.355603046956471E-2</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="N339" s="2">
         <f t="shared" si="8"/>
-        <v>8.1805562270423432E-2</v>
+        <v>8.4499064109852501E-2</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="N340" s="2">
         <f t="shared" si="8"/>
-        <v>8.2733810004054525E-2</v>
+        <v>8.5458256381313769E-2</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="N341" s="2">
         <f t="shared" si="8"/>
-        <v>8.3678125457134128E-2</v>
+        <v>8.6433970517649811E-2</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="N342" s="2">
         <f t="shared" si="8"/>
-        <v>8.4638875562089377E-2</v>
+        <v>8.7426579575242372E-2</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
@@ -15372,7 +15372,7 @@
       </c>
       <c r="N343" s="2">
         <f t="shared" si="8"/>
-        <v>8.5616437400299394E-2</v>
+        <v>8.8436466732770405E-2</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="N344" s="2">
         <f t="shared" si="8"/>
-        <v>8.6611198521759455E-2</v>
+        <v>8.9464025600475894E-2</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="N345" s="2">
         <f t="shared" si="8"/>
-        <v>8.7623557275557068E-2</v>
+        <v>9.0509660539372108E-2</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="N346" s="2">
         <f t="shared" si="8"/>
-        <v>8.8653923151524122E-2</v>
+        <v>9.1573786990696654E-2</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="N347" s="2">
         <f t="shared" si="8"/>
-        <v>8.970271713343117E-2</v>
+        <v>9.2656831815909349E-2</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
@@ -15582,7 +15582,7 @@
       </c>
       <c r="N348" s="2">
         <f t="shared" si="8"/>
-        <v>9.0770372064104946E-2</v>
+        <v>9.3759233647546361E-2</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="N349" s="2">
         <f t="shared" si="8"/>
-        <v>9.1857333022860005E-2</v>
+        <v>9.4881443251246714E-2</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
@@ -15666,7 +15666,7 @@
       </c>
       <c r="N350" s="2">
         <f t="shared" si="8"/>
-        <v>9.2964057715636789E-2</v>
+        <v>9.6023923899263647E-2</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="N351" s="2">
         <f t="shared" si="8"/>
-        <v>9.409101687825723E-2</v>
+        <v>9.7187151755787057E-2</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="N352" s="2">
         <f t="shared" si="8"/>
-        <v>9.5238694693207906E-2</v>
+        <v>9.8371616274395543E-2</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="N353" s="2">
         <f t="shared" si="8"/>
-        <v>9.6407589220376511E-2</v>
+        <v>9.9577820607968381E-2</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
@@ -15834,7 +15834,7 @@
       </c>
       <c r="N354" s="2">
         <f t="shared" si="8"/>
-        <v>9.759821284216752E-2</v>
+        <v>0.10080628203137879</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="N355" s="2">
         <f t="shared" si="8"/>
-        <v>9.8811092723433969E-2</v>
+        <v>0.10205753237729637</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
@@ -15918,7 +15918,7 @@
       </c>
       <c r="N356" s="2">
         <f t="shared" si="8"/>
-        <v>0.10004677128666868</v>
+        <v>0.10333211848542433</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
@@ -15960,7 +15960,7 @@
       </c>
       <c r="N357" s="2">
         <f t="shared" si="8"/>
-        <v>0.10130580670289807</v>
+        <v>0.10463060266548987</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="N358" s="2">
         <f t="shared" si="8"/>
-        <v>0.10258877339872816</v>
+        <v>0.10595356317430374</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="N359" s="2">
         <f t="shared" si="8"/>
-        <v>0.10389626258000276</v>
+        <v>0.10730159470720932</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="N360" s="2">
         <f t="shared" si="8"/>
-        <v>0.10522888277251413</v>
+        <v>0.10867530890420635</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="N361" s="2">
         <f t="shared" si="8"/>
-        <v>0.10658726038023382</v>
+        <v>0.1100753348710619</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="N362" s="2">
         <f t="shared" si="8"/>
-        <v>0.10797204026150237</v>
+        <v>0.11150231971567111</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="N363" s="2">
         <f t="shared" si="8"/>
-        <v>0.10938388632363</v>
+        <v>0.1129569290999413</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="N364" s="2">
         <f t="shared" si="8"/>
-        <v>0.11082348213634413</v>
+        <v>0.11443984780744046</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
@@ -16296,7 +16296,7 @@
       </c>
       <c r="N365" s="2">
         <f t="shared" si="8"/>
-        <v>0.11229153156451741</v>
+        <v>0.11595178032703871</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
@@ -16338,7 +16338,7 @@
       </c>
       <c r="N366" s="2">
         <f t="shared" si="8"/>
-        <v>0.11378875942058501</v>
+        <v>0.11749345145273109</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="N367" s="2">
         <f t="shared" si="8"/>
-        <v>0.11531591213705655</v>
+        <v>0.11906560689982017</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="N368" s="2">
         <f t="shared" si="8"/>
-        <v>0.11687375845949889</v>
+        <v>0.12066901393757985</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="N369" s="2">
         <f t="shared" si="8"/>
-        <v>0.11846309016034508</v>
+        <v>0.12230446203850283</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="N370" s="2">
         <f t="shared" si="8"/>
-        <v>0.12008472277385421</v>
+        <v>0.12397276354417269</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="N371" s="2">
         <f t="shared" si="8"/>
-        <v>0.12173949635250925</v>
+        <v>0.12567475434775804</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="N372" s="2">
         <f t="shared" si="8"/>
-        <v>0.12342827624510327</v>
+        <v>0.12741129459306441</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="N373" s="2">
         <f t="shared" si="8"/>
-        <v>0.125151953896709</v>
+        <v>0.12918326939001118</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="N374" s="2">
         <f t="shared" si="8"/>
-        <v>0.12691144767067805</v>
+        <v>0.13099158954633217</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="N375" s="2">
         <f t="shared" si="8"/>
-        <v>0.12870770369274551</v>
+        <v>0.13283719231520272</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="N376" s="2">
         <f t="shared" si="8"/>
-        <v>0.13054169671724433</v>
+        <v>0.13472104215841524</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="N377" s="2">
         <f t="shared" si="8"/>
-        <v>0.13241443101534567</v>
+        <v>0.13664413152460206</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
@@ -16842,7 +16842,7 @@
       </c>
       <c r="N378" s="2">
         <f t="shared" si="8"/>
-        <v>0.13432694128514719</v>
+        <v>0.13860748164190173</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="N379" s="2">
         <f t="shared" si="8"/>
-        <v>0.13628029358332414</v>
+        <v>0.14061214332432262</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="N380" s="2">
         <f t="shared" si="8"/>
-        <v>0.13827558627792599</v>
+        <v>0.14265919779091163</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="N381" s="2">
         <f t="shared" si="8"/>
-        <v>0.14031395102176586</v>
+        <v>0.14474975749667274</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="N382" s="2">
         <f t="shared" si="8"/>
-        <v>0.14239655374569388</v>
+        <v>0.14688496697399861</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
@@ -17052,7 +17052,7 @@
       </c>
       <c r="N383" s="2">
         <f t="shared" si="8"/>
-        <v>0.14452459567086531</v>
+        <v>0.14906600368317854</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
@@ -17094,7 +17094,7 @@
       </c>
       <c r="N384" s="2">
         <f t="shared" si="8"/>
-        <v>0.1466993143389092</v>
+        <v>0.15129407887030705</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="N385" s="2">
         <f t="shared" si="8"/>
-        <v>0.14892198465870074</v>
+        <v>0.15357043843070511</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="N386" s="2">
         <f t="shared" si="8"/>
-        <v>0.15119391996815684</v>
+        <v>0.15589636377564542</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
@@ -17220,7 +17220,7 @@
       </c>
       <c r="N387" s="2">
         <f t="shared" si="8"/>
-        <v>0.1535164731092365</v>
+        <v>0.15827317269991625</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="N388" s="2">
         <f t="shared" si="8"/>
-        <v>0.15589103751398398</v>
+        <v>0.16070222024739858</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
@@ -17304,7 +17304,7 @@
       </c>
       <c r="N389" s="2">
         <f t="shared" si="8"/>
-        <v>0.15831904829913257</v>
+        <v>0.16318489957148002</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
@@ -17346,7 +17346,7 @@
       </c>
       <c r="N390" s="2">
         <f t="shared" si="8"/>
-        <v>0.16080198336638557</v>
+        <v>0.16572264278672105</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
@@ -17388,7 +17388,7 @@
       </c>
       <c r="N391" s="2">
         <f t="shared" si="8"/>
-        <v>0.16334136450507838</v>
+        <v>0.16831692180774963</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="N392" s="2">
         <f t="shared" ref="N392:N455" si="9">(B392*B$5+C392*C$5+D392*D$5+E392*E$5+F392*F$5+G392*G$5+H392*H$5+I392*I$5+J392*J$5+K392*K$5+L392*L$5)/SUM(B$5:L$5)</f>
-        <v>0.16593875849345172</v>
+        <v>0.17096924917088532</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
@@ -17472,7 +17472,7 @@
       </c>
       <c r="N393" s="2">
         <f t="shared" si="9"/>
-        <v>0.16859577819424315</v>
+        <v>0.17368117883345063</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="N394" s="2">
         <f t="shared" si="9"/>
-        <v>0.17131408363972417</v>
+        <v>0.17645430694515596</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
@@ -17556,7 +17556,7 @@
       </c>
       <c r="N395" s="2">
         <f t="shared" si="9"/>
-        <v>0.17409538310069081</v>
+        <v>0.17929027258532337</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
@@ -17598,7 +17598,7 @@
       </c>
       <c r="N396" s="2">
         <f t="shared" si="9"/>
-        <v>0.17694143413318358</v>
+        <v>0.18219075845898619</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="N397" s="2">
         <f t="shared" si="9"/>
-        <v>0.17985404459597137</v>
+        <v>0.18515749154419561</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
@@ -17682,7 +17682,7 @@
       </c>
       <c r="N398" s="2">
         <f t="shared" si="9"/>
-        <v>0.18283507363096183</v>
+        <v>0.18819224368200357</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="N399" s="2">
         <f t="shared" si="9"/>
-        <v>0.18588643259776799</v>
+        <v>0.19129683209971768</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="N400" s="2">
         <f t="shared" si="9"/>
-        <v>0.1890100859526388</v>
+        <v>0.19447311985704299</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
@@ -17808,7 +17808,7 @@
       </c>
       <c r="N401" s="2">
         <f t="shared" si="9"/>
-        <v>0.19220805206082917</v>
+        <v>0.19772301620367988</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="N402" s="2">
         <f t="shared" si="9"/>
-        <v>0.19548240393024652</v>
+        <v>0.20104847683578961</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="N403" s="2">
         <f t="shared" si="9"/>
-        <v>0.19883526985287145</v>
+        <v>0.20445150403751816</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="N404" s="2">
         <f t="shared" si="9"/>
-        <v>0.20226883393894857</v>
+        <v>0.20793414669241087</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="N405" s="2">
         <f t="shared" si="9"/>
-        <v>0.20578533652736794</v>
+        <v>0.21149850014814003</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="N406" s="2">
         <f t="shared" si="9"/>
-        <v>0.20938707445386348</v>
+        <v>0.21514670591637181</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="N407" s="2">
         <f t="shared" si="9"/>
-        <v>0.21307640115676119</v>
+        <v>0.21888095118796314</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
@@ -18102,7 +18102,7 @@
       </c>
       <c r="N408" s="2">
         <f t="shared" si="9"/>
-        <v>0.21685572659794508</v>
+        <v>0.22270346814187786</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
@@ -18144,7 +18144,7 @@
       </c>
       <c r="N409" s="2">
         <f t="shared" si="9"/>
-        <v>0.22072751697443313</v>
+        <v>0.22661653302429055</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
@@ -18186,7 +18186,7 @@
       </c>
       <c r="N410" s="2">
         <f t="shared" si="9"/>
-        <v>0.22469429419352982</v>
+        <v>0.23062246497229363</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
@@ -18228,7 +18228,7 @@
       </c>
       <c r="N411" s="2">
         <f t="shared" si="9"/>
-        <v>0.22875863508190034</v>
+        <v>0.2347236245544698</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
@@ -18270,7 +18270,7 @@
       </c>
       <c r="N412" s="2">
         <f t="shared" si="9"/>
-        <v>0.23292317029604834</v>
+        <v>0.23892241199823999</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="N413" s="2">
         <f t="shared" si="9"/>
-        <v>0.23719058289865125</v>
+        <v>0.24322126507148392</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
@@ -18354,7 +18354,7 @@
       </c>
       <c r="N414" s="2">
         <f t="shared" si="9"/>
-        <v>0.24156360656192744</v>
+        <v>0.24762265658332427</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="N415" s="2">
         <f t="shared" si="9"/>
-        <v>0.24604502335568984</v>
+        <v>0.25212909146625512</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="N416" s="2">
         <f t="shared" si="9"/>
-        <v>0.25063766107403651</v>
+        <v>0.25674310339896472</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
@@ -18480,7 +18480,7 @@
       </c>
       <c r="N417" s="2">
         <f t="shared" si="9"/>
-        <v>0.25534439005063408</v>
+        <v>0.26146725092624018</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
@@ -18522,7 +18522,7 @@
       </c>
       <c r="N418" s="2">
         <f t="shared" si="9"/>
-        <v>0.26016811940837864</v>
+        <v>0.26630411302930201</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="N419" s="2">
         <f t="shared" si="9"/>
-        <v>0.2651117926847551</v>
+        <v>0.2712562840967479</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="N420" s="2">
         <f t="shared" si="9"/>
-        <v>0.27017838276961142</v>
+        <v>0.27632636824311724</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
@@ -18648,7 +18648,7 @@
       </c>
       <c r="N421" s="2">
         <f t="shared" si="9"/>
-        <v>0.27537088608720217</v>
+        <v>0.28151697291882971</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
@@ -18690,7 +18690,7 @@
       </c>
       <c r="N422" s="2">
         <f t="shared" si="9"/>
-        <v>0.28069231594934441</v>
+        <v>0.28683070175202596</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
@@ -18732,10 +18732,10 @@
       </c>
       <c r="N423" s="2">
         <f t="shared" si="9"/>
-        <v>0.28614569500137699</v>
-      </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.29227014655966138</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>-90.780780780780702</v>
       </c>
@@ -18774,7 +18774,7 @@
       </c>
       <c r="N424" s="2">
         <f t="shared" si="9"/>
-        <v>0.29173404667736863</v>
+        <v>0.29783787846211768</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
@@ -18816,7 +18816,7 @@
       </c>
       <c r="N425" s="2">
         <f t="shared" si="9"/>
-        <v>0.29746038557570154</v>
+        <v>0.30353643803266522</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="N426" s="2">
         <f t="shared" si="9"/>
-        <v>0.30332770666092912</v>
+        <v>0.30936832441045775</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="N427" s="2">
         <f t="shared" si="9"/>
-        <v>0.30933897319262971</v>
+        <v>0.31533598330336515</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
@@ -18942,7 +18942,7 @@
       </c>
       <c r="N428" s="2">
         <f t="shared" si="9"/>
-        <v>0.31549710327709424</v>
+        <v>0.32144179380507615</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
@@ -18984,7 +18984,7 @@
       </c>
       <c r="N429" s="2">
         <f t="shared" si="9"/>
-        <v>0.32180495493308275</v>
+        <v>0.32768805394949879</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="N430" s="2">
         <f t="shared" si="9"/>
-        <v>0.32826530955886452</v>
+        <v>0.33407696492487338</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
@@ -19068,7 +19068,7 @@
       </c>
       <c r="N431" s="2">
         <f t="shared" si="9"/>
-        <v>0.33488085368439463</v>
+        <v>0.34061061387017327</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="N432" s="2">
         <f t="shared" si="9"/>
-        <v>0.34165415889002115</v>
+        <v>0.34729095517761094</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
@@ -19152,7 +19152,7 @@
       </c>
       <c r="N433" s="2">
         <f t="shared" si="9"/>
-        <v>0.34858765977184292</v>
+        <v>0.35411979022750784</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
@@ -19194,7 +19194,7 @@
       </c>
       <c r="N434" s="2">
         <f t="shared" si="9"/>
-        <v>0.3556836298340344</v>
+        <v>0.36109874548574084</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="N435" s="2">
         <f t="shared" si="9"/>
-        <v>0.36294415519035994</v>
+        <v>0.36822924889953768</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
@@ -19278,7 +19278,7 @@
       </c>
       <c r="N436" s="2">
         <f t="shared" si="9"/>
-        <v>0.37037110596127742</v>
+        <v>0.37551250453505014</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="N437" s="2">
         <f t="shared" si="9"/>
-        <v>0.37796610525970731</v>
+        <v>0.38294946540995212</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
@@ -19362,7 +19362,7 @@
       </c>
       <c r="N438" s="2">
         <f t="shared" si="9"/>
-        <v>0.38573049566835388</v>
+        <v>0.39054080448679096</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
@@ -19404,7 +19404,7 @@
       </c>
       <c r="N439" s="2">
         <f t="shared" si="9"/>
-        <v>0.39366530312478254</v>
+        <v>0.39828688380812299</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
@@ -19446,7 +19446,7 @@
       </c>
       <c r="N440" s="2">
         <f t="shared" si="9"/>
-        <v>0.40177119814801049</v>
+        <v>0.40618772177310669</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="N441" s="2">
         <f t="shared" si="9"/>
-        <v>0.41004845436263293</v>
+        <v>0.41424295857740923</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
@@ -19530,7 +19530,7 @@
       </c>
       <c r="N442" s="2">
         <f t="shared" si="9"/>
-        <v>0.41849690430420217</v>
+        <v>0.42245181986442143</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="N443" s="2">
         <f t="shared" si="9"/>
-        <v>0.42711589252334564</v>
+        <v>0.43081307866619833</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
@@ -19614,7 +19614,7 @@
       </c>
       <c r="N444" s="2">
         <f t="shared" si="9"/>
-        <v>0.43590422604670337</v>
+        <v>0.43932501574756216</v>
       </c>
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
@@ -19656,7 +19656,7 @@
       </c>
       <c r="N445" s="2">
         <f t="shared" si="9"/>
-        <v>0.44486012230068389</v>
+        <v>0.44798537850660453</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="N446" s="2">
         <f t="shared" si="9"/>
-        <v>0.45398115466018912</v>
+        <v>0.45679133862974503</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
@@ -19740,7 +19740,7 @@
       </c>
       <c r="N447" s="2">
         <f t="shared" si="9"/>
-        <v>0.46326419584917727</v>
+        <v>0.46573944874954964</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
@@ -19782,7 +19782,7 @@
       </c>
       <c r="N448" s="2">
         <f t="shared" si="9"/>
-        <v>0.47270535949374376</v>
+        <v>0.47482559840865585</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
@@ -19824,7 +19824,7 @@
       </c>
       <c r="N449" s="2">
         <f t="shared" si="9"/>
-        <v>0.48229994021174799</v>
+        <v>0.48404496969340416</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="N450" s="2">
         <f t="shared" si="9"/>
-        <v>0.49204235271575375</v>
+        <v>0.49339199296562758</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
@@ -19908,7 +19908,7 @@
       </c>
       <c r="N451" s="2">
         <f t="shared" si="9"/>
-        <v>0.50192607050819316</v>
+        <v>0.50286030319009967</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
@@ -19950,7 +19950,7 @@
       </c>
       <c r="N452" s="2">
         <f t="shared" si="9"/>
-        <v>0.51194356485855441</v>
+        <v>0.51244269742756077</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="N453" s="2">
         <f t="shared" si="9"/>
-        <v>0.52208624487105515</v>
+        <v>0.5221310941379339</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="N454" s="2">
         <f t="shared" si="9"/>
-        <v>0.53234439957630109</v>
+        <v>0.53191649501403426</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="N455" s="2">
         <f t="shared" si="9"/>
-        <v>0.5427071431094912</v>
+        <v>0.54178895014081241</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
@@ -20118,7 +20118,7 @@
       </c>
       <c r="N456" s="2">
         <f t="shared" ref="N456:N519" si="10">(B456*B$5+C456*C$5+D456*D$5+E456*E$5+F456*F$5+G456*G$5+H456*H$5+I456*I$5+J456*J$5+K456*K$5+L456*L$5)/SUM(B$5:L$5)</f>
-        <v>0.55316236416833742</v>
+        <v>0.55173752734713177</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="N457" s="2">
         <f t="shared" si="10"/>
-        <v>0.56369668107222193</v>
+        <v>0.56175028668355198</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
@@ -20202,7 +20202,7 @@
       </c>
       <c r="N458" s="2">
         <f t="shared" si="10"/>
-        <v>0.57429540386583822</v>
+        <v>0.57181426101769861</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
@@ -20244,7 +20244,7 @@
       </c>
       <c r="N459" s="2">
         <f t="shared" si="10"/>
-        <v>0.5849425050207081</v>
+        <v>0.58191544378552329</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
@@ -20286,7 +20286,7 @@
       </c>
       <c r="N460" s="2">
         <f t="shared" si="10"/>
-        <v>0.59562060038014863</v>
+        <v>0.59203878496826257</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
@@ -20328,7 +20328,7 @@
       </c>
       <c r="N461" s="2">
         <f t="shared" si="10"/>
-        <v>0.60631094206097302</v>
+        <v>0.60216819637760866</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
@@ -20370,7 +20370,7 @@
       </c>
       <c r="N462" s="2">
         <f t="shared" si="10"/>
-        <v>0.61699342506087795</v>
+        <v>0.61228656732147135</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="N463" s="2">
         <f t="shared" si="10"/>
-        <v>0.62764660931635496</v>
+        <v>0.62237579168591328</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
@@ -20454,7 +20454,7 @@
       </c>
       <c r="N464" s="2">
         <f t="shared" si="10"/>
-        <v>0.63824775890393648</v>
+        <v>0.6324168074014439</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
@@ -20496,7 +20496,7 @@
       </c>
       <c r="N465" s="2">
         <f t="shared" si="10"/>
-        <v>0.64877289997012677</v>
+        <v>0.64238964916082553</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
@@ -20538,7 +20538,7 @@
       </c>
       <c r="N466" s="2">
         <f t="shared" si="10"/>
-        <v>0.65919689880514543</v>
+        <v>0.6522735151177449</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="N467" s="2">
         <f t="shared" si="10"/>
-        <v>0.66949356123710013</v>
+        <v>0.66204684811969694</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="N468" s="2">
         <f t="shared" si="10"/>
-        <v>0.67963575421209543</v>
+        <v>0.67168743181310941</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="N469" s="2">
         <f t="shared" si="10"/>
-        <v>0.68959555004095974</v>
+        <v>0.68117250170525567</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="N470" s="2">
         <f t="shared" si="10"/>
-        <v>0.69934439333595888</v>
+        <v>0.69047887097786942</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="N471" s="2">
         <f t="shared" si="10"/>
-        <v>0.70885329013665754</v>
+        <v>0.69958307052615409</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="N472" s="2">
         <f t="shared" si="10"/>
-        <v>0.71809301814216064</v>
+        <v>0.70846150235008609</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="N473" s="2">
         <f t="shared" si="10"/>
-        <v>0.72703435634136826</v>
+        <v>0.71709060506102418</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
@@ -20874,7 +20874,7 @@
       </c>
       <c r="N474" s="2">
         <f t="shared" si="10"/>
-        <v>0.73564833168156485</v>
+        <v>0.72544702989564713</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="N475" s="2">
         <f t="shared" si="10"/>
-        <v>0.74390647976132573</v>
+        <v>0.73350782526331249</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="N476" s="2">
         <f t="shared" si="10"/>
-        <v>0.75178111590194618</v>
+        <v>0.74125062750518611</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="N477" s="2">
         <f t="shared" si="10"/>
-        <v>0.75924561237094301</v>
+        <v>0.74865385522819083</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
@@ -21042,7 +21042,7 @@
       </c>
       <c r="N478" s="2">
         <f t="shared" si="10"/>
-        <v>0.76627467703103092</v>
+        <v>0.75569690430831604</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="N479" s="2">
         <f t="shared" si="10"/>
-        <v>0.77284462829749911</v>
+        <v>0.76236034045007006</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="N480" s="2">
         <f t="shared" si="10"/>
-        <v>0.77893366103263295</v>
+        <v>0.76862608605439597</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
@@ -21168,7 +21168,7 @@
       </c>
       <c r="N481" s="2">
         <f t="shared" si="10"/>
-        <v>0.78452209791028038</v>
+        <v>0.77447759809668459</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="N482" s="2">
         <f t="shared" si="10"/>
-        <v>0.78959262086308157</v>
+        <v>0.77990003375730099</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="N483" s="2">
         <f t="shared" si="10"/>
-        <v>0.79413047748784538</v>
+        <v>0.78488040068327392</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
@@ -21294,7 +21294,7 @@
       </c>
       <c r="N484" s="2">
         <f t="shared" si="10"/>
-        <v>0.79812365773086547</v>
+        <v>0.78940768899168146</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
@@ -21336,7 +21336,7 @@
       </c>
       <c r="N485" s="2">
         <f t="shared" si="10"/>
-        <v>0.80156303679466057</v>
+        <v>0.79347298244846276</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
@@ -21378,7 +21378,7 @@
       </c>
       <c r="N486" s="2">
         <f t="shared" si="10"/>
-        <v>0.8044424809816908</v>
+        <v>0.79706954666261631</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="N487" s="2">
         <f t="shared" si="10"/>
-        <v>0.80675891409083356</v>
+        <v>0.80019289261235316</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="N488" s="2">
         <f t="shared" si="10"/>
-        <v>0.8085123429738672</v>
+        <v>0.80284081435099175</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
@@ -21504,7 +21504,7 @@
       </c>
       <c r="N489" s="2">
         <f t="shared" si="10"/>
-        <v>0.80970584190118478</v>
+        <v>0.80501340030751323</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="N490" s="2">
         <f t="shared" si="10"/>
-        <v>0.81034549643535958</v>
+        <v>0.80671301817948049</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="N491" s="2">
         <f t="shared" si="10"/>
-        <v>0.81044030852442261</v>
+        <v>0.80794427399348168</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
@@ -21630,7 +21630,7 @@
       </c>
       <c r="N492" s="2">
         <f t="shared" si="10"/>
-        <v>0.81000206546291886</v>
+        <v>0.80871394645994377</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="N493" s="2">
         <f t="shared" si="10"/>
-        <v>0.80904517619193983</v>
+        <v>0.80903089825617669</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="N494" s="2">
         <f t="shared" si="10"/>
-        <v>0.80758647909027781</v>
+        <v>0.80890596631742528</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="N495" s="2">
         <f t="shared" si="10"/>
-        <v>0.8056450259269109</v>
+        <v>0.8083518335873876</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
@@ -21798,7 +21798,7 @@
       </c>
       <c r="N496" s="2">
         <f t="shared" si="10"/>
-        <v>0.80324184698853851</v>
+        <v>0.80738288496772603</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
@@ -21840,7 +21840,7 @@
       </c>
       <c r="N497" s="2">
         <f t="shared" si="10"/>
-        <v>0.8003997025624755</v>
+        <v>0.8060150504052499</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
@@ -21882,7 +21882,7 @@
       </c>
       <c r="N498" s="2">
         <f t="shared" si="10"/>
-        <v>0.79714282595102004</v>
+        <v>0.80426563816431895</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
@@ -21924,7 +21924,7 @@
       </c>
       <c r="N499" s="2">
         <f t="shared" si="10"/>
-        <v>0.79349666303225697</v>
+        <v>0.80215316135322001</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
@@ -21966,7 +21966,7 @@
       </c>
       <c r="N500" s="2">
         <f t="shared" si="10"/>
-        <v>0.78948761308385296</v>
+        <v>0.799697160712594</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
@@ -22008,7 +22008,7 @@
       </c>
       <c r="N501" s="2">
         <f t="shared" si="10"/>
-        <v>0.78514277517496844</v>
+        <v>0.79691802654015953</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
@@ -22050,7 +22050,7 @@
       </c>
       <c r="N502" s="2">
         <f t="shared" si="10"/>
-        <v>0.78048970393344319</v>
+        <v>0.79383682242965747</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
@@ -22092,7 +22092,7 @@
       </c>
       <c r="N503" s="2">
         <f t="shared" si="10"/>
-        <v>0.77555617793840836</v>
+        <v>0.79047511325529873</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
@@ -22134,7 +22134,7 @@
       </c>
       <c r="N504" s="2">
         <f t="shared" si="10"/>
-        <v>0.77036998339903173</v>
+        <v>0.78685479954870174</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="N505" s="2">
         <f t="shared" si="10"/>
-        <v>0.76495871518270098</v>
+        <v>0.78299796010608991</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
@@ -22218,7 +22218,7 @@
       </c>
       <c r="N506" s="2">
         <f t="shared" si="10"/>
-        <v>0.75934959667223279</v>
+        <v>0.77892670434150357</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
@@ -22260,7 +22260,7 @@
       </c>
       <c r="N507" s="2">
         <f t="shared" si="10"/>
-        <v>0.75356931937953631</v>
+        <v>0.77466303557806249</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
@@ -22302,7 +22302,7 @@
       </c>
       <c r="N508" s="2">
         <f t="shared" si="10"/>
-        <v>0.74764390273643633</v>
+        <v>0.770228726153531</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
@@ -22344,7 +22344,7 @@
       </c>
       <c r="N509" s="2">
         <f t="shared" si="10"/>
-        <v>0.74159857403219109</v>
+        <v>0.76564520491672106</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
@@ -22386,7 +22386,7 @@
       </c>
       <c r="N510" s="2">
         <f t="shared" si="10"/>
-        <v>0.73545766807770208</v>
+        <v>0.76093345741403551</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
@@ -22428,7 +22428,7 @@
       </c>
       <c r="N511" s="2">
         <f t="shared" si="10"/>
-        <v>0.72924454585142084</v>
+        <v>0.75611393881536471</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
@@ -22470,7 +22470,7 @@
       </c>
       <c r="N512" s="2">
         <f t="shared" si="10"/>
-        <v>0.72298153112135455</v>
+        <v>0.75120649940872108</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.2">
@@ -22512,7 +22512,7 @@
       </c>
       <c r="N513" s="2">
         <f t="shared" si="10"/>
-        <v>0.71668986383888056</v>
+        <v>0.74623032230503505</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.2">
@@ -22554,7 +22554,7 @@
       </c>
       <c r="N514" s="2">
         <f t="shared" si="10"/>
-        <v>0.71038966895917388</v>
+        <v>0.74120387283883427</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.2">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="N515" s="2">
         <f t="shared" si="10"/>
-        <v>0.70409993925410552</v>
+        <v>0.73614485902622406</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.2">
@@ -22638,7 +22638,7 @@
       </c>
       <c r="N516" s="2">
         <f t="shared" si="10"/>
-        <v>0.69783853064050005</v>
+        <v>0.73107020234722964</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.2">
@@ -22680,7 +22680,7 @@
       </c>
       <c r="N517" s="2">
         <f t="shared" si="10"/>
-        <v>0.69162216854262359</v>
+        <v>0.72599601805280223</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.2">
@@ -22722,7 +22722,7 @@
       </c>
       <c r="N518" s="2">
         <f t="shared" si="10"/>
-        <v>0.68546646383620702</v>
+        <v>0.72093760415497476</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.2">
@@ -22764,7 +22764,7 @@
       </c>
       <c r="N519" s="2">
         <f t="shared" si="10"/>
-        <v>0.67938593697558014</v>
+        <v>0.71590943823886033</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.2">
@@ -22806,7 +22806,7 @@
       </c>
       <c r="N520" s="2">
         <f t="shared" ref="N520:N583" si="11">(B520*B$5+C520*C$5+D520*D$5+E520*E$5+F520*F$5+G520*G$5+H520*H$5+I520*I$5+J520*J$5+K520*K$5+L520*L$5)/SUM(B$5:L$5)</f>
-        <v>0.6733940489796042</v>
+        <v>0.71092518123425563</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.2">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="N521" s="2">
         <f t="shared" si="11"/>
-        <v>0.6675032380405912</v>
+        <v>0.70599768729960177</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="N522" s="2">
         <f t="shared" si="11"/>
-        <v>0.66172496061841235</v>
+        <v>0.70113901899890019</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.2">
@@ -22932,7 +22932,7 @@
       </c>
       <c r="N523" s="2">
         <f t="shared" si="11"/>
-        <v>0.65606973598542229</v>
+        <v>0.69636046699016596</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.2">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="N524" s="2">
         <f t="shared" si="11"/>
-        <v>0.6505471932932767</v>
+        <v>0.69167257348965716</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.2">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="N525" s="2">
         <f t="shared" si="11"/>
-        <v>0.6451661203371829</v>
+        <v>0.68708515882699284</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
@@ -23058,7 +23058,7 @@
       </c>
       <c r="N526" s="2">
         <f t="shared" si="11"/>
-        <v>0.63993451329466955</v>
+        <v>0.68260735046066612</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.2">
@@ -23100,7 +23100,7 @@
       </c>
       <c r="N527" s="2">
         <f t="shared" si="11"/>
-        <v>0.6348596268126423</v>
+        <v>0.67824761387937693</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.2">
@@ -23142,7 +23142,7 @@
       </c>
       <c r="N528" s="2">
         <f t="shared" si="11"/>
-        <v>0.62994802390729976</v>
+        <v>0.67401378487086816</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.2">
@@ -23184,7 +23184,7 @@
       </c>
       <c r="N529" s="2">
         <f t="shared" si="11"/>
-        <v>0.62520562522552259</v>
+        <v>0.66991310269527238</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.2">
@@ -23226,7 +23226,7 @@
       </c>
       <c r="N530" s="2">
         <f t="shared" si="11"/>
-        <v>0.62063775729316195</v>
+        <v>0.66595224375346529</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.2">
@@ -23268,7 +23268,7 @@
       </c>
       <c r="N531" s="2">
         <f t="shared" si="11"/>
-        <v>0.61624919944507428</v>
+        <v>0.66213735539189078</v>
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.2">
@@ -23310,7 +23310,7 @@
       </c>
       <c r="N532" s="2">
         <f t="shared" si="11"/>
-        <v>0.6120442291937902</v>
+        <v>0.65847408953325981</v>
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.2">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="N533" s="2">
         <f t="shared" si="11"/>
-        <v>0.60802666584852438</v>
+        <v>0.65496763586703322</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.2">
@@ -23394,7 +23394,7 @@
       </c>
       <c r="N534" s="2">
         <f t="shared" si="11"/>
-        <v>0.60419991224425029</v>
+        <v>0.65162275437457196</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.2">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="N535" s="2">
         <f t="shared" si="11"/>
-        <v>0.60056699448200135</v>
+        <v>0.64844380700101323</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.2">
@@ -23478,7 +23478,7 @@
       </c>
       <c r="N536" s="2">
         <f t="shared" si="11"/>
-        <v>0.59713059961711379</v>
+        <v>0.64543478831952117</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.2">
@@ -23520,7 +23520,7 @@
       </c>
       <c r="N537" s="2">
         <f t="shared" si="11"/>
-        <v>0.59389311126203526</v>
+        <v>0.64259935506339028</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.2">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="N538" s="2">
         <f t="shared" si="11"/>
-        <v>0.59085664309531261</v>
+        <v>0.63994085442792037</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.2">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="N539" s="2">
         <f t="shared" si="11"/>
-        <v>0.58802307028877887</v>
+        <v>0.63746235106699267</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.2">
@@ -23646,7 +23646,7 @@
       </c>
       <c r="N540" s="2">
         <f t="shared" si="11"/>
-        <v>0.58539405888134799</v>
+        <v>0.63516665272919492</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
@@ -23688,7 +23688,7 @@
       </c>
       <c r="N541" s="2">
         <f t="shared" si="11"/>
-        <v>0.5829710931406461</v>
+        <v>0.63305633449531173</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.2">
@@ -23730,7 +23730,7 @@
       </c>
       <c r="N542" s="2">
         <f t="shared" si="11"/>
-        <v>0.58075550096334716</v>
+        <v>0.6311337615932614</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="N543" s="2">
         <f t="shared" si="11"/>
-        <v>0.5787484773720043</v>
+        <v>0.62940111077835614</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.2">
@@ -23814,7 +23814,7 @@
       </c>
       <c r="N544" s="2">
         <f t="shared" si="11"/>
-        <v>0.57695110617066969</v>
+        <v>0.62786039027628571</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.2">
@@ -23856,7 +23856,7 @@
       </c>
       <c r="N545" s="2">
         <f t="shared" si="11"/>
-        <v>0.57536437982403121</v>
+        <v>0.62651345829371696</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.2">
@@ -23898,7 +23898,7 @@
       </c>
       <c r="N546" s="2">
         <f t="shared" si="11"/>
-        <v>0.57398921762549104</v>
+        <v>0.62536204010707097</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.2">
@@ -23940,7 +23940,7 @@
       </c>
       <c r="N547" s="2">
         <f t="shared" si="11"/>
-        <v>0.572826482218741</v>
+        <v>0.62440774374404207</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.2">
@@ -23982,7 +23982,7 @@
       </c>
       <c r="N548" s="2">
         <f t="shared" si="11"/>
-        <v>0.57187699453527241</v>
+        <v>0.62365207427499869</v>
       </c>
     </row>
     <row r="549" spans="1:14" x14ac:dyDescent="0.2">
@@ -24024,7 +24024,7 @@
       </c>
       <c r="N549" s="2">
         <f t="shared" si="11"/>
-        <v>0.57114154720701937</v>
+        <v>0.62309644673266351</v>
       </c>
     </row>
     <row r="550" spans="1:14" x14ac:dyDescent="0.2">
@@ -24066,7 +24066,7 @@
       </c>
       <c r="N550" s="2">
         <f t="shared" si="11"/>
-        <v>0.57062091650920665</v>
+        <v>0.6227421976786125</v>
       </c>
     </row>
     <row r="551" spans="1:14" x14ac:dyDescent="0.2">
@@ -24108,7 +24108,7 @@
       </c>
       <c r="N551" s="2">
         <f t="shared" si="11"/>
-        <v>0.57031587288352104</v>
+        <v>0.62259059543424289</v>
       </c>
     </row>
     <row r="552" spans="1:14" x14ac:dyDescent="0.2">
@@ -24150,7 +24150,7 @@
       </c>
       <c r="N552" s="2">
         <f t="shared" si="11"/>
-        <v>0.5702271900861775</v>
+        <v>0.62264284899213262</v>
       </c>
     </row>
     <row r="553" spans="1:14" x14ac:dyDescent="0.2">
@@ -24192,7 +24192,7 @@
       </c>
       <c r="N553" s="2">
         <f t="shared" si="11"/>
-        <v>0.57035565299930735</v>
+        <v>0.62290011562120151</v>
       </c>
     </row>
     <row r="554" spans="1:14" x14ac:dyDescent="0.2">
@@ -24234,7 +24234,7 @@
       </c>
       <c r="N554" s="2">
         <f t="shared" si="11"/>
-        <v>0.57070206413751534</v>
+        <v>0.62336350717590516</v>
       </c>
     </row>
     <row r="555" spans="1:14" x14ac:dyDescent="0.2">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="N555" s="2">
         <f t="shared" si="11"/>
-        <v>0.57126724887447078</v>
+        <v>0.62403409511597907</v>
       </c>
     </row>
     <row r="556" spans="1:14" x14ac:dyDescent="0.2">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="N556" s="2">
         <f t="shared" si="11"/>
-        <v>0.5720520594070917</v>
+        <v>0.62491291423901285</v>
       </c>
     </row>
     <row r="557" spans="1:14" x14ac:dyDescent="0.2">
@@ -24360,7 +24360,7 @@
       </c>
       <c r="N557" s="2">
         <f t="shared" si="11"/>
-        <v>0.57305737746729013</v>
+        <v>0.62600096512352132</v>
       </c>
     </row>
     <row r="558" spans="1:14" x14ac:dyDescent="0.2">
@@ -24402,7 +24402,7 @@
       </c>
       <c r="N558" s="2">
         <f t="shared" si="11"/>
-        <v>0.5742841157834061</v>
+        <v>0.62729921527520838</v>
       </c>
     </row>
     <row r="559" spans="1:14" x14ac:dyDescent="0.2">
@@ -24444,7 +24444,7 @@
       </c>
       <c r="N559" s="2">
         <f t="shared" si="11"/>
-        <v>0.57573321828542801</v>
+        <v>0.62880859896388708</v>
       </c>
     </row>
     <row r="560" spans="1:14" x14ac:dyDescent="0.2">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="N560" s="2">
         <f t="shared" si="11"/>
-        <v>0.57740565903987873</v>
+        <v>0.63053001573308654</v>
       </c>
     </row>
     <row r="561" spans="1:14" x14ac:dyDescent="0.2">
@@ -24528,7 +24528,7 @@
       </c>
       <c r="N561" s="2">
         <f t="shared" si="11"/>
-        <v>0.57930243989187535</v>
+        <v>0.63246432755877557</v>
       </c>
     </row>
     <row r="562" spans="1:14" x14ac:dyDescent="0.2">
@@ -24570,7 +24570,7 @@
       </c>
       <c r="N562" s="2">
         <f t="shared" si="11"/>
-        <v>0.58142458678340425</v>
+        <v>0.63461235462799037</v>
       </c>
     </row>
     <row r="563" spans="1:14" x14ac:dyDescent="0.2">
@@ -24612,7 +24612,7 @@
       </c>
       <c r="N563" s="2">
         <f t="shared" si="11"/>
-        <v>0.58377314470826736</v>
+        <v>0.63697486970246375</v>
       </c>
     </row>
     <row r="564" spans="1:14" x14ac:dyDescent="0.2">
@@ -24654,7 +24654,7 @@
       </c>
       <c r="N564" s="2">
         <f t="shared" si="11"/>
-        <v>0.58634917125555275</v>
+        <v>0.63955259102675965</v>
       </c>
     </row>
     <row r="565" spans="1:14" x14ac:dyDescent="0.2">
@@ -24696,7 +24696,7 @@
       </c>
       <c r="N565" s="2">
         <f t="shared" si="11"/>
-        <v>0.58915372868482219</v>
+        <v>0.64234617373491865</v>
       </c>
     </row>
     <row r="566" spans="1:14" x14ac:dyDescent="0.2">
@@ -24738,7 +24738,7 @@
       </c>
       <c r="N566" s="2">
         <f t="shared" si="11"/>
-        <v>0.59218787446764476</v>
+        <v>0.64535619970440417</v>
       </c>
     </row>
     <row r="567" spans="1:14" x14ac:dyDescent="0.2">
@@ -24780,7 +24780,7 @@
       </c>
       <c r="N567" s="2">
         <f t="shared" si="11"/>
-        <v>0.59545265022159621</v>
+        <v>0.64858316580120101</v>
       </c>
     </row>
     <row r="568" spans="1:14" x14ac:dyDescent="0.2">
@@ -24822,7 +24822,7 @@
       </c>
       <c r="N568" s="2">
         <f t="shared" si="11"/>
-        <v>0.59894906895453415</v>
+        <v>0.65202747045544929</v>
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.2">
@@ -24864,7 +24864,7 @@
       </c>
       <c r="N569" s="2">
         <f t="shared" si="11"/>
-        <v>0.6026781005289279</v>
+        <v>0.65568939850308461</v>
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.2">
@@ -24906,7 +24906,7 @@
       </c>
       <c r="N570" s="2">
         <f t="shared" si="11"/>
-        <v>0.60664065524837041</v>
+        <v>0.6595691042257511</v>
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.2">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="N571" s="2">
         <f t="shared" si="11"/>
-        <v>0.61083756546126944</v>
+        <v>0.66366659251893279</v>
       </c>
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.2">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="N572" s="2">
         <f t="shared" si="11"/>
-        <v>0.61526956507031583</v>
+        <v>0.6679816981170027</v>
       </c>
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.2">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="N573" s="2">
         <f t="shared" si="11"/>
-        <v>0.61993726683075678</v>
+        <v>0.67251406280388581</v>
       </c>
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.2">
@@ -25074,7 +25074,7 @@
       </c>
       <c r="N574" s="2">
         <f t="shared" si="11"/>
-        <v>0.62484113731615509</v>
+        <v>0.67726311053960775</v>
       </c>
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.2">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="N575" s="2">
         <f t="shared" si="11"/>
-        <v>0.62998146942727107</v>
+        <v>0.68222802043628672</v>
       </c>
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.2">
@@ -25158,7 +25158,7 @@
       </c>
       <c r="N576" s="2">
         <f t="shared" si="11"/>
-        <v>0.6353583523184807</v>
+        <v>0.68740769752256603</v>
       </c>
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.2">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="N577" s="2">
         <f t="shared" si="11"/>
-        <v>0.6409716386169596</v>
+        <v>0.69280074124328939</v>
       </c>
     </row>
     <row r="578" spans="1:14" x14ac:dyDescent="0.2">
@@ -25242,7 +25242,7 @@
       </c>
       <c r="N578" s="2">
         <f t="shared" si="11"/>
-        <v>0.64682090881321874</v>
+        <v>0.69840541165181624</v>
       </c>
     </row>
     <row r="579" spans="1:14" x14ac:dyDescent="0.2">
@@ -25284,7 +25284,7 @@
       </c>
       <c r="N579" s="2">
         <f t="shared" si="11"/>
-        <v>0.65290543270793777</v>
+        <v>0.70421959326612427</v>
       </c>
     </row>
     <row r="580" spans="1:14" x14ac:dyDescent="0.2">
@@ -25326,7 +25326,7 @@
       </c>
       <c r="N580" s="2">
         <f t="shared" si="11"/>
-        <v>0.65922412780994177</v>
+        <v>0.71024075657717811</v>
       </c>
     </row>
     <row r="581" spans="1:14" x14ac:dyDescent="0.2">
@@ -25368,7 +25368,7 @@
       </c>
       <c r="N581" s="2">
         <f t="shared" si="11"/>
-        <v>0.66577551459419138</v>
+        <v>0.71646591721937158</v>
       </c>
     </row>
     <row r="582" spans="1:14" x14ac:dyDescent="0.2">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="N582" s="2">
         <f t="shared" si="11"/>
-        <v>0.6725576685475243</v>
+        <v>0.7228915928386942</v>
       </c>
     </row>
     <row r="583" spans="1:14" x14ac:dyDescent="0.2">
@@ -25452,7 +25452,7 @@
       </c>
       <c r="N583" s="2">
         <f t="shared" si="11"/>
-        <v>0.67956816895419991</v>
+        <v>0.72951375772498706</v>
       </c>
     </row>
     <row r="584" spans="1:14" x14ac:dyDescent="0.2">
@@ -25494,7 +25494,7 @@
       </c>
       <c r="N584" s="2">
         <f t="shared" ref="N584:N647" si="12">(B584*B$5+C584*C$5+D584*D$5+E584*E$5+F584*F$5+G584*G$5+H584*H$5+I584*I$5+J584*J$5+K584*K$5+L584*L$5)/SUM(B$5:L$5)</f>
-        <v>0.68680404440401355</v>
+        <v>0.7363277953108649</v>
       </c>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.2">
@@ -25536,7 +25536,7 @@
       </c>
       <c r="N585" s="2">
         <f t="shared" si="12"/>
-        <v>0.6942617150434629</v>
+        <v>0.74332844868184944</v>
       </c>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.2">
@@ -25578,7 +25578,7 @@
       </c>
       <c r="N586" s="2">
         <f t="shared" si="12"/>
-        <v>0.70193693163622606</v>
+        <v>0.75050976929058821</v>
       </c>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.2">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="N587" s="2">
         <f t="shared" si="12"/>
-        <v>0.70982471155375404</v>
+        <v>0.75786506412293486</v>
       </c>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.2">
@@ -25662,7 +25662,7 @@
       </c>
       <c r="N588" s="2">
         <f t="shared" si="12"/>
-        <v>0.7179192718810341</v>
+        <v>0.76538684162550641</v>
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.2">
@@ -25704,7 +25704,7 @@
       </c>
       <c r="N589" s="2">
         <f t="shared" si="12"/>
-        <v>0.72621395989731929</v>
+        <v>0.77306675677323322</v>
       </c>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.2">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="N590" s="2">
         <f t="shared" si="12"/>
-        <v>0.7347011812775518</v>
+        <v>0.78089555573140568</v>
       </c>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.2">
@@ -25788,7 +25788,7 @@
       </c>
       <c r="N591" s="2">
         <f t="shared" si="12"/>
-        <v>0.74337232645797224</v>
+        <v>0.78886302064962144</v>
       </c>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.2">
@@ -25830,7 +25830,7 @@
       </c>
       <c r="N592" s="2">
         <f t="shared" si="12"/>
-        <v>0.75221769571926322</v>
+        <v>0.79695791521436754</v>
       </c>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.2">
@@ -25872,7 +25872,7 @@
       </c>
       <c r="N593" s="2">
         <f t="shared" si="12"/>
-        <v>0.76122642366280002</v>
+        <v>0.80516793168211387</v>
       </c>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.2">
@@ -25914,7 +25914,7 @@
       </c>
       <c r="N594" s="2">
         <f t="shared" si="12"/>
-        <v>0.77038640388976443</v>
+        <v>0.81347964021461994</v>
       </c>
     </row>
     <row r="595" spans="1:14" x14ac:dyDescent="0.2">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="N595" s="2">
         <f t="shared" si="12"/>
-        <v>0.77968421483834094</v>
+        <v>0.82187844144115707</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.2">
@@ -25998,7 +25998,7 @@
       </c>
       <c r="N596" s="2">
         <f t="shared" si="12"/>
-        <v>0.78910504788975788</v>
+        <v>0.83034852327675557</v>
       </c>
     </row>
     <row r="597" spans="1:14" x14ac:dyDescent="0.2">
@@ -26040,7 +26040,7 @@
       </c>
       <c r="N597" s="2">
         <f t="shared" si="12"/>
-        <v>0.79863263901746184</v>
+        <v>0.83887282312879519</v>
       </c>
     </row>
     <row r="598" spans="1:14" x14ac:dyDescent="0.2">
@@ -26082,7 +26082,7 @@
       </c>
       <c r="N598" s="2">
         <f t="shared" si="12"/>
-        <v>0.80824920542255119</v>
+        <v>0.84743299672343675</v>
       </c>
     </row>
     <row r="599" spans="1:14" x14ac:dyDescent="0.2">
@@ -26124,7 +26124,7 @@
       </c>
       <c r="N599" s="2">
         <f t="shared" si="12"/>
-        <v>0.8179353887690356</v>
+        <v>0.85600939487491379</v>
       </c>
     </row>
     <row r="600" spans="1:14" x14ac:dyDescent="0.2">
@@ -26166,7 +26166,7 @@
       </c>
       <c r="N600" s="2">
         <f t="shared" si="12"/>
-        <v>0.82767020679980841</v>
+        <v>0.86458104960048088</v>
       </c>
     </row>
     <row r="601" spans="1:14" x14ac:dyDescent="0.2">
@@ -26208,7 +26208,7 @@
       </c>
       <c r="N601" s="2">
         <f t="shared" si="12"/>
-        <v>0.83743101527272368</v>
+        <v>0.8731256710471812</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.2">
@@ -26250,7 +26250,7 @@
       </c>
       <c r="N602" s="2">
         <f t="shared" si="12"/>
-        <v>0.84719348229872782</v>
+        <v>0.8816196567382466</v>
       </c>
     </row>
     <row r="603" spans="1:14" x14ac:dyDescent="0.2">
@@ -26292,7 +26292,7 @@
       </c>
       <c r="N603" s="2">
         <f t="shared" si="12"/>
-        <v>0.85693157728274238</v>
+        <v>0.89003811466140115</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.2">
@@ -26334,7 +26334,7 @@
       </c>
       <c r="N604" s="2">
         <f t="shared" si="12"/>
-        <v>0.86661757675359552</v>
+        <v>0.89835490170260035</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.2">
@@ -26376,7 +26376,7 @@
       </c>
       <c r="N605" s="2">
         <f t="shared" si="12"/>
-        <v>0.87622208941161805</v>
+        <v>0.90654267887077133</v>
       </c>
     </row>
     <row r="606" spans="1:14" x14ac:dyDescent="0.2">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="N606" s="2">
         <f t="shared" si="12"/>
-        <v>0.88571410271090423</v>
+        <v>0.91457298465619152</v>
       </c>
     </row>
     <row r="607" spans="1:14" x14ac:dyDescent="0.2">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="N607" s="2">
         <f t="shared" si="12"/>
-        <v>0.89506105321637053</v>
+        <v>0.92241632771174542</v>
       </c>
     </row>
     <row r="608" spans="1:14" x14ac:dyDescent="0.2">
@@ -26502,7 +26502,7 @@
       </c>
       <c r="N608" s="2">
         <f t="shared" si="12"/>
-        <v>0.9042289228227024</v>
+        <v>0.93004229983788367</v>
       </c>
     </row>
     <row r="609" spans="1:14" x14ac:dyDescent="0.2">
@@ -26544,7 +26544,7 @@
       </c>
       <c r="N609" s="2">
         <f t="shared" si="12"/>
-        <v>0.91318236268288178</v>
+        <v>0.93741970998534008</v>
       </c>
     </row>
     <row r="610" spans="1:14" x14ac:dyDescent="0.2">
@@ -26586,7 +26586,7 @@
       </c>
       <c r="N610" s="2">
         <f t="shared" si="12"/>
-        <v>0.92188484635941781</v>
+        <v>0.94451673966274907</v>
       </c>
     </row>
     <row r="611" spans="1:14" x14ac:dyDescent="0.2">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="N611" s="2">
         <f t="shared" si="12"/>
-        <v>0.93029885327545603</v>
+        <v>0.95130111974973064</v>
       </c>
     </row>
     <row r="612" spans="1:14" x14ac:dyDescent="0.2">
@@ -26670,7 +26670,7 @@
       </c>
       <c r="N612" s="2">
         <f t="shared" si="12"/>
-        <v>0.93838608300233739</v>
+        <v>0.95774032827251188</v>
       </c>
     </row>
     <row r="613" spans="1:14" x14ac:dyDescent="0.2">
@@ -26712,7 +26712,7 @@
       </c>
       <c r="N613" s="2">
         <f t="shared" si="12"/>
-        <v>0.94610770027637603</v>
+        <v>0.96380180820478589</v>
       </c>
     </row>
     <row r="614" spans="1:14" x14ac:dyDescent="0.2">
@@ -26754,7 +26754,7 @@
       </c>
       <c r="N614" s="2">
         <f t="shared" si="12"/>
-        <v>0.95342460989650812</v>
+        <v>0.96945320381995048</v>
       </c>
     </row>
     <row r="615" spans="1:14" x14ac:dyDescent="0.2">
@@ -26796,7 +26796,7 @@
       </c>
       <c r="N615" s="2">
         <f t="shared" si="12"/>
-        <v>0.96029775982862353</v>
+        <v>0.97466261355478967</v>
       </c>
     </row>
     <row r="616" spans="1:14" x14ac:dyDescent="0.2">
@@ -26838,7 +26838,7 @@
       </c>
       <c r="N616" s="2">
         <f t="shared" si="12"/>
-        <v>0.96668846995003288</v>
+        <v>0.97939885676446592</v>
       </c>
     </row>
     <row r="617" spans="1:14" x14ac:dyDescent="0.2">
@@ -26880,7 +26880,7 @@
       </c>
       <c r="N617" s="2">
         <f t="shared" si="12"/>
-        <v>0.97255878293412834</v>
+        <v>0.98363175117331314</v>
       </c>
     </row>
     <row r="618" spans="1:14" x14ac:dyDescent="0.2">
@@ -26922,7 +26922,7 @@
       </c>
       <c r="N618" s="2">
         <f t="shared" si="12"/>
-        <v>0.97787183283236068</v>
+        <v>0.987332397276662</v>
       </c>
     </row>
     <row r="619" spans="1:14" x14ac:dyDescent="0.2">
@@ -26964,7 +26964,7 @@
       </c>
       <c r="N619" s="2">
         <f t="shared" si="12"/>
-        <v>0.98259222599549179</v>
+        <v>0.99047346544911474</v>
       </c>
     </row>
     <row r="620" spans="1:14" x14ac:dyDescent="0.2">
@@ -27006,7 +27006,7 @@
       </c>
       <c r="N620" s="2">
         <f t="shared" si="12"/>
-        <v>0.98668642813041041</v>
+        <v>0.99302948108851197</v>
       </c>
     </row>
     <row r="621" spans="1:14" x14ac:dyDescent="0.2">
@@ -27048,7 +27048,7 @@
       </c>
       <c r="N621" s="2">
         <f t="shared" si="12"/>
-        <v>0.99012315055679778</v>
+        <v>0.99497710279624729</v>
       </c>
     </row>
     <row r="622" spans="1:14" x14ac:dyDescent="0.2">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="N622" s="2">
         <f t="shared" si="12"/>
-        <v>0.99287372815392705</v>
+        <v>0.99629538838586151</v>
       </c>
     </row>
     <row r="623" spans="1:14" x14ac:dyDescent="0.2">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="N623" s="2">
         <f t="shared" si="12"/>
-        <v>0.99491248111370056</v>
+        <v>0.99696604344226591</v>
       </c>
     </row>
     <row r="624" spans="1:14" x14ac:dyDescent="0.2">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="N624" s="2">
         <f t="shared" si="12"/>
-        <v>0.99621705247770143</v>
+        <v>0.99697364723813142</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.2">
@@ -27216,7 +27216,7 @@
       </c>
       <c r="N625" s="2">
         <f t="shared" si="12"/>
-        <v>0.99676871356108931</v>
+        <v>0.99630585106088221</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.2">
@@ -27258,7 +27258,7 @@
       </c>
       <c r="N626" s="2">
         <f t="shared" si="12"/>
-        <v>0.99655262977081704</v>
+        <v>0.99495354441523998</v>
       </c>
     </row>
     <row r="627" spans="1:14" x14ac:dyDescent="0.2">
@@ -27300,7 +27300,7 @@
       </c>
       <c r="N627" s="2">
         <f t="shared" si="12"/>
-        <v>0.99555808001242796</v>
+        <v>0.9929109851368475</v>
       </c>
     </row>
     <row r="628" spans="1:14" x14ac:dyDescent="0.2">
@@ -27342,7 +27342,7 @@
       </c>
       <c r="N628" s="2">
         <f t="shared" si="12"/>
-        <v>0.99377862383649784</v>
+        <v>0.99017589016855079</v>
       </c>
     </row>
     <row r="629" spans="1:14" x14ac:dyDescent="0.2">
@@ -27384,7 +27384,7 @@
       </c>
       <c r="N629" s="2">
         <f t="shared" si="12"/>
-        <v>0.99121221167510409</v>
+        <v>0.9867494845914484</v>
       </c>
     </row>
     <row r="630" spans="1:14" x14ac:dyDescent="0.2">
@@ -27426,7 +27426,7 @@
       </c>
       <c r="N630" s="2">
         <f t="shared" si="12"/>
-        <v>0.98786123491871924</v>
+        <v>0.98263650743986086</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.2">
@@ -27468,7 +27468,7 @@
       </c>
       <c r="N631" s="2">
         <f t="shared" si="12"/>
-        <v>0.98373251413034368</v>
+        <v>0.97784517382949165</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.2">
@@ -27510,7 +27510,7 @@
       </c>
       <c r="N632" s="2">
         <f t="shared" si="12"/>
-        <v>0.97883722532274464</v>
+        <v>0.97238709395410594</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.2">
@@ -27552,7 +27552,7 @@
       </c>
       <c r="N633" s="2">
         <f t="shared" si="12"/>
-        <v>0.97319076586696596</v>
+        <v>0.96627715051890295</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.2">
@@ -27594,7 +27594,7 @@
       </c>
       <c r="N634" s="2">
         <f t="shared" si="12"/>
-        <v>0.96681256318521069</v>
+        <v>0.95953333713998812</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.2">
@@ -27636,7 +27636,7 @@
       </c>
       <c r="N635" s="2">
         <f t="shared" si="12"/>
-        <v>0.95972583084126961</v>
+        <v>0.95217656111282134</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.2">
@@ -27678,7 +27678,7 @@
       </c>
       <c r="N636" s="2">
         <f t="shared" si="12"/>
-        <v>0.95195727791692619</v>
+        <v>0.94423041470689439</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.2">
@@ -27720,7 +27720,7 @@
       </c>
       <c r="N637" s="2">
         <f t="shared" si="12"/>
-        <v>0.94353677860425145</v>
+        <v>0.9357209197539873</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.2">
@@ -27762,7 +27762,7 @@
       </c>
       <c r="N638" s="2">
         <f t="shared" si="12"/>
-        <v>0.93449700971618244</v>
+        <v>0.92667625074535043</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.2">
@@ -27804,7 +27804,7 @@
       </c>
       <c r="N639" s="2">
         <f t="shared" si="12"/>
-        <v>0.92487306430142324</v>
+        <v>0.91712644192951887</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.2">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="N640" s="2">
         <f t="shared" si="12"/>
-        <v>0.91470204974020664</v>
+        <v>0.90710308400555817</v>
       </c>
     </row>
     <row r="641" spans="1:14" x14ac:dyDescent="0.2">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="N641" s="2">
         <f t="shared" si="12"/>
-        <v>0.90402267860574603</v>
+        <v>0.89663901594301187</v>
       </c>
     </row>
     <row r="642" spans="1:14" x14ac:dyDescent="0.2">
@@ -27930,7 +27930,7 @@
       </c>
       <c r="N642" s="2">
         <f t="shared" si="12"/>
-        <v>0.8928748602259482</v>
+        <v>0.88576801724259224</v>
       </c>
     </row>
     <row r="643" spans="1:14" x14ac:dyDescent="0.2">
@@ -27972,7 +27972,7 @@
       </c>
       <c r="N643" s="2">
         <f t="shared" si="12"/>
-        <v>0.88129930030579673</v>
+        <v>0.87452450559991435</v>
       </c>
     </row>
     <row r="644" spans="1:14" x14ac:dyDescent="0.2">
@@ -28014,7 +28014,7 @@
       </c>
       <c r="N644" s="2">
         <f t="shared" si="12"/>
-        <v>0.86933711521496171</v>
+        <v>0.86294324447142934</v>
       </c>
     </row>
     <row r="645" spans="1:14" x14ac:dyDescent="0.2">
@@ -28056,7 +28056,7 @@
       </c>
       <c r="N645" s="2">
         <f t="shared" si="12"/>
-        <v>0.85702946665390944</v>
+        <v>0.8510590644927013</v>
       </c>
     </row>
     <row r="646" spans="1:14" x14ac:dyDescent="0.2">
@@ -28098,7 +28098,7 @@
       </c>
       <c r="N646" s="2">
         <f t="shared" si="12"/>
-        <v>0.8444172214331318</v>
+        <v>0.83890660209128076</v>
       </c>
     </row>
     <row r="647" spans="1:14" x14ac:dyDescent="0.2">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="N647" s="2">
         <f t="shared" si="12"/>
-        <v>0.83154064008018547</v>
+        <v>0.82652005799588202</v>
       </c>
     </row>
     <row r="648" spans="1:14" x14ac:dyDescent="0.2">
@@ -28182,7 +28182,7 @@
       </c>
       <c r="N648" s="2">
         <f t="shared" ref="N648:N711" si="13">(B648*B$5+C648*C$5+D648*D$5+E648*E$5+F648*F$5+G648*G$5+H648*H$5+I648*I$5+J648*J$5+K648*K$5+L648*L$5)/SUM(B$5:L$5)</f>
-        <v>0.81843909697045691</v>
+        <v>0.81393297769500939</v>
       </c>
     </row>
     <row r="649" spans="1:14" x14ac:dyDescent="0.2">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="N649" s="2">
         <f t="shared" si="13"/>
-        <v>0.80515083369672558</v>
+        <v>0.80117805526376151</v>
       </c>
     </row>
     <row r="650" spans="1:14" x14ac:dyDescent="0.2">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="N650" s="2">
         <f t="shared" si="13"/>
-        <v>0.79171274647968493</v>
+        <v>0.78828696137576293</v>
       </c>
     </row>
     <row r="651" spans="1:14" x14ac:dyDescent="0.2">
@@ -28308,7 +28308,7 @@
       </c>
       <c r="N651" s="2">
         <f t="shared" si="13"/>
-        <v>0.77816020759955151</v>
+        <v>0.7752901957632834</v>
       </c>
     </row>
     <row r="652" spans="1:14" x14ac:dyDescent="0.2">
@@ -28350,7 +28350,7 @@
       </c>
       <c r="N652" s="2">
         <f t="shared" si="13"/>
-        <v>0.76452692011301393</v>
+        <v>0.76221696389331017</v>
       </c>
     </row>
     <row r="653" spans="1:14" x14ac:dyDescent="0.2">
@@ -28392,7 +28392,7 @@
       </c>
       <c r="N653" s="2">
         <f t="shared" si="13"/>
-        <v>0.75084480451897273</v>
+        <v>0.74909507719822188</v>
       </c>
     </row>
     <row r="654" spans="1:14" x14ac:dyDescent="0.2">
@@ -28434,7 +28434,7 @@
       </c>
       <c r="N654" s="2">
         <f t="shared" si="13"/>
-        <v>0.7371439155534556</v>
+        <v>0.73595087584047858</v>
       </c>
     </row>
     <row r="655" spans="1:14" x14ac:dyDescent="0.2">
@@ -28476,7 +28476,7 @@
       </c>
       <c r="N655" s="2">
         <f t="shared" si="13"/>
-        <v>0.72345238692601221</v>
+        <v>0.72280917270192246</v>
       </c>
     </row>
     <row r="656" spans="1:14" x14ac:dyDescent="0.2">
@@ -28518,7 +28518,7 @@
       </c>
       <c r="N656" s="2">
         <f t="shared" si="13"/>
-        <v>0.70979640155057555</v>
+        <v>0.70969321706815236</v>
       </c>
     </row>
     <row r="657" spans="1:14" x14ac:dyDescent="0.2">
@@ -28560,7 +28560,7 @@
       </c>
       <c r="N657" s="2">
         <f t="shared" si="13"/>
-        <v>0.69620018466344802</v>
+        <v>0.69662467632286085</v>
       </c>
     </row>
     <row r="658" spans="1:14" x14ac:dyDescent="0.2">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="N658" s="2">
         <f t="shared" si="13"/>
-        <v>0.68268601714826016</v>
+        <v>0.68362363387049419</v>
       </c>
     </row>
     <row r="659" spans="1:14" x14ac:dyDescent="0.2">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="N659" s="2">
         <f t="shared" si="13"/>
-        <v>0.66927426638985754</v>
+        <v>0.67070860146155853</v>
       </c>
     </row>
     <row r="660" spans="1:14" x14ac:dyDescent="0.2">
@@ -28686,7 +28686,7 @@
       </c>
       <c r="N660" s="2">
         <f t="shared" si="13"/>
-        <v>0.65598343204299481</v>
+        <v>0.65789654409605336</v>
       </c>
     </row>
     <row r="661" spans="1:14" x14ac:dyDescent="0.2">
@@ -28728,7 +28728,7 @@
       </c>
       <c r="N661" s="2">
         <f t="shared" si="13"/>
-        <v>0.64283020421508241</v>
+        <v>0.64520291571981003</v>
       </c>
     </row>
     <row r="662" spans="1:14" x14ac:dyDescent="0.2">
@@ -28770,7 +28770,7 @@
       </c>
       <c r="N662" s="2">
         <f t="shared" si="13"/>
-        <v>0.62982953171264489</v>
+        <v>0.63264170399819231</v>
       </c>
     </row>
     <row r="663" spans="1:14" x14ac:dyDescent="0.2">
@@ -28812,7 +28812,7 @@
       </c>
       <c r="N663" s="2">
         <f t="shared" si="13"/>
-        <v>0.61699469817836328</v>
+        <v>0.62022548254539711</v>
       </c>
     </row>
     <row r="664" spans="1:14" x14ac:dyDescent="0.2">
@@ -28854,7 +28854,7 @@
       </c>
       <c r="N664" s="2">
         <f t="shared" si="13"/>
-        <v>0.60433740413944526</v>
+        <v>0.60796546909862914</v>
       </c>
     </row>
     <row r="665" spans="1:14" x14ac:dyDescent="0.2">
@@ -28896,7 +28896,7 @@
       </c>
       <c r="N665" s="2">
         <f t="shared" si="13"/>
-        <v>0.59186785319083968</v>
+        <v>0.59587158824935249</v>
       </c>
     </row>
     <row r="666" spans="1:14" x14ac:dyDescent="0.2">
@@ -28938,7 +28938,7 @@
       </c>
       <c r="N666" s="2">
         <f t="shared" si="13"/>
-        <v>0.57959484074143364</v>
+        <v>0.58395253747357023</v>
       </c>
     </row>
     <row r="667" spans="1:14" x14ac:dyDescent="0.2">
@@ -28980,7 +28980,7 @@
       </c>
       <c r="N667" s="2">
         <f t="shared" si="13"/>
-        <v>0.56752584395244821</v>
+        <v>0.5722158553354727</v>
       </c>
     </row>
     <row r="668" spans="1:14" x14ac:dyDescent="0.2">
@@ -29022,7 +29022,7 @@
       </c>
       <c r="N668" s="2">
         <f t="shared" si="13"/>
-        <v>0.55566711169052019</v>
+        <v>0.56066799087034969</v>
       </c>
     </row>
     <row r="669" spans="1:14" x14ac:dyDescent="0.2">
@@ -29064,7 +29064,7 @@
       </c>
       <c r="N669" s="2">
         <f t="shared" si="13"/>
-        <v>0.5440237535003013</v>
+        <v>0.54931437328062871</v>
       </c>
     </row>
     <row r="670" spans="1:14" x14ac:dyDescent="0.2">
@@ -29106,7 +29106,7 @@
       </c>
       <c r="N670" s="2">
         <f t="shared" si="13"/>
-        <v>0.53259982677056317</v>
+        <v>0.53815948120105483</v>
       </c>
     </row>
     <row r="671" spans="1:14" x14ac:dyDescent="0.2">
@@ -29148,7 +29148,7 @@
       </c>
       <c r="N671" s="2">
         <f t="shared" si="13"/>
-        <v>0.52139842142265025</v>
+        <v>0.52720691090400729</v>
       </c>
     </row>
     <row r="672" spans="1:14" x14ac:dyDescent="0.2">
@@ -29190,7 +29190,7 @@
       </c>
       <c r="N672" s="2">
         <f t="shared" si="13"/>
-        <v>0.51042174158957765</v>
+        <v>0.51645944292229373</v>
       </c>
     </row>
     <row r="673" spans="1:14" x14ac:dyDescent="0.2">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="N673" s="2">
         <f t="shared" si="13"/>
-        <v>0.4996711838785946</v>
+        <v>0.50591910666435835</v>
       </c>
     </row>
     <row r="674" spans="1:14" x14ac:dyDescent="0.2">
@@ -29274,7 +29274,7 @@
       </c>
       <c r="N674" s="2">
         <f t="shared" si="13"/>
-        <v>0.48914741191928934</v>
+        <v>0.49558724268480203</v>
       </c>
     </row>
     <row r="675" spans="1:14" x14ac:dyDescent="0.2">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="N675" s="2">
         <f t="shared" si="13"/>
-        <v>0.47885042699446012</v>
+        <v>0.48546456235192242</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.2">
@@ -29358,7 +29358,7 @@
       </c>
       <c r="N676" s="2">
         <f t="shared" si="13"/>
-        <v>0.46877963463252531</v>
+        <v>0.47555120472352047</v>
       </c>
     </row>
     <row r="677" spans="1:14" x14ac:dyDescent="0.2">
@@ -29400,7 +29400,7 @@
       </c>
       <c r="N677" s="2">
         <f t="shared" si="13"/>
-        <v>0.45893390710934157</v>
+        <v>0.46584679050301897</v>
       </c>
     </row>
     <row r="678" spans="1:14" x14ac:dyDescent="0.2">
@@ -29442,7 +29442,7 @@
       </c>
       <c r="N678" s="2">
         <f t="shared" si="13"/>
-        <v>0.44931164186499606</v>
+        <v>0.45635047300045012</v>
       </c>
     </row>
     <row r="679" spans="1:14" x14ac:dyDescent="0.2">
@@ -29484,7 +29484,7 @@
       </c>
       <c r="N679" s="2">
         <f t="shared" si="13"/>
-        <v>0.43991081588854697</v>
+        <v>0.44706098606768235</v>
       </c>
     </row>
     <row r="680" spans="1:14" x14ac:dyDescent="0.2">
@@ -29526,7 +29526,7 @@
       </c>
       <c r="N680" s="2">
         <f t="shared" si="13"/>
-        <v>0.43072903616190544</v>
+        <v>0.43797668901496095</v>
       </c>
     </row>
     <row r="681" spans="1:14" x14ac:dyDescent="0.2">
@@ -29568,7 +29568,7 @@
       </c>
       <c r="N681" s="2">
         <f t="shared" si="13"/>
-        <v>0.42176358628429056</v>
+        <v>0.42909560854722911</v>
       </c>
     </row>
     <row r="682" spans="1:14" x14ac:dyDescent="0.2">
@@ -29610,7 +29610,7 @@
       </c>
       <c r="N682" s="2">
         <f t="shared" si="13"/>
-        <v>0.41301146942170225</v>
+        <v>0.42041547778414734</v>
       </c>
     </row>
     <row r="683" spans="1:14" x14ac:dyDescent="0.2">
@@ -29652,7 +29652,7 @@
       </c>
       <c r="N683" s="2">
         <f t="shared" si="13"/>
-        <v>0.40446944774300486</v>
+        <v>0.41193377244826673</v>
       </c>
     </row>
     <row r="684" spans="1:14" x14ac:dyDescent="0.2">
@@ -29694,7 +29694,7 @@
       </c>
       <c r="N684" s="2">
         <f t="shared" si="13"/>
-        <v>0.39613407851597088</v>
+        <v>0.40364774432165113</v>
       </c>
     </row>
     <row r="685" spans="1:14" x14ac:dyDescent="0.2">
@@ -29736,7 +29736,7 @@
       </c>
       <c r="N685" s="2">
         <f t="shared" si="13"/>
-        <v>0.3880017470441281</v>
+        <v>0.3955544520832659</v>
       </c>
     </row>
     <row r="686" spans="1:14" x14ac:dyDescent="0.2">
@@ -29778,7 +29778,7 @@
       </c>
       <c r="N686" s="2">
         <f t="shared" si="13"/>
-        <v>0.38006869662903087</v>
+        <v>0.38765078964803545</v>
       </c>
     </row>
     <row r="687" spans="1:14" x14ac:dyDescent="0.2">
@@ -29820,7 +29820,7 @@
       </c>
       <c r="N687" s="2">
         <f t="shared" si="13"/>
-        <v>0.37233105574333142</v>
+        <v>0.37993351213414239</v>
       </c>
     </row>
     <row r="688" spans="1:14" x14ac:dyDescent="0.2">
@@ -29862,7 +29862,7 @@
       </c>
       <c r="N688" s="2">
         <f t="shared" si="13"/>
-        <v>0.36478486259836324</v>
+        <v>0.37239925958838732</v>
       </c>
     </row>
     <row r="689" spans="1:14" x14ac:dyDescent="0.2">
@@ -29904,7 +29904,7 @@
       </c>
       <c r="N689" s="2">
         <f t="shared" si="13"/>
-        <v>0.3574260872862528</v>
+        <v>0.36504457860055706</v>
       </c>
     </row>
     <row r="690" spans="1:14" x14ac:dyDescent="0.2">
@@ -29946,7 +29946,7 @@
       </c>
       <c r="N690" s="2">
         <f t="shared" si="13"/>
-        <v>0.35025065167146624</v>
+        <v>0.35786594193728072</v>
       </c>
     </row>
     <row r="691" spans="1:14" x14ac:dyDescent="0.2">
@@ -29988,7 +29988,7 @@
       </c>
       <c r="N691" s="2">
         <f t="shared" si="13"/>
-        <v>0.34325444720029208</v>
+        <v>0.35085976632388721</v>
       </c>
     </row>
     <row r="692" spans="1:14" x14ac:dyDescent="0.2">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="N692" s="2">
         <f t="shared" si="13"/>
-        <v>0.33643335078958669</v>
+        <v>0.34402242849978043</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.2">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="N693" s="2">
         <f t="shared" si="13"/>
-        <v>0.32978323894834638</v>
+        <v>0.33735027966899006</v>
       </c>
     </row>
     <row r="694" spans="1:14" x14ac:dyDescent="0.2">
@@ -30114,7 +30114,7 @@
       </c>
       <c r="N694" s="2">
         <f t="shared" si="13"/>
-        <v>0.32330000027746664</v>
+        <v>0.33083965846298768</v>
       </c>
     </row>
     <row r="695" spans="1:14" x14ac:dyDescent="0.2">
@@ -30156,7 +30156,7 @@
       </c>
       <c r="N695" s="2">
         <f t="shared" si="13"/>
-        <v>0.31697954648473153</v>
+        <v>0.32448690252786</v>
       </c>
     </row>
     <row r="696" spans="1:14" x14ac:dyDescent="0.2">
@@ -30198,7 +30198,7 @@
       </c>
       <c r="N696" s="2">
         <f t="shared" si="13"/>
-        <v>0.31081782204366598</v>
+        <v>0.31828835884258155</v>
       </c>
     </row>
     <row r="697" spans="1:14" x14ac:dyDescent="0.2">
@@ -30240,7 +30240,7 @@
       </c>
       <c r="N697" s="2">
         <f t="shared" si="13"/>
-        <v>0.30481081261654797</v>
+        <v>0.31224039286957106</v>
       </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.2">
@@ -30282,7 +30282,7 @@
       </c>
       <c r="N698" s="2">
         <f t="shared" si="13"/>
-        <v>0.29895455235373991</v>
+        <v>0.30633939663307946</v>
       </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.2">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="N699" s="2">
         <f t="shared" si="13"/>
-        <v>0.29324513017353926</v>
+        <v>0.30058179581527023</v>
       </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.2">
@@ -30366,7 +30366,7 @@
       </c>
       <c r="N700" s="2">
         <f t="shared" si="13"/>
-        <v>0.28767869511914429</v>
+        <v>0.29496405595426251</v>
       </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.2">
@@ -30408,7 +30408,7 @@
       </c>
       <c r="N701" s="2">
         <f t="shared" si="13"/>
-        <v>0.28225146088201075</v>
+        <v>0.28948268782290804</v>
       </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.2">
@@ -30450,7 +30450,7 @@
       </c>
       <c r="N702" s="2">
         <f t="shared" si="13"/>
-        <v>0.27695970957390109</v>
+        <v>0.2841342520616934</v>
       </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.2">
@@ -30492,7 +30492,7 @@
       </c>
       <c r="N703" s="2">
         <f t="shared" si="13"/>
-        <v>0.27179979482339606</v>
+        <v>0.27891536313405535</v>
       </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.2">
@@ -30534,7 +30534,7 @@
       </c>
       <c r="N704" s="2">
         <f t="shared" si="13"/>
-        <v>0.26676814426639256</v>
+        <v>0.27382269266739589</v>
       </c>
     </row>
     <row r="705" spans="1:14" x14ac:dyDescent="0.2">
@@ -30576,7 +30576,7 @@
       </c>
       <c r="N705" s="2">
         <f t="shared" si="13"/>
-        <v>0.26186126149431255</v>
+        <v>0.2688529722383925</v>
       </c>
     </row>
     <row r="706" spans="1:14" x14ac:dyDescent="0.2">
@@ -30618,7 +30618,7 @@
       </c>
       <c r="N706" s="2">
         <f t="shared" si="13"/>
-        <v>0.25707572751830432</v>
+        <v>0.26400299565670782</v>
       </c>
     </row>
     <row r="707" spans="1:14" x14ac:dyDescent="0.2">
@@ -30660,7 +30660,7 @@
       </c>
       <c r="N707" s="2">
         <f t="shared" si="13"/>
-        <v>0.25240820180263662</v>
+        <v>0.25926962079695975</v>
       </c>
     </row>
     <row r="708" spans="1:14" x14ac:dyDescent="0.2">
@@ -30702,7 +30702,7 @@
       </c>
       <c r="N708" s="2">
         <f t="shared" si="13"/>
-        <v>0.24785542291577967</v>
+        <v>0.25464977102483521</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.2">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="N709" s="2">
         <f t="shared" si="13"/>
-        <v>0.2434142088432722</v>
+        <v>0.25014043625945381</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.2">
@@ -30786,7 +30786,7 @@
       </c>
       <c r="N710" s="2">
         <f t="shared" si="13"/>
-        <v>0.23908145700246744</v>
+        <v>0.24573867371062103</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.2">
@@ -30828,7 +30828,7 @@
       </c>
       <c r="N711" s="2">
         <f t="shared" si="13"/>
-        <v>0.2348541439954655</v>
+        <v>0.24144160832628578</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.2">
@@ -30870,7 +30870,7 @@
       </c>
       <c r="N712" s="2">
         <f t="shared" ref="N712:N775" si="14">(B712*B$5+C712*C$5+D712*D$5+E712*E$5+F712*F$5+G712*G$5+H712*H$5+I712*I$5+J712*J$5+K712*K$5+L712*L$5)/SUM(B$5:L$5)</f>
-        <v>0.2307293251331537</v>
+        <v>0.23724643298251052</v>
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.2">
@@ -30912,7 +30912,7 @@
       </c>
       <c r="N713" s="2">
         <f t="shared" si="14"/>
-        <v>0.22670413376008186</v>
+        <v>0.23315040844540824</v>
       </c>
     </row>
     <row r="714" spans="1:14" x14ac:dyDescent="0.2">
@@ -30954,7 +30954,7 @@
       </c>
       <c r="N714" s="2">
         <f t="shared" si="14"/>
-        <v>0.22277578040700741</v>
+        <v>0.22915086313187052</v>
       </c>
     </row>
     <row r="715" spans="1:14" x14ac:dyDescent="0.2">
@@ -30996,7 +30996,7 @@
       </c>
       <c r="N715" s="2">
         <f t="shared" si="14"/>
-        <v>0.21894155179529975</v>
+        <v>0.22524519269349977</v>
       </c>
     </row>
     <row r="716" spans="1:14" x14ac:dyDescent="0.2">
@@ -31038,7 +31038,7 @@
       </c>
       <c r="N716" s="2">
         <f t="shared" si="14"/>
-        <v>0.21519880971494107</v>
+        <v>0.22143085944589319</v>
       </c>
     </row>
     <row r="717" spans="1:14" x14ac:dyDescent="0.2">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="N717" s="2">
         <f t="shared" si="14"/>
-        <v>0.21154498979566835</v>
+        <v>0.21770539166338065</v>
       </c>
     </row>
     <row r="718" spans="1:14" x14ac:dyDescent="0.2">
@@ -31122,7 +31122,7 @@
       </c>
       <c r="N718" s="2">
         <f t="shared" si="14"/>
-        <v>0.20797760018875297</v>
+        <v>0.21406638275739845</v>
       </c>
     </row>
     <row r="719" spans="1:14" x14ac:dyDescent="0.2">
@@ -31164,7 +31164,7 @@
       </c>
       <c r="N719" s="2">
         <f t="shared" si="14"/>
-        <v>0.20449422017507343</v>
+        <v>0.21051149035492367</v>
       </c>
     </row>
     <row r="720" spans="1:14" x14ac:dyDescent="0.2">
@@ -31206,7 +31206,7 @@
       </c>
       <c r="N720" s="2">
         <f t="shared" si="14"/>
-        <v>0.20109249871349022</v>
+        <v>0.20703843529183666</v>
       </c>
     </row>
     <row r="721" spans="1:14" x14ac:dyDescent="0.2">
@@ -31248,7 +31248,7 @@
       </c>
       <c r="N721" s="2">
         <f t="shared" si="14"/>
-        <v>0.19777015294194616</v>
+        <v>0.20364500053452542</v>
       </c>
     </row>
     <row r="722" spans="1:14" x14ac:dyDescent="0.2">
@@ -31290,7 +31290,7 @@
       </c>
       <c r="N722" s="2">
         <f t="shared" si="14"/>
-        <v>0.19452496664240404</v>
+        <v>0.20032903004178745</v>
       </c>
     </row>
     <row r="723" spans="1:14" x14ac:dyDescent="0.2">
@@ -31332,7 +31332,7 @@
       </c>
       <c r="N723" s="2">
         <f t="shared" si="14"/>
-        <v>0.19135478867942327</v>
+        <v>0.19708842757779141</v>
       </c>
     </row>
     <row r="724" spans="1:14" x14ac:dyDescent="0.2">
@@ -31374,7 +31374,7 @@
       </c>
       <c r="N724" s="2">
         <f t="shared" si="14"/>
-        <v>0.18825753142107474</v>
+        <v>0.19392115548576419</v>
       </c>
     </row>
     <row r="725" spans="1:14" x14ac:dyDescent="0.2">
@@ -31416,7 +31416,7 @@
       </c>
       <c r="N725" s="2">
         <f t="shared" si="14"/>
-        <v>0.18523116914984997</v>
+        <v>0.19082523343103786</v>
       </c>
     </row>
     <row r="726" spans="1:14" x14ac:dyDescent="0.2">
@@ -31458,7 +31458,7 @@
       </c>
       <c r="N726" s="2">
         <f t="shared" si="14"/>
-        <v>0.18227373647030976</v>
+        <v>0.18779873712116243</v>
       </c>
     </row>
     <row r="727" spans="1:14" x14ac:dyDescent="0.2">
@@ -31500,7 +31500,7 @@
       </c>
       <c r="N727" s="2">
         <f t="shared" si="14"/>
-        <v>0.17938332671936699</v>
+        <v>0.18483979700993516</v>
       </c>
     </row>
     <row r="728" spans="1:14" x14ac:dyDescent="0.2">
@@ -31542,7 +31542,7 @@
       </c>
       <c r="N728" s="2">
         <f t="shared" si="14"/>
-        <v>0.17655809038435555</v>
+        <v>0.18194659699143159</v>
       </c>
     </row>
     <row r="729" spans="1:14" x14ac:dyDescent="0.2">
@@ -31584,7 +31584,7 @@
       </c>
       <c r="N729" s="2">
         <f t="shared" si="14"/>
-        <v>0.17379623353335127</v>
+        <v>0.1791173730894132</v>
       </c>
     </row>
     <row r="730" spans="1:14" x14ac:dyDescent="0.2">
@@ -31626,7 +31626,7 @@
       </c>
       <c r="N730" s="2">
         <f t="shared" si="14"/>
-        <v>0.1710960162616138</v>
+        <v>0.17635041214687064</v>
       </c>
     </row>
     <row r="731" spans="1:14" x14ac:dyDescent="0.2">
@@ -31668,7 +31668,7 @@
       </c>
       <c r="N731" s="2">
         <f t="shared" si="14"/>
-        <v>0.16845575115746073</v>
+        <v>0.17364405051986412</v>
       </c>
     </row>
     <row r="732" spans="1:14" x14ac:dyDescent="0.2">
@@ -31710,7 +31710,7 @@
       </c>
       <c r="N732" s="2">
         <f t="shared" si="14"/>
-        <v>0.16587380179039948</v>
+        <v>0.1709966727793186</v>
       </c>
     </row>
     <row r="733" spans="1:14" x14ac:dyDescent="0.2">
@@ -31752,7 +31752,7 @@
       </c>
       <c r="N733" s="2">
         <f t="shared" si="14"/>
-        <v>0.16334858122391127</v>
+        <v>0.16840671042396008</v>
       </c>
     </row>
     <row r="734" spans="1:14" x14ac:dyDescent="0.2">
@@ -31794,7 +31794,7 @@
       </c>
       <c r="N734" s="2">
         <f t="shared" si="14"/>
-        <v>0.16087855055487535</v>
+        <v>0.16587264060714071</v>
       </c>
     </row>
     <row r="735" spans="1:14" x14ac:dyDescent="0.2">
@@ -31836,7 +31836,7 @@
       </c>
       <c r="N735" s="2">
         <f t="shared" si="14"/>
-        <v>0.15846221748128728</v>
+        <v>0.1633929848799415</v>
       </c>
     </row>
     <row r="736" spans="1:14" x14ac:dyDescent="0.2">
@@ -31878,7 +31878,7 @@
       </c>
       <c r="N736" s="2">
         <f t="shared" si="14"/>
-        <v>0.15609813489960814</v>
+        <v>0.16096630795258252</v>
       </c>
     </row>
     <row r="737" spans="1:14" x14ac:dyDescent="0.2">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="N737" s="2">
         <f t="shared" si="14"/>
-        <v>0.15378489953280108</v>
+        <v>0.15859121647585547</v>
       </c>
     </row>
     <row r="738" spans="1:14" x14ac:dyDescent="0.2">
@@ -31962,7 +31962,7 @@
       </c>
       <c r="N738" s="2">
         <f t="shared" si="14"/>
-        <v>0.15152115058987381</v>
+        <v>0.15626635784404594</v>
       </c>
     </row>
     <row r="739" spans="1:14" x14ac:dyDescent="0.2">
@@ -32004,7 +32004,7 @@
       </c>
       <c r="N739" s="2">
         <f t="shared" si="14"/>
-        <v>0.14930556845752663</v>
+        <v>0.1539904190205198</v>
       </c>
     </row>
     <row r="740" spans="1:14" x14ac:dyDescent="0.2">
@@ -32046,7 +32046,7 @@
       </c>
       <c r="N740" s="2">
         <f t="shared" si="14"/>
-        <v>0.14713687342431359</v>
+        <v>0.15176212538697523</v>
       </c>
     </row>
     <row r="741" spans="1:14" x14ac:dyDescent="0.2">
@@ -32088,7 +32088,7 @@
       </c>
       <c r="N741" s="2">
         <f t="shared" si="14"/>
-        <v>0.14501382443755109</v>
+        <v>0.14958023961711625</v>
       </c>
     </row>
     <row r="742" spans="1:14" x14ac:dyDescent="0.2">
@@ -32130,7 +32130,7 @@
       </c>
       <c r="N742" s="2">
         <f t="shared" si="14"/>
-        <v>0.14293521789307481</v>
+        <v>0.14744356057536998</v>
       </c>
     </row>
     <row r="743" spans="1:14" x14ac:dyDescent="0.2">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="N743" s="2">
         <f t="shared" si="14"/>
-        <v>0.14089988645779924</v>
+        <v>0.14535092224107779</v>
       </c>
     </row>
     <row r="744" spans="1:14" x14ac:dyDescent="0.2">
@@ -32214,7 +32214,7 @@
       </c>
       <c r="N744" s="2">
         <f t="shared" si="14"/>
-        <v>0.13890669792493321</v>
+        <v>0.14330119265847452</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.2">
@@ -32256,7 +32256,7 @@
       </c>
       <c r="N745" s="2">
         <f t="shared" si="14"/>
-        <v>0.13695455410160629</v>
+        <v>0.14129327291263816</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.2">
@@ -32298,7 +32298,7 @@
       </c>
       <c r="N746" s="2">
         <f t="shared" si="14"/>
-        <v>0.13504238972856658</v>
+        <v>0.13932609613147365</v>
       </c>
     </row>
     <row r="747" spans="1:14" x14ac:dyDescent="0.2">
@@ -32340,7 +32340,7 @@
       </c>
       <c r="N747" s="2">
         <f t="shared" si="14"/>
-        <v>0.13316917143156021</v>
+        <v>0.1373986265137318</v>
       </c>
     </row>
     <row r="748" spans="1:14" x14ac:dyDescent="0.2">
@@ -32382,7 +32382,7 @@
       </c>
       <c r="N748" s="2">
         <f t="shared" si="14"/>
-        <v>0.13133389670391174</v>
+        <v>0.13550985838293098</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.2">
@@ -32424,7 +32424,7 @@
       </c>
       <c r="N749" s="2">
         <f t="shared" si="14"/>
-        <v>0.12953559291979908</v>
+        <v>0.13365881526702361</v>
       </c>
     </row>
     <row r="750" spans="1:14" x14ac:dyDescent="0.2">
@@ -32466,7 +32466,7 @@
       </c>
       <c r="N750" s="2">
         <f t="shared" si="14"/>
-        <v>0.12777331637766445</v>
+        <v>0.1318445490035601</v>
       </c>
     </row>
     <row r="751" spans="1:14" x14ac:dyDescent="0.2">
@@ -32508,7 +32508,7 @@
       </c>
       <c r="N751" s="2">
         <f t="shared" si="14"/>
-        <v>0.12604615137315583</v>
+        <v>0.13006613887005036</v>
       </c>
     </row>
     <row r="752" spans="1:14" x14ac:dyDescent="0.2">
@@ -32550,7 +32550,7 @@
       </c>
       <c r="N752" s="2">
         <f t="shared" si="14"/>
-        <v>0.12435320930098667</v>
+        <v>0.1283226907391839</v>
       </c>
     </row>
     <row r="753" spans="1:14" x14ac:dyDescent="0.2">
@@ -32592,7 +32592,7 @@
       </c>
       <c r="N753" s="2">
         <f t="shared" si="14"/>
-        <v>0.12269362778505953</v>
+        <v>0.12661333625852661</v>
       </c>
     </row>
     <row r="754" spans="1:14" x14ac:dyDescent="0.2">
@@ -32634,7 +32634,7 @@
       </c>
       <c r="N754" s="2">
         <f t="shared" si="14"/>
-        <v>0.12106656983618917</v>
+        <v>0.12493723205427112</v>
       </c>
     </row>
     <row r="755" spans="1:14" x14ac:dyDescent="0.2">
@@ -32676,7 +32676,7 @@
       </c>
       <c r="N755" s="2">
         <f t="shared" si="14"/>
-        <v>0.11947122303675713</v>
+        <v>0.12329355895860671</v>
       </c>
     </row>
     <row r="756" spans="1:14" x14ac:dyDescent="0.2">
@@ -32718,7 +32718,7 @@
       </c>
       <c r="N756" s="2">
         <f t="shared" si="14"/>
-        <v>0.11790679875159712</v>
+        <v>0.1216815212602291</v>
       </c>
     </row>
     <row r="757" spans="1:14" x14ac:dyDescent="0.2">
@@ -32760,7 +32760,7 @@
       </c>
       <c r="N757" s="2">
         <f t="shared" si="14"/>
-        <v>0.11637253136443323</v>
+        <v>0.12010034597751114</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.2">
@@ -32802,7 +32802,7 @@
       </c>
       <c r="N758" s="2">
         <f t="shared" si="14"/>
-        <v>0.11486767753917269</v>
+        <v>0.11854928215383202</v>
       </c>
     </row>
     <row r="759" spans="1:14" x14ac:dyDescent="0.2">
@@ -32844,7 +32844,7 @@
       </c>
       <c r="N759" s="2">
         <f t="shared" si="14"/>
-        <v>0.11339151550536364</v>
+        <v>0.11702760017455102</v>
       </c>
     </row>
     <row r="760" spans="1:14" x14ac:dyDescent="0.2">
@@ -32886,7 +32886,7 @@
       </c>
       <c r="N760" s="2">
         <f t="shared" si="14"/>
-        <v>0.11194334436712322</v>
+        <v>0.11553459110510554</v>
       </c>
     </row>
     <row r="761" spans="1:14" x14ac:dyDescent="0.2">
@@ -32928,7 +32928,7 @@
       </c>
       <c r="N761" s="2">
         <f t="shared" si="14"/>
-        <v>0.11052248343486676</v>
+        <v>0.11406956604971008</v>
       </c>
     </row>
     <row r="762" spans="1:14" x14ac:dyDescent="0.2">
@@ -32970,7 +32970,7 @@
       </c>
       <c r="N762" s="2">
         <f t="shared" si="14"/>
-        <v>0.10912827157914685</v>
+        <v>0.11263185553012652</v>
       </c>
     </row>
     <row r="763" spans="1:14" x14ac:dyDescent="0.2">
@@ -33012,7 +33012,7 @@
       </c>
       <c r="N763" s="2">
         <f t="shared" si="14"/>
-        <v>0.10776006660594596</v>
+        <v>0.11122080888397443</v>
       </c>
     </row>
     <row r="764" spans="1:14" x14ac:dyDescent="0.2">
@@ -33054,7 +33054,7 @@
       </c>
       <c r="N764" s="2">
         <f t="shared" si="14"/>
-        <v>0.1064172446527627</v>
+        <v>0.10983579368205933</v>
       </c>
     </row>
     <row r="765" spans="1:14" x14ac:dyDescent="0.2">
@@ -33096,7 +33096,7 @@
       </c>
       <c r="N765" s="2">
         <f t="shared" si="14"/>
-        <v>0.10509919960484647</v>
+        <v>0.10847619516418772</v>
       </c>
     </row>
     <row r="766" spans="1:14" x14ac:dyDescent="0.2">
@@ -33138,7 +33138,7 @@
       </c>
       <c r="N766" s="2">
         <f t="shared" si="14"/>
-        <v>0.10380534253094489</v>
+        <v>0.10714141569295212</v>
       </c>
     </row>
     <row r="767" spans="1:14" x14ac:dyDescent="0.2">
@@ -33180,7 +33180,7 @@
       </c>
       <c r="N767" s="2">
         <f t="shared" si="14"/>
-        <v>0.10253510113794723</v>
+        <v>0.10583087422496981</v>
       </c>
     </row>
     <row r="768" spans="1:14" x14ac:dyDescent="0.2">
@@ -33222,7 +33222,7 @@
       </c>
       <c r="N768" s="2">
         <f t="shared" si="14"/>
-        <v>0.10128791924381585</v>
+        <v>0.10454400579906925</v>
       </c>
     </row>
     <row r="769" spans="1:14" x14ac:dyDescent="0.2">
@@ -33264,7 +33264,7 @@
       </c>
       <c r="N769" s="2">
         <f t="shared" si="14"/>
-        <v>0.10006325626820903</v>
+        <v>0.10328026104091655</v>
       </c>
     </row>
     <row r="770" spans="1:14" x14ac:dyDescent="0.2">
@@ -33306,7 +33306,7 @@
       </c>
       <c r="N770" s="2">
         <f t="shared" si="14"/>
-        <v>9.8860586740222509E-2</v>
+        <v>0.10203910568360137</v>
       </c>
     </row>
     <row r="771" spans="1:14" x14ac:dyDescent="0.2">
@@ -33348,7 +33348,7 @@
       </c>
       <c r="N771" s="2">
         <f t="shared" si="14"/>
-        <v>9.7679399822678536E-2</v>
+        <v>0.10082002010368295</v>
       </c>
     </row>
     <row r="772" spans="1:14" x14ac:dyDescent="0.2">
@@ -33390,7 +33390,7 @@
       </c>
       <c r="N772" s="2">
         <f t="shared" si="14"/>
-        <v>9.6519198852419344E-2</v>
+        <v>9.9622498872236481E-2</v>
       </c>
     </row>
     <row r="773" spans="1:14" x14ac:dyDescent="0.2">
@@ -33432,7 +33432,7 @@
       </c>
       <c r="N773" s="2">
         <f t="shared" si="14"/>
-        <v>9.5379500896067615E-2</v>
+        <v>9.8446050320429038E-2</v>
       </c>
     </row>
     <row r="774" spans="1:14" x14ac:dyDescent="0.2">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="N774" s="2">
         <f t="shared" si="14"/>
-        <v>9.4259836320730955E-2</v>
+        <v>9.7290196119166075E-2</v>
       </c>
     </row>
     <row r="775" spans="1:14" x14ac:dyDescent="0.2">
@@ -33516,7 +33516,7 @@
       </c>
       <c r="N775" s="2">
         <f t="shared" si="14"/>
-        <v>9.3159748379152668E-2</v>
+        <v>9.6154470872377024E-2</v>
       </c>
     </row>
     <row r="776" spans="1:14" x14ac:dyDescent="0.2">
@@ -33558,7 +33558,7 @@
       </c>
       <c r="N776" s="2">
         <f t="shared" ref="N776:N839" si="15">(B776*B$5+C776*C$5+D776*D$5+E776*E$5+F776*F$5+G776*G$5+H776*H$5+I776*I$5+J776*J$5+K776*K$5+L776*L$5)/SUM(B$5:L$5)</f>
-        <v>9.2078792808812565E-2</v>
+        <v>9.5038421723496455E-2</v>
       </c>
     </row>
     <row r="777" spans="1:14" x14ac:dyDescent="0.2">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="N777" s="2">
         <f t="shared" si="15"/>
-        <v>9.1016537444502957E-2</v>
+        <v>9.3941607974721356E-2</v>
       </c>
     </row>
     <row r="778" spans="1:14" x14ac:dyDescent="0.2">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="N778" s="2">
         <f t="shared" si="15"/>
-        <v>8.9972561843922355E-2</v>
+        <v>9.2863600718637251E-2</v>
       </c>
     </row>
     <row r="779" spans="1:14" x14ac:dyDescent="0.2">
@@ -33684,7 +33684,7 @@
       </c>
       <c r="N779" s="2">
         <f t="shared" si="15"/>
-        <v>8.8946456925836914E-2</v>
+        <v>9.1803982481809182E-2</v>
       </c>
     </row>
     <row r="780" spans="1:14" x14ac:dyDescent="0.2">
@@ -33726,7 +33726,7 @@
       </c>
       <c r="N780" s="2">
         <f t="shared" si="15"/>
-        <v>8.7937824620375762E-2</v>
+        <v>9.0762346879947386E-2</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.2">
@@ -33768,7 +33768,7 @@
       </c>
       <c r="N781" s="2">
         <f t="shared" si="15"/>
-        <v>8.6946277531045002E-2</v>
+        <v>8.9738298284273071E-2</v>
       </c>
     </row>
     <row r="782" spans="1:14" x14ac:dyDescent="0.2">
@@ -33810,7 +33810,7 @@
       </c>
       <c r="N782" s="2">
         <f t="shared" si="15"/>
-        <v>8.5971438608051648E-2</v>
+        <v>8.8731451498713365E-2</v>
       </c>
     </row>
     <row r="783" spans="1:14" x14ac:dyDescent="0.2">
@@ -33852,7 +33852,7 @@
       </c>
       <c r="N783" s="2">
         <f t="shared" si="15"/>
-        <v>8.5012940832545805E-2</v>
+        <v>8.7741431447569448E-2</v>
       </c>
     </row>
     <row r="784" spans="1:14" x14ac:dyDescent="0.2">
@@ -33894,7 +33894,7 @@
       </c>
       <c r="N784" s="2">
         <f t="shared" si="15"/>
-        <v>8.4070426911402957E-2</v>
+        <v>8.6767872873312016E-2</v>
       </c>
     </row>
     <row r="785" spans="1:14" x14ac:dyDescent="0.2">
@@ -33936,7 +33936,7 @@
       </c>
       <c r="N785" s="2">
         <f t="shared" si="15"/>
-        <v>8.3143548982178059E-2</v>
+        <v>8.5810420044167321E-2</v>
       </c>
     </row>
     <row r="786" spans="1:14" x14ac:dyDescent="0.2">
@@ -33978,7 +33978,7 @@
       </c>
       <c r="N786" s="2">
         <f t="shared" si="15"/>
-        <v>8.2231968327877908E-2</v>
+        <v>8.486872647116829E-2</v>
       </c>
     </row>
     <row r="787" spans="1:14" x14ac:dyDescent="0.2">
@@ -34020,7 +34020,7 @@
       </c>
       <c r="N787" s="2">
         <f t="shared" si="15"/>
-        <v>8.1335355101208512E-2</v>
+        <v>8.394245463435461E-2</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.2">
@@ -34062,7 +34062,7 @@
       </c>
       <c r="N788" s="2">
         <f t="shared" si="15"/>
-        <v>8.0453388057967992E-2</v>
+        <v>8.303127571781678E-2</v>
       </c>
     </row>
     <row r="789" spans="1:14" x14ac:dyDescent="0.2">
@@ -34104,7 +34104,7 @@
       </c>
       <c r="N789" s="2">
         <f t="shared" si="15"/>
-        <v>7.9585754299264566E-2</v>
+        <v>8.2134869353287857E-2</v>
       </c>
     </row>
     <row r="790" spans="1:14" x14ac:dyDescent="0.2">
@@ -34146,7 +34146,7 @@
       </c>
       <c r="N790" s="2">
         <f t="shared" si="15"/>
-        <v>7.8732149022250716E-2</v>
+        <v>8.1252923371994176E-2</v>
       </c>
     </row>
     <row r="791" spans="1:14" x14ac:dyDescent="0.2">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="N791" s="2">
         <f t="shared" si="15"/>
-        <v>7.7892275279077966E-2</v>
+        <v>8.0385133564491021E-2</v>
       </c>
     </row>
     <row r="792" spans="1:14" x14ac:dyDescent="0.2">
@@ -34230,7 +34230,7 @@
       </c>
       <c r="N792" s="2">
         <f t="shared" si="15"/>
-        <v>7.7065843743781989E-2</v>
+        <v>7.9531203448211296E-2</v>
       </c>
     </row>
     <row r="793" spans="1:14" x14ac:dyDescent="0.2">
@@ -34272,7 +34272,7 @@
       </c>
       <c r="N793" s="2">
         <f t="shared" si="15"/>
-        <v>7.6252572486823642E-2</v>
+        <v>7.8690844042469607E-2</v>
       </c>
     </row>
     <row r="794" spans="1:14" x14ac:dyDescent="0.2">
@@ -34314,7 +34314,7 @@
       </c>
       <c r="N794" s="2">
         <f t="shared" si="15"/>
-        <v>7.5452186757016745E-2</v>
+        <v>7.7863773650670112E-2</v>
       </c>
     </row>
     <row r="795" spans="1:14" x14ac:dyDescent="0.2">
@@ -34356,7 +34356,7 @@
       </c>
       <c r="N795" s="2">
         <f t="shared" si="15"/>
-        <v>7.4664418770584468E-2</v>
+        <v>7.7049717649474256E-2</v>
       </c>
     </row>
     <row r="796" spans="1:14" x14ac:dyDescent="0.2">
@@ -34398,7 +34398,7 @@
       </c>
       <c r="N796" s="2">
         <f t="shared" si="15"/>
-        <v>7.3889007507096954E-2</v>
+        <v>7.6248408284695549E-2</v>
       </c>
     </row>
     <row r="797" spans="1:14" x14ac:dyDescent="0.2">
@@ -34440,7 +34440,7 @@
       </c>
       <c r="N797" s="2">
         <f t="shared" si="15"/>
-        <v>7.3125698512048268E-2</v>
+        <v>7.5459584473692179E-2</v>
       </c>
     </row>
     <row r="798" spans="1:14" x14ac:dyDescent="0.2">
@@ -34482,7 +34482,7 @@
       </c>
       <c r="N798" s="2">
         <f t="shared" si="15"/>
-        <v>7.2374243705842237E-2</v>
+        <v>7.4682991614040128E-2</v>
       </c>
     </row>
     <row r="799" spans="1:14" x14ac:dyDescent="0.2">
@@ -34524,7 +34524,7 @@
       </c>
       <c r="N799" s="2">
         <f t="shared" si="15"/>
-        <v>7.1634401198964359E-2</v>
+        <v>7.3918381398274377E-2</v>
       </c>
     </row>
     <row r="800" spans="1:14" x14ac:dyDescent="0.2">
@@ -34566,7 +34566,7 @@
       </c>
       <c r="N800" s="2">
         <f t="shared" si="15"/>
-        <v>7.0905935113122751E-2</v>
+        <v>7.3165511634492073E-2</v>
       </c>
     </row>
     <row r="801" spans="1:14" x14ac:dyDescent="0.2">
@@ -34608,7 +34608,7 @@
       </c>
       <c r="N801" s="2">
         <f t="shared" si="15"/>
-        <v>7.0188615408152924E-2</v>
+        <v>7.2424146072622833E-2</v>
       </c>
     </row>
     <row r="802" spans="1:14" x14ac:dyDescent="0.2">
@@ -34650,7 +34650,7 @@
       </c>
       <c r="N802" s="2">
         <f t="shared" si="15"/>
-        <v>6.9482217714484165E-2</v>
+        <v>7.1694054236172033E-2</v>
       </c>
     </row>
     <row r="803" spans="1:14" x14ac:dyDescent="0.2">
@@ -34692,7 +34692,7 @@
       </c>
       <c r="N803" s="2">
         <f t="shared" si="15"/>
-        <v>6.8786523170976735E-2</v>
+        <v>7.0975011259255663E-2</v>
       </c>
     </row>
     <row r="804" spans="1:14" x14ac:dyDescent="0.2">
@@ -34734,7 +34734,7 @@
       </c>
       <c r="N804" s="2">
         <f t="shared" si="15"/>
-        <v>6.8101318267941496E-2</v>
+        <v>7.0266797728745986E-2</v>
       </c>
     </row>
     <row r="805" spans="1:14" x14ac:dyDescent="0.2">
@@ -34776,7 +34776,7 @@
       </c>
       <c r="N805" s="2">
         <f t="shared" si="15"/>
-        <v>6.7426394695165315E-2</v>
+        <v>6.9569199531358136E-2</v>
       </c>
     </row>
     <row r="806" spans="1:14" x14ac:dyDescent="0.2">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="N806" s="2">
         <f t="shared" si="15"/>
-        <v>6.6761549194767747E-2</v>
+        <v>6.8882007705510978E-2</v>
       </c>
     </row>
     <row r="807" spans="1:14" x14ac:dyDescent="0.2">
@@ -34860,7 +34860,7 @@
       </c>
       <c r="N807" s="2">
         <f t="shared" si="15"/>
-        <v>6.6106583418722401E-2</v>
+        <v>6.8205018297800735E-2</v>
       </c>
     </row>
     <row r="808" spans="1:14" x14ac:dyDescent="0.2">
@@ -34902,7 +34902,7 @@
       </c>
       <c r="N808" s="2">
         <f t="shared" si="15"/>
-        <v>6.5461303790884259E-2</v>
+        <v>6.7538032223935437E-2</v>
       </c>
     </row>
     <row r="809" spans="1:14" x14ac:dyDescent="0.2">
@@ -34944,7 +34944,7 @@
       </c>
       <c r="N809" s="2">
         <f t="shared" si="15"/>
-        <v>6.4825521373365488E-2</v>
+        <v>6.688085513397761E-2</v>
       </c>
     </row>
     <row r="810" spans="1:14" x14ac:dyDescent="0.2">
@@ -34986,7 +34986,7 @@
       </c>
       <c r="N810" s="2">
         <f t="shared" si="15"/>
-        <v>6.4199051737113016E-2</v>
+        <v>6.6233297281753617E-2</v>
       </c>
     </row>
     <row r="811" spans="1:14" x14ac:dyDescent="0.2">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="N811" s="2">
         <f t="shared" si="15"/>
-        <v>6.358171483654311E-2</v>
+        <v>6.5595173398289283E-2</v>
       </c>
     </row>
     <row r="812" spans="1:14" x14ac:dyDescent="0.2">
@@ -35070,7 +35070,7 @@
       </c>
       <c r="N812" s="2">
         <f t="shared" si="15"/>
-        <v>6.2973334888093591E-2</v>
+        <v>6.4966302569137199E-2</v>
       </c>
     </row>
     <row r="813" spans="1:14" x14ac:dyDescent="0.2">
@@ -35112,7 +35112,7 @@
       </c>
       <c r="N813" s="2">
         <f t="shared" si="15"/>
-        <v>6.2373740252562072E-2</v>
+        <v>6.4346508115467715E-2</v>
       </c>
     </row>
     <row r="814" spans="1:14" x14ac:dyDescent="0.2">
@@ -35154,7 +35154,7 @@
       </c>
       <c r="N814" s="2">
         <f t="shared" si="15"/>
-        <v>6.1782763321099061E-2</v>
+        <v>6.3735617478795817E-2</v>
       </c>
     </row>
     <row r="815" spans="1:14" x14ac:dyDescent="0.2">
@@ -35196,7 +35196,7 @@
       </c>
       <c r="N815" s="2">
         <f t="shared" si="15"/>
-        <v>6.1200240404733881E-2</v>
+        <v>6.3133462109226185E-2</v>
       </c>
     </row>
     <row r="816" spans="1:14" x14ac:dyDescent="0.2">
@@ -35238,7 +35238,7 @@
       </c>
       <c r="N816" s="2">
         <f t="shared" si="15"/>
-        <v>6.0626011627312938E-2</v>
+        <v>6.2539877357097484E-2</v>
       </c>
     </row>
     <row r="817" spans="1:14" x14ac:dyDescent="0.2">
@@ -35280,7 +35280,7 @@
       </c>
       <c r="N817" s="2">
         <f t="shared" si="15"/>
-        <v>6.0059920821734114E-2</v>
+        <v>6.1954702367914137E-2</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.2">
@@ -35322,7 +35322,7 @@
       </c>
       <c r="N818" s="2">
         <f t="shared" si="15"/>
-        <v>5.9501815429367624E-2</v>
+        <v>6.1377779980457799E-2</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.2">
@@ -35364,7 +35364,7 @@
       </c>
       <c r="N819" s="2">
         <f t="shared" si="15"/>
-        <v>5.895154640255551E-2</v>
+        <v>6.0808956627972692E-2</v>
       </c>
     </row>
     <row r="820" spans="1:14" x14ac:dyDescent="0.2">
@@ -35406,7 +35406,7 @@
       </c>
       <c r="N820" s="2">
         <f t="shared" si="15"/>
-        <v>5.8408968110085349E-2</v>
+        <v>6.0248082242323524E-2</v>
       </c>
     </row>
     <row r="821" spans="1:14" x14ac:dyDescent="0.2">
@@ -35448,7 +35448,7 @@
       </c>
       <c r="N821" s="2">
         <f t="shared" si="15"/>
-        <v>5.7873938245541115E-2</v>
+        <v>5.9695010161030161E-2</v>
       </c>
     </row>
     <row r="822" spans="1:14" x14ac:dyDescent="0.2">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="N822" s="2">
         <f t="shared" si="15"/>
-        <v>5.73463177384314E-2</v>
+        <v>5.9149597037081787E-2</v>
       </c>
     </row>
     <row r="823" spans="1:14" x14ac:dyDescent="0.2">
@@ -35532,7 +35532,7 @@
       </c>
       <c r="N823" s="2">
         <f t="shared" si="15"/>
-        <v>5.6825970668006438E-2</v>
+        <v>5.8611702751442958E-2</v>
       </c>
     </row>
     <row r="824" spans="1:14" x14ac:dyDescent="0.2">
@@ -35574,7 +35574,7 @@
       </c>
       <c r="N824" s="2">
         <f t="shared" si="15"/>
-        <v>5.6312764179670897E-2</v>
+        <v>5.808119032816067E-2</v>
       </c>
     </row>
     <row r="825" spans="1:14" x14ac:dyDescent="0.2">
@@ -35616,7 +35616,7 @@
       </c>
       <c r="N825" s="2">
         <f t="shared" si="15"/>
-        <v>5.580656840390915E-2</v>
+        <v>5.7557925851990384E-2</v>
       </c>
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.2">
@@ -35658,7 +35658,7 @@
       </c>
       <c r="N826" s="2">
         <f t="shared" si="15"/>
-        <v>5.5307256377637781E-2</v>
+        <v>5.7041778388456858E-2</v>
       </c>
     </row>
     <row r="827" spans="1:14" x14ac:dyDescent="0.2">
@@ -35700,7 +35700,7 @@
       </c>
       <c r="N827" s="2">
         <f t="shared" si="15"/>
-        <v>5.481470396790656E-2</v>
+        <v>5.6532619906272431E-2</v>
       </c>
     </row>
     <row r="828" spans="1:14" x14ac:dyDescent="0.2">
@@ -35742,7 +35742,7 @@
       </c>
       <c r="N828" s="2">
         <f t="shared" si="15"/>
-        <v>5.4328789797870314E-2</v>
+        <v>5.6030325202036046E-2</v>
       </c>
     </row>
     <row r="829" spans="1:14" x14ac:dyDescent="0.2">
@@ -35784,7 +35784,7 @@
       </c>
       <c r="N829" s="2">
         <f t="shared" si="15"/>
-        <v>5.3849395174956287E-2</v>
+        <v>5.5534771827138861E-2</v>
       </c>
     </row>
     <row r="830" spans="1:14" x14ac:dyDescent="0.2">
@@ -35826,7 +35826,7 @@
       </c>
       <c r="N830" s="2">
         <f t="shared" si="15"/>
-        <v>5.3376404021156329E-2</v>
+        <v>5.5045840016805937E-2</v>
       </c>
     </row>
     <row r="831" spans="1:14" x14ac:dyDescent="0.2">
@@ -35868,7 +35868,7 @@
       </c>
       <c r="N831" s="2">
         <f t="shared" si="15"/>
-        <v>5.2909702805373618E-2</v>
+        <v>5.4563412621205586E-2</v>
       </c>
     </row>
     <row r="832" spans="1:14" x14ac:dyDescent="0.2">
@@ -35910,7 +35910,7 @@
       </c>
       <c r="N832" s="2">
         <f t="shared" si="15"/>
-        <v>5.2449180477757061E-2</v>
+        <v>5.408737503855908E-2</v>
       </c>
     </row>
     <row r="833" spans="1:14" x14ac:dyDescent="0.2">
@@ -35952,7 +35952,7 @@
       </c>
       <c r="N833" s="2">
         <f t="shared" si="15"/>
-        <v>5.1994728405959818E-2</v>
+        <v>5.3617615150188362E-2</v>
       </c>
     </row>
     <row r="834" spans="1:14" x14ac:dyDescent="0.2">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="N834" s="2">
         <f t="shared" si="15"/>
-        <v>5.1546240313257503E-2</v>
+        <v>5.315402325743801E-2</v>
       </c>
     </row>
     <row r="835" spans="1:14" x14ac:dyDescent="0.2">
@@ -36036,7 +36036,7 @@
       </c>
       <c r="N835" s="2">
         <f t="shared" si="15"/>
-        <v>5.1103612218468437E-2</v>
+        <v>5.2696492020413488E-2</v>
       </c>
     </row>
     <row r="836" spans="1:14" x14ac:dyDescent="0.2">
@@ -36078,7 +36078,7 @@
       </c>
       <c r="N836" s="2">
         <f t="shared" si="15"/>
-        <v>5.0666742377615856E-2</v>
+        <v>5.2244916398477295E-2</v>
       </c>
     </row>
     <row r="837" spans="1:14" x14ac:dyDescent="0.2">
@@ -36120,7 +36120,7 @@
       </c>
       <c r="N837" s="2">
         <f t="shared" si="15"/>
-        <v>5.0235531227277135E-2</v>
+        <v>5.1799193592446814E-2</v>
       </c>
     </row>
     <row r="838" spans="1:14" x14ac:dyDescent="0.2">
@@ -36162,7 +36162,7 @@
       </c>
       <c r="N838" s="2">
         <f t="shared" si="15"/>
-        <v>4.9809881329566236E-2</v>
+        <v>5.1359222988441887E-2</v>
       </c>
     </row>
     <row r="839" spans="1:14" x14ac:dyDescent="0.2">
@@ -36204,7 +36204,7 @@
       </c>
       <c r="N839" s="2">
         <f t="shared" si="15"/>
-        <v>4.9389697318695525E-2</v>
+        <v>5.0924906103327484E-2</v>
       </c>
     </row>
     <row r="840" spans="1:14" x14ac:dyDescent="0.2">
@@ -36246,7 +36246,7 @@
       </c>
       <c r="N840" s="2">
         <f t="shared" ref="N840:N903" si="16">(B840*B$5+C840*C$5+D840*D$5+E840*E$5+F840*F$5+G840*G$5+H840*H$5+I840*I$5+J840*J$5+K840*K$5+L840*L$5)/SUM(B$5:L$5)</f>
-        <v>4.8974885849069123E-2</v>
+        <v>5.0496146531704429E-2</v>
       </c>
     </row>
     <row r="841" spans="1:14" x14ac:dyDescent="0.2">
@@ -36288,7 +36288,7 @@
       </c>
       <c r="N841" s="2">
         <f t="shared" si="16"/>
-        <v>4.8565355544856408E-2</v>
+        <v>5.0072849894396233E-2</v>
       </c>
     </row>
     <row r="842" spans="1:14" x14ac:dyDescent="0.2">
@@ -36330,7 +36330,7 @@
       </c>
       <c r="N842" s="2">
         <f t="shared" si="16"/>
-        <v>4.8161016951001161E-2</v>
+        <v>4.9654923788388941E-2</v>
       </c>
     </row>
     <row r="843" spans="1:14" x14ac:dyDescent="0.2">
@@ -36372,7 +36372,7 @@
       </c>
       <c r="N843" s="2">
         <f t="shared" si="16"/>
-        <v>4.7761782485619401E-2</v>
+        <v>4.9242277738175709E-2</v>
       </c>
     </row>
     <row r="844" spans="1:14" x14ac:dyDescent="0.2">
@@ -36414,7 +36414,7 @@
       </c>
       <c r="N844" s="2">
         <f t="shared" si="16"/>
-        <v>4.7367566393742511E-2</v>
+        <v>4.883482314846363E-2</v>
       </c>
     </row>
     <row r="845" spans="1:14" x14ac:dyDescent="0.2">
@@ -36456,7 +36456,7 @@
       </c>
       <c r="N845" s="2">
         <f t="shared" si="16"/>
-        <v>4.6978284702364259E-2</v>
+        <v>4.8432473258201068E-2</v>
       </c>
     </row>
     <row r="846" spans="1:14" x14ac:dyDescent="0.2">
@@ -36498,7 +36498,7 @@
       </c>
       <c r="N846" s="2">
         <f t="shared" si="16"/>
-        <v>4.6593855176748987E-2</v>
+        <v>4.8035143095883359E-2</v>
       </c>
     </row>
     <row r="847" spans="1:14" x14ac:dyDescent="0.2">
@@ -36540,7 +36540,7 @@
       </c>
       <c r="N847" s="2">
         <f t="shared" si="16"/>
-        <v>4.6214197277963824E-2</v>
+        <v>4.7642749436098773E-2</v>
       </c>
     </row>
     <row r="848" spans="1:14" x14ac:dyDescent="0.2">
@@ -36582,7 +36582,7 @@
       </c>
       <c r="N848" s="2">
         <f t="shared" si="16"/>
-        <v>4.5839232121594971E-2</v>
+        <v>4.725521075727554E-2</v>
       </c>
     </row>
     <row r="849" spans="1:14" x14ac:dyDescent="0.2">
@@ -36624,7 +36624,7 @@
       </c>
       <c r="N849" s="2">
         <f t="shared" si="16"/>
-        <v>4.5468882437612088E-2</v>
+        <v>4.6872447200593539E-2</v>
       </c>
     </row>
     <row r="850" spans="1:14" x14ac:dyDescent="0.2">
@@ -36666,7 +36666,7 @@
       </c>
       <c r="N850" s="2">
         <f t="shared" si="16"/>
-        <v>4.5103072531345448E-2</v>
+        <v>4.6494380530025518E-2</v>
       </c>
     </row>
     <row r="851" spans="1:14" x14ac:dyDescent="0.2">
@@ -36708,7 +36708,7 @@
       </c>
       <c r="N851" s="2">
         <f t="shared" si="16"/>
-        <v>4.4741728245540402E-2</v>
+        <v>4.6120934093471698E-2</v>
       </c>
     </row>
     <row r="852" spans="1:14" x14ac:dyDescent="0.2">
@@ -36750,7 +36750,7 @@
       </c>
       <c r="N852" s="2">
         <f t="shared" si="16"/>
-        <v>4.4384776923457769E-2</v>
+        <v>4.5752032784957104E-2</v>
       </c>
     </row>
     <row r="853" spans="1:14" x14ac:dyDescent="0.2">
@@ -36792,7 +36792,7 @@
       </c>
       <c r="N853" s="2">
         <f t="shared" si="16"/>
-        <v>4.4032147372985879E-2</v>
+        <v>4.5387603007856457E-2</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.2">
@@ -36834,7 +36834,7 @@
       </c>
       <c r="N854" s="2">
         <f t="shared" si="16"/>
-        <v>4.368376983173515E-2</v>
+        <v>4.5027572639117913E-2</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.2">
@@ -36876,7 +36876,7 @@
       </c>
       <c r="N855" s="2">
         <f t="shared" si="16"/>
-        <v>4.3339575933084309E-2</v>
+        <v>4.4671870994454216E-2</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.2">
@@ -36918,7 +36918,7 @@
       </c>
       <c r="N856" s="2">
         <f t="shared" si="16"/>
-        <v>4.2999498673149075E-2</v>
+        <v>4.4320428794472205E-2</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.2">
@@ -36960,7 +36960,7 @@
       </c>
       <c r="N857" s="2">
         <f t="shared" si="16"/>
-        <v>4.26634723786464E-2</v>
+        <v>4.3973178131713482E-2</v>
       </c>
     </row>
     <row r="858" spans="1:14" x14ac:dyDescent="0.2">
@@ -37002,7 +37002,7 @@
       </c>
       <c r="N858" s="2">
         <f t="shared" si="16"/>
-        <v>4.2331432675625585E-2</v>
+        <v>4.3630052438577274E-2</v>
       </c>
     </row>
     <row r="859" spans="1:14" x14ac:dyDescent="0.2">
@@ -37044,7 +37044,7 @@
       </c>
       <c r="N859" s="2">
         <f t="shared" si="16"/>
-        <v>4.2003316459041554E-2</v>
+        <v>4.3290986456100904E-2</v>
       </c>
     </row>
     <row r="860" spans="1:14" x14ac:dyDescent="0.2">
@@ -37086,7 +37086,7 @@
       </c>
       <c r="N860" s="2">
         <f t="shared" si="16"/>
-        <v>4.1679061863144455E-2</v>
+        <v>4.2955916203571538E-2</v>
       </c>
     </row>
     <row r="861" spans="1:14" x14ac:dyDescent="0.2">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="N861" s="2">
         <f t="shared" si="16"/>
-        <v>4.1358608232660569E-2</v>
+        <v>4.2624778948944064E-2</v>
       </c>
     </row>
     <row r="862" spans="1:14" x14ac:dyDescent="0.2">
@@ -37170,7 +37170,7 @@
       </c>
       <c r="N862" s="2">
         <f t="shared" si="16"/>
-        <v>4.1041896094741882E-2</v>
+        <v>4.2297513180042268E-2</v>
       </c>
     </row>
     <row r="863" spans="1:14" x14ac:dyDescent="0.2">
@@ -37212,7 +37212,7 @@
       </c>
       <c r="N863" s="2">
         <f t="shared" si="16"/>
-        <v>4.0728867131660164E-2</v>
+        <v>4.1974058576519202E-2</v>
       </c>
     </row>
     <row r="864" spans="1:14" x14ac:dyDescent="0.2">
@@ -37254,7 +37254,7 @@
       </c>
       <c r="N864" s="2">
         <f t="shared" si="16"/>
-        <v>4.0419464154224892E-2</v>
+        <v>4.1654355982555374E-2</v>
       </c>
     </row>
     <row r="865" spans="1:14" x14ac:dyDescent="0.2">
@@ -37296,7 +37296,7 @@
       </c>
       <c r="N865" s="2">
         <f t="shared" si="16"/>
-        <v>4.0113631075902538E-2</v>
+        <v>4.1338347380272422E-2</v>
       </c>
     </row>
     <row r="866" spans="1:14" x14ac:dyDescent="0.2">
@@ -37338,7 +37338,7 @@
       </c>
       <c r="N866" s="2">
         <f t="shared" si="16"/>
-        <v>3.9811312887616163E-2</v>
+        <v>4.1025975863841067E-2</v>
       </c>
     </row>
     <row r="867" spans="1:14" x14ac:dyDescent="0.2">
@@ -37380,7 +37380,7 @@
       </c>
       <c r="N867" s="2">
         <f t="shared" si="16"/>
-        <v>3.9512455633206947E-2</v>
+        <v>4.0717185614264323E-2</v>
       </c>
     </row>
     <row r="868" spans="1:14" x14ac:dyDescent="0.2">
@@ -37422,7 +37422,7 @@
       </c>
       <c r="N868" s="2">
         <f t="shared" si="16"/>
-        <v>3.9217006385536227E-2</v>
+        <v>4.0411921874815009E-2</v>
       </c>
     </row>
     <row r="869" spans="1:14" x14ac:dyDescent="0.2">
@@ -37464,7 +37464,7 @@
       </c>
       <c r="N869" s="2">
         <f t="shared" si="16"/>
-        <v>3.892491322321049E-2</v>
+        <v>4.0110130927108807E-2</v>
       </c>
     </row>
     <row r="870" spans="1:14" x14ac:dyDescent="0.2">
@@ -37506,7 +37506,7 @@
       </c>
       <c r="N870" s="2">
         <f t="shared" si="16"/>
-        <v>3.8636125207911251E-2</v>
+        <v>3.9811760067795833E-2</v>
       </c>
     </row>
     <row r="871" spans="1:14" x14ac:dyDescent="0.2">
@@ -37548,7 +37548,7 @@
       </c>
       <c r="N871" s="2">
         <f t="shared" si="16"/>
-        <v>3.8350592362311017E-2</v>
+        <v>3.9516757585850541E-2</v>
       </c>
     </row>
     <row r="872" spans="1:14" x14ac:dyDescent="0.2">
@@ -37590,7 +37590,7 @@
       </c>
       <c r="N872" s="2">
         <f t="shared" si="16"/>
-        <v>3.8068265648559779E-2</v>
+        <v>3.9225072740444858E-2</v>
       </c>
     </row>
     <row r="873" spans="1:14" x14ac:dyDescent="0.2">
@@ -37632,7 +37632,7 @@
       </c>
       <c r="N873" s="2">
         <f t="shared" si="16"/>
-        <v>3.7789096947324533E-2</v>
+        <v>3.8936655739386664E-2</v>
       </c>
     </row>
     <row r="874" spans="1:14" x14ac:dyDescent="0.2">
@@ -37674,7 +37674,7 @@
       </c>
       <c r="N874" s="2">
         <f t="shared" si="16"/>
-        <v>3.7513039037366219E-2</v>
+        <v>3.8651457718107657E-2</v>
       </c>
     </row>
     <row r="875" spans="1:14" x14ac:dyDescent="0.2">
@@ -37716,7 +37716,7 @@
       </c>
       <c r="N875" s="2">
         <f t="shared" si="16"/>
-        <v>3.7240045575638807E-2</v>
+        <v>3.8369430719185436E-2</v>
       </c>
     </row>
     <row r="876" spans="1:14" x14ac:dyDescent="0.2">
@@ -37758,7 +37758,7 @@
       </c>
       <c r="N876" s="2">
         <f t="shared" si="16"/>
-        <v>3.6970071077894899E-2</v>
+        <v>3.8090527672383627E-2</v>
       </c>
     </row>
     <row r="877" spans="1:14" x14ac:dyDescent="0.2">
@@ -37800,7 +37800,7 @@
       </c>
       <c r="N877" s="2">
         <f t="shared" si="16"/>
-        <v>3.6703070899784369E-2</v>
+        <v>3.7814702375196456E-2</v>
       </c>
     </row>
     <row r="878" spans="1:14" x14ac:dyDescent="0.2">
@@ -37842,7 +37842,7 @@
       </c>
       <c r="N878" s="2">
         <f t="shared" si="16"/>
-        <v>3.643900121843098E-2</v>
+        <v>3.7541909473882543E-2</v>
       </c>
     </row>
     <row r="879" spans="1:14" x14ac:dyDescent="0.2">
@@ -37884,7 +37884,7 @@
       </c>
       <c r="N879" s="2">
         <f t="shared" si="16"/>
-        <v>3.6177819014474123E-2</v>
+        <v>3.7272104444975154E-2</v>
       </c>
     </row>
     <row r="880" spans="1:14" x14ac:dyDescent="0.2">
@@ -37926,7 +37926,7 @@
       </c>
       <c r="N880" s="2">
         <f t="shared" si="16"/>
-        <v>3.5919482054562066E-2</v>
+        <v>3.7005243577254147E-2</v>
       </c>
     </row>
     <row r="881" spans="1:14" x14ac:dyDescent="0.2">
@@ -37968,7 +37968,7 @@
       </c>
       <c r="N881" s="2">
         <f t="shared" si="16"/>
-        <v>3.5663948874284104E-2</v>
+        <v>3.6741283954168084E-2</v>
       </c>
     </row>
     <row r="882" spans="1:14" x14ac:dyDescent="0.2">
@@ -38010,7 +38010,7 @@
       </c>
       <c r="N882" s="2">
         <f t="shared" si="16"/>
-        <v>3.5411178761529424E-2</v>
+        <v>3.6480183436693028E-2</v>
       </c>
     </row>
     <row r="883" spans="1:14" x14ac:dyDescent="0.2">
@@ -38052,7 +38052,7 @@
       </c>
       <c r="N883" s="2">
         <f t="shared" si="16"/>
-        <v>3.5161131740260206E-2</v>
+        <v>3.622190064661604E-2</v>
       </c>
     </row>
     <row r="884" spans="1:14" x14ac:dyDescent="0.2">
@@ -38094,7 +38094,7 @@
       </c>
       <c r="N884" s="2">
         <f t="shared" si="16"/>
-        <v>3.4913768554688147E-2</v>
+        <v>3.5966394950232058E-2</v>
       </c>
     </row>
     <row r="885" spans="1:14" x14ac:dyDescent="0.2">
@@ -38136,7 +38136,7 @@
       </c>
       <c r="N885" s="2">
         <f t="shared" si="16"/>
-        <v>3.466905065384214E-2</v>
+        <v>3.5713626442441471E-2</v>
       </c>
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.2">
@@ -38178,7 +38178,7 @@
       </c>
       <c r="N886" s="2">
         <f t="shared" si="16"/>
-        <v>3.4426940176517241E-2</v>
+        <v>3.5463555931239163E-2</v>
       </c>
     </row>
     <row r="887" spans="1:14" x14ac:dyDescent="0.2">
@@ -38220,7 +38220,7 @@
       </c>
       <c r="N887" s="2">
         <f t="shared" si="16"/>
-        <v>3.4187399936593539E-2</v>
+        <v>3.5216144922582224E-2</v>
       </c>
     </row>
     <row r="888" spans="1:14" x14ac:dyDescent="0.2">
@@ -38262,7 +38262,7 @@
       </c>
       <c r="N888" s="2">
         <f t="shared" si="16"/>
-        <v>3.3950393408715092E-2</v>
+        <v>3.4971355605627717E-2</v>
       </c>
     </row>
     <row r="889" spans="1:14" x14ac:dyDescent="0.2">
@@ -38304,7 +38304,7 @@
       </c>
       <c r="N889" s="2">
         <f t="shared" si="16"/>
-        <v>3.3715884714319126E-2</v>
+        <v>3.4729150838329038E-2</v>
       </c>
     </row>
     <row r="890" spans="1:14" x14ac:dyDescent="0.2">
@@ -38346,7 +38346,7 @@
       </c>
       <c r="N890" s="2">
         <f t="shared" si="16"/>
-        <v>3.3483838608005342E-2</v>
+        <v>3.4489494133381704E-2</v>
       </c>
     </row>
     <row r="891" spans="1:14" x14ac:dyDescent="0.2">
@@ -38388,7 +38388,7 @@
       </c>
       <c r="N891" s="2">
         <f t="shared" si="16"/>
-        <v>3.3254220464236567E-2</v>
+        <v>3.4252349644509177E-2</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.2">
@@ -38430,7 +38430,7 @@
       </c>
       <c r="N892" s="2">
         <f t="shared" si="16"/>
-        <v>3.3026996264361203E-2</v>
+        <v>3.4017682153078807E-2</v>
       </c>
     </row>
     <row r="893" spans="1:14" x14ac:dyDescent="0.2">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="N893" s="2">
         <f t="shared" si="16"/>
-        <v>3.2802132583949227E-2</v>
+        <v>3.3785457055039804E-2</v>
       </c>
     </row>
     <row r="894" spans="1:14" x14ac:dyDescent="0.2">
@@ -38514,7 +38514,7 @@
       </c>
       <c r="N894" s="2">
         <f t="shared" si="16"/>
-        <v>3.2579596580432739E-2</v>
+        <v>3.3555640348173842E-2</v>
       </c>
     </row>
     <row r="895" spans="1:14" x14ac:dyDescent="0.2">
@@ -38556,7 +38556,7 @@
       </c>
       <c r="N895" s="2">
         <f t="shared" si="16"/>
-        <v>3.2359355981042962E-2</v>
+        <v>3.3328198619650438E-2</v>
       </c>
     </row>
     <row r="896" spans="1:14" x14ac:dyDescent="0.2">
@@ -38598,7 +38598,7 @@
       </c>
       <c r="N896" s="2">
         <f t="shared" si="16"/>
-        <v>3.214137907103589E-2</v>
+        <v>3.3103099033878286E-2</v>
       </c>
     </row>
     <row r="897" spans="1:14" x14ac:dyDescent="0.2">
@@ -38640,7 +38640,7 @@
       </c>
       <c r="N897" s="2">
         <f t="shared" si="16"/>
-        <v>3.1925634682198424E-2</v>
+        <v>3.2880309320645319E-2</v>
       </c>
     </row>
     <row r="898" spans="1:14" x14ac:dyDescent="0.2">
@@ -38682,7 +38682,7 @@
       </c>
       <c r="N898" s="2">
         <f t="shared" si="16"/>
-        <v>3.1712092181627856E-2</v>
+        <v>3.2659797763539229E-2</v>
       </c>
     </row>
     <row r="899" spans="1:14" x14ac:dyDescent="0.2">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="N899" s="2">
         <f t="shared" si="16"/>
-        <v>3.1500721460777217E-2</v>
+        <v>3.2441533188641486E-2</v>
       </c>
     </row>
     <row r="900" spans="1:14" x14ac:dyDescent="0.2">
@@ -38766,7 +38766,7 @@
       </c>
       <c r="N900" s="2">
         <f t="shared" si="16"/>
-        <v>3.1291492924758919E-2</v>
+        <v>3.2225484953486684E-2</v>
       </c>
     </row>
     <row r="901" spans="1:14" x14ac:dyDescent="0.2">
@@ -38808,7 +38808,7 @@
       </c>
       <c r="N901" s="2">
         <f t="shared" si="16"/>
-        <v>3.1084377481901168E-2</v>
+        <v>3.2011622936281882E-2</v>
       </c>
     </row>
     <row r="902" spans="1:14" x14ac:dyDescent="0.2">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="N902" s="2">
         <f t="shared" si="16"/>
-        <v>3.0879346533548367E-2</v>
+        <v>3.1799917525376725E-2</v>
       </c>
     </row>
     <row r="903" spans="1:14" x14ac:dyDescent="0.2">
@@ -38892,7 +38892,7 @@
       </c>
       <c r="N903" s="2">
         <f t="shared" si="16"/>
-        <v>3.0676371964101175E-2</v>
+        <v>3.1590339608980118E-2</v>
       </c>
     </row>
     <row r="904" spans="1:14" x14ac:dyDescent="0.2">
@@ -38934,7 +38934,7 @@
       </c>
       <c r="N904" s="2">
         <f t="shared" ref="N904:N967" si="17">(B904*B$5+C904*C$5+D904*D$5+E904*E$5+F904*F$5+G904*G$5+H904*H$5+I904*I$5+J904*J$5+K904*K$5+L904*L$5)/SUM(B$5:L$5)</f>
-        <v>3.0475426131288574E-2</v>
+        <v>3.1382860565115377E-2</v>
       </c>
     </row>
     <row r="905" spans="1:14" x14ac:dyDescent="0.2">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="N905" s="2">
         <f t="shared" si="17"/>
-        <v>3.0276481856665954E-2</v>
+        <v>3.1177452251808051E-2</v>
       </c>
     </row>
     <row r="906" spans="1:14" x14ac:dyDescent="0.2">
@@ -39018,7 +39018,7 @@
       </c>
       <c r="N906" s="2">
         <f t="shared" si="17"/>
-        <v>3.0079512416334116E-2</v>
+        <v>3.0974086997500906E-2</v>
       </c>
     </row>
     <row r="907" spans="1:14" x14ac:dyDescent="0.2">
@@ -39060,7 +39060,7 @@
       </c>
       <c r="N907" s="2">
         <f t="shared" si="17"/>
-        <v>2.9884491531872132E-2</v>
+        <v>3.0772737591689046E-2</v>
       </c>
     </row>
     <row r="908" spans="1:14" x14ac:dyDescent="0.2">
@@ -39102,7 +39102,7 @@
       </c>
       <c r="N908" s="2">
         <f t="shared" si="17"/>
-        <v>2.969139336147977E-2</v>
+        <v>3.0573377275770697E-2</v>
       </c>
     </row>
     <row r="909" spans="1:14" x14ac:dyDescent="0.2">
@@ -39144,7 +39144,7 @@
       </c>
       <c r="N909" s="2">
         <f t="shared" si="17"/>
-        <v>2.9500192491323067E-2</v>
+        <v>3.0375979734106971E-2</v>
       </c>
     </row>
     <row r="910" spans="1:14" x14ac:dyDescent="0.2">
@@ -39186,7 +39186,7 @@
       </c>
       <c r="N910" s="2">
         <f t="shared" si="17"/>
-        <v>2.9310863927078334E-2</v>
+        <v>3.0180519085286101E-2</v>
       </c>
     </row>
     <row r="911" spans="1:14" x14ac:dyDescent="0.2">
@@ -39228,7 +39228,7 @@
       </c>
       <c r="N911" s="2">
         <f t="shared" si="17"/>
-        <v>2.9123383085669162E-2</v>
+        <v>2.9986969873586303E-2</v>
       </c>
     </row>
     <row r="912" spans="1:14" x14ac:dyDescent="0.2">
@@ -39270,7 +39270,7 @@
       </c>
       <c r="N912" s="2">
         <f t="shared" si="17"/>
-        <v>2.893772578719175E-2</v>
+        <v>2.9795307060632308E-2</v>
       </c>
     </row>
     <row r="913" spans="1:14" x14ac:dyDescent="0.2">
@@ -39312,7 +39312,7 @@
       </c>
       <c r="N913" s="2">
         <f t="shared" si="17"/>
-        <v>2.8753868247023136E-2</v>
+        <v>2.960550601724081E-2</v>
       </c>
     </row>
     <row r="914" spans="1:14" x14ac:dyDescent="0.2">
@@ -39354,7 +39354,7 @@
       </c>
       <c r="N914" s="2">
         <f t="shared" si="17"/>
-        <v>2.8571787068108756E-2</v>
+        <v>2.941754251544999E-2</v>
       </c>
     </row>
     <row r="915" spans="1:14" x14ac:dyDescent="0.2">
@@ -39396,7 +39396,7 @@
       </c>
       <c r="N915" s="2">
         <f t="shared" si="17"/>
-        <v>2.8391459233423146E-2</v>
+        <v>2.9231392720727879E-2</v>
       </c>
     </row>
     <row r="916" spans="1:14" x14ac:dyDescent="0.2">
@@ -39438,7 +39438,7 @@
       </c>
       <c r="N916" s="2">
         <f t="shared" si="17"/>
-        <v>2.8212862098600879E-2</v>
+        <v>2.9047033184355749E-2</v>
       </c>
     </row>
     <row r="917" spans="1:14" x14ac:dyDescent="0.2">
@@ -39480,7 +39480,7 @@
       </c>
       <c r="N917" s="2">
         <f t="shared" si="17"/>
-        <v>2.803597338473264E-2</v>
+        <v>2.8864440835981997E-2</v>
       </c>
     </row>
     <row r="918" spans="1:14" x14ac:dyDescent="0.2">
@@ -39522,7 +39522,7 @@
       </c>
       <c r="N918" s="2">
         <f t="shared" si="17"/>
-        <v>2.7860771171322199E-2</v>
+        <v>2.8683592976341564E-2</v>
       </c>
     </row>
     <row r="919" spans="1:14" x14ac:dyDescent="0.2">
@@ -39564,7 +39564,7 @@
       </c>
       <c r="N919" s="2">
         <f t="shared" si="17"/>
-        <v>2.7687233889400843E-2</v>
+        <v>2.8504467270137616E-2</v>
       </c>
     </row>
     <row r="920" spans="1:14" x14ac:dyDescent="0.2">
@@ -39606,7 +39606,7 @@
       </c>
       <c r="N920" s="2">
         <f t="shared" si="17"/>
-        <v>2.751534031479418E-2</v>
+        <v>2.8327041739080641E-2</v>
       </c>
     </row>
     <row r="921" spans="1:14" x14ac:dyDescent="0.2">
@@ -39648,7 +39648,7 @@
       </c>
       <c r="N921" s="2">
         <f t="shared" si="17"/>
-        <v>2.734506956153902E-2</v>
+        <v>2.8151294755081772E-2</v>
       </c>
     </row>
     <row r="922" spans="1:14" x14ac:dyDescent="0.2">
@@ -39690,7 +39690,7 @@
       </c>
       <c r="N922" s="2">
         <f t="shared" si="17"/>
-        <v>2.7176401075445E-2</v>
+        <v>2.7977205033595593E-2</v>
       </c>
     </row>
     <row r="923" spans="1:14" x14ac:dyDescent="0.2">
@@ -39732,7 +39732,7 @@
       </c>
       <c r="N923" s="2">
         <f t="shared" si="17"/>
-        <v>2.7009314627798531E-2</v>
+        <v>2.7804751627109804E-2</v>
       </c>
     </row>
     <row r="924" spans="1:14" x14ac:dyDescent="0.2">
@@ -39774,7 +39774,7 @@
       </c>
       <c r="N924" s="2">
         <f t="shared" si="17"/>
-        <v>2.6843790309204904E-2</v>
+        <v>2.7633913918777016E-2</v>
       </c>
     </row>
     <row r="925" spans="1:14" x14ac:dyDescent="0.2">
@@ -39816,7 +39816,7 @@
       </c>
       <c r="N925" s="2">
         <f t="shared" si="17"/>
-        <v>2.6679808523564955E-2</v>
+        <v>2.7464671616185682E-2</v>
       </c>
     </row>
     <row r="926" spans="1:14" x14ac:dyDescent="0.2">
@@ -39858,7 +39858,7 @@
       </c>
       <c r="N926" s="2">
         <f t="shared" si="17"/>
-        <v>2.6517349982184042E-2</v>
+        <v>2.7297004745267184E-2</v>
       </c>
     </row>
     <row r="927" spans="1:14" x14ac:dyDescent="0.2">
@@ -39900,7 +39900,7 @@
       </c>
       <c r="N927" s="2">
         <f t="shared" si="17"/>
-        <v>2.6356395698008517E-2</v>
+        <v>2.713089364433471E-2</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.2">
@@ -39942,7 +39942,7 @@
       </c>
       <c r="N928" s="2">
         <f t="shared" si="17"/>
-        <v>2.6196926979987774E-2</v>
+        <v>2.6966318958251367E-2</v>
       </c>
     </row>
     <row r="929" spans="1:14" x14ac:dyDescent="0.2">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="N929" s="2">
         <f t="shared" si="17"/>
-        <v>2.6038925427558084E-2</v>
+        <v>2.6803261632724361E-2</v>
       </c>
     </row>
     <row r="930" spans="1:14" x14ac:dyDescent="0.2">
@@ -40026,7 +40026,7 @@
       </c>
       <c r="N930" s="2">
         <f t="shared" si="17"/>
-        <v>2.5882372925245797E-2</v>
+        <v>2.6641702908721806E-2</v>
       </c>
     </row>
     <row r="931" spans="1:14" x14ac:dyDescent="0.2">
@@ -40068,7 +40068,7 @@
       </c>
       <c r="N931" s="2">
         <f t="shared" si="17"/>
-        <v>2.5727251637386407E-2</v>
+        <v>2.6481624317009723E-2</v>
       </c>
     </row>
     <row r="932" spans="1:14" x14ac:dyDescent="0.2">
@@ -40110,7 +40110,7 @@
       </c>
       <c r="N932" s="2">
         <f t="shared" si="17"/>
-        <v>2.5573544002957072E-2</v>
+        <v>2.6323007672805602E-2</v>
       </c>
     </row>
     <row r="933" spans="1:14" x14ac:dyDescent="0.2">
@@ -40152,7 +40152,7 @@
       </c>
       <c r="N933" s="2">
         <f t="shared" si="17"/>
-        <v>2.542123273051982E-2</v>
+        <v>2.6165835070546338E-2</v>
       </c>
     </row>
     <row r="934" spans="1:14" x14ac:dyDescent="0.2">
@@ -40194,7 +40194,7 @@
       </c>
       <c r="N934" s="2">
         <f t="shared" si="17"/>
-        <v>2.5270300793272346E-2</v>
+        <v>2.601008887876758E-2</v>
       </c>
     </row>
     <row r="935" spans="1:14" x14ac:dyDescent="0.2">
@@ -40236,7 +40236,7 @@
       </c>
       <c r="N935" s="2">
         <f t="shared" si="17"/>
-        <v>2.5120731424204266E-2</v>
+        <v>2.5855751735091328E-2</v>
       </c>
     </row>
     <row r="936" spans="1:14" x14ac:dyDescent="0.2">
@@ -40278,7 +40278,7 @@
       </c>
       <c r="N936" s="2">
         <f t="shared" si="17"/>
-        <v>2.4972508111356335E-2</v>
+        <v>2.5702806541320462E-2</v>
       </c>
     </row>
     <row r="937" spans="1:14" x14ac:dyDescent="0.2">
@@ -40320,7 +40320,7 @@
       </c>
       <c r="N937" s="2">
         <f t="shared" si="17"/>
-        <v>2.4825614593179494E-2</v>
+        <v>2.5551236458635791E-2</v>
       </c>
     </row>
     <row r="938" spans="1:14" x14ac:dyDescent="0.2">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="N938" s="2">
         <f t="shared" si="17"/>
-        <v>2.46800348539922E-2</v>
+        <v>2.5401024902895007E-2</v>
       </c>
     </row>
     <row r="939" spans="1:14" x14ac:dyDescent="0.2">
@@ -40404,7 +40404,7 @@
       </c>
       <c r="N939" s="2">
         <f t="shared" si="17"/>
-        <v>2.4535753119532974E-2</v>
+        <v>2.5252155540029773E-2</v>
       </c>
     </row>
     <row r="940" spans="1:14" x14ac:dyDescent="0.2">
@@ -40446,7 +40446,7 @@
       </c>
       <c r="N940" s="2">
         <f t="shared" si="17"/>
-        <v>2.4392753852606548E-2</v>
+        <v>2.5104612281539516E-2</v>
       </c>
     </row>
     <row r="941" spans="1:14" x14ac:dyDescent="0.2">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="N941" s="2">
         <f t="shared" si="17"/>
-        <v>2.4251021748820805E-2</v>
+        <v>2.4958379280078963E-2</v>
       </c>
     </row>
     <row r="942" spans="1:14" x14ac:dyDescent="0.2">
@@ -40530,7 +40530,7 @@
       </c>
       <c r="N942" s="2">
         <f t="shared" si="17"/>
-        <v>2.4110541732412543E-2</v>
+        <v>2.4813440925137476E-2</v>
       </c>
     </row>
     <row r="943" spans="1:14" x14ac:dyDescent="0.2">
@@ -40572,7 +40572,7 @@
       </c>
       <c r="N943" s="2">
         <f t="shared" si="17"/>
-        <v>2.397129895216045E-2</v>
+        <v>2.466978183880849E-2</v>
       </c>
     </row>
     <row r="944" spans="1:14" x14ac:dyDescent="0.2">
@@ -40614,7 +40614,7 @@
       </c>
       <c r="N944" s="2">
         <f t="shared" si="17"/>
-        <v>2.3833278777382394E-2</v>
+        <v>2.4527386871645962E-2</v>
       </c>
     </row>
     <row r="945" spans="1:14" x14ac:dyDescent="0.2">
@@ -40656,7 +40656,7 @@
       </c>
       <c r="N945" s="2">
         <f t="shared" si="17"/>
-        <v>2.3696466794015505E-2</v>
+        <v>2.4386241098606463E-2</v>
       </c>
     </row>
     <row r="946" spans="1:14" x14ac:dyDescent="0.2">
@@ -40698,7 +40698,7 @@
       </c>
       <c r="N946" s="2">
         <f t="shared" si="17"/>
-        <v>2.3560848800777398E-2</v>
+        <v>2.4246329815075143E-2</v>
       </c>
     </row>
     <row r="947" spans="1:14" x14ac:dyDescent="0.2">
@@ -40740,7 +40740,7 @@
       </c>
       <c r="N947" s="2">
         <f t="shared" si="17"/>
-        <v>2.3426410805406125E-2</v>
+        <v>2.4107638532972847E-2</v>
       </c>
     </row>
     <row r="948" spans="1:14" x14ac:dyDescent="0.2">
@@ -40782,7 +40782,7 @@
       </c>
       <c r="N948" s="2">
         <f t="shared" si="17"/>
-        <v>2.3293139020976995E-2</v>
+        <v>2.3970152976942934E-2</v>
       </c>
     </row>
     <row r="949" spans="1:14" x14ac:dyDescent="0.2">
@@ -40824,7 +40824,7 @@
       </c>
       <c r="N949" s="2">
         <f t="shared" si="17"/>
-        <v>2.3161019862294997E-2</v>
+        <v>2.383385908061593E-2</v>
       </c>
     </row>
     <row r="950" spans="1:14" x14ac:dyDescent="0.2">
@@ -40866,7 +40866,7 @@
       </c>
       <c r="N950" s="2">
         <f t="shared" si="17"/>
-        <v>2.3030039942360688E-2</v>
+        <v>2.3698742982950494E-2</v>
       </c>
     </row>
     <row r="951" spans="1:14" x14ac:dyDescent="0.2">
@@ -40908,7 +40908,7 @@
       </c>
       <c r="N951" s="2">
         <f t="shared" si="17"/>
-        <v>2.2900186068907948E-2</v>
+        <v>2.3564791024648261E-2</v>
       </c>
     </row>
     <row r="952" spans="1:14" x14ac:dyDescent="0.2">
@@ -40950,7 +40950,7 @@
       </c>
       <c r="N952" s="2">
         <f t="shared" si="17"/>
-        <v>2.277144524101184E-2</v>
+        <v>2.3431989744641522E-2</v>
       </c>
     </row>
     <row r="953" spans="1:14" x14ac:dyDescent="0.2">
@@ -40992,7 +40992,7 @@
       </c>
       <c r="N953" s="2">
         <f t="shared" si="17"/>
-        <v>2.2643804645765084E-2</v>
+        <v>2.3300325876651502E-2</v>
       </c>
     </row>
     <row r="954" spans="1:14" x14ac:dyDescent="0.2">
@@ -41034,7 +41034,7 @@
       </c>
       <c r="N954" s="2">
         <f t="shared" si="17"/>
-        <v>2.2517251655021584E-2</v>
+        <v>2.3169786345816283E-2</v>
       </c>
     </row>
     <row r="955" spans="1:14" x14ac:dyDescent="0.2">
@@ -41076,7 +41076,7 @@
       </c>
       <c r="N955" s="2">
         <f t="shared" si="17"/>
-        <v>2.2391773822205373E-2</v>
+        <v>2.3040358265385984E-2</v>
       </c>
     </row>
     <row r="956" spans="1:14" x14ac:dyDescent="0.2">
@@ -41118,7 +41118,7 @@
       </c>
       <c r="N956" s="2">
         <f t="shared" si="17"/>
-        <v>2.2267358879183609E-2</v>
+        <v>2.2912028933484676E-2</v>
       </c>
     </row>
     <row r="957" spans="1:14" x14ac:dyDescent="0.2">
@@ -41160,7 +41160,7 @@
       </c>
       <c r="N957" s="2">
         <f t="shared" si="17"/>
-        <v>2.2143994733202006E-2</v>
+        <v>2.278478582993625E-2</v>
       </c>
     </row>
     <row r="958" spans="1:14" x14ac:dyDescent="0.2">
@@ -41202,7 +41202,7 @@
       </c>
       <c r="N958" s="2">
         <f t="shared" si="17"/>
-        <v>2.2021669463881375E-2</v>
+        <v>2.265861661315411E-2</v>
       </c>
     </row>
     <row r="959" spans="1:14" x14ac:dyDescent="0.2">
@@ -41244,7 +41244,7 @@
       </c>
       <c r="N959" s="2">
         <f t="shared" si="17"/>
-        <v>2.1900371320274087E-2</v>
+        <v>2.2533509117092298E-2</v>
       </c>
     </row>
     <row r="960" spans="1:14" x14ac:dyDescent="0.2">
@@ -41286,7 +41286,7 @@
       </c>
       <c r="N960" s="2">
         <f t="shared" si="17"/>
-        <v>2.1780088717978492E-2</v>
+        <v>2.2409451348256906E-2</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.2">
@@ -41328,7 +41328,7 @@
       </c>
       <c r="N961" s="2">
         <f t="shared" si="17"/>
-        <v>2.1660810236310977E-2</v>
+        <v>2.2286431482776904E-2</v>
       </c>
     </row>
     <row r="962" spans="1:14" x14ac:dyDescent="0.2">
@@ -41370,7 +41370,7 @@
       </c>
       <c r="N962" s="2">
         <f t="shared" si="17"/>
-        <v>2.1542524615533239E-2</v>
+        <v>2.2164437863532224E-2</v>
       </c>
     </row>
     <row r="963" spans="1:14" x14ac:dyDescent="0.2">
@@ -41412,7 +41412,7 @@
       </c>
       <c r="N963" s="2">
         <f t="shared" si="17"/>
-        <v>2.1425220754134399E-2</v>
+        <v>2.2043458997338537E-2</v>
       </c>
     </row>
     <row r="964" spans="1:14" x14ac:dyDescent="0.2">
@@ -41454,7 +41454,7 @@
       </c>
       <c r="N964" s="2">
         <f t="shared" si="17"/>
-        <v>2.1308887706166423E-2</v>
+        <v>2.1923483552187008E-2</v>
       </c>
     </row>
     <row r="965" spans="1:14" x14ac:dyDescent="0.2">
@@ -41496,7 +41496,7 @@
       </c>
       <c r="N965" s="2">
         <f t="shared" si="17"/>
-        <v>2.1193514678631582E-2</v>
+        <v>2.1804500354538202E-2</v>
       </c>
     </row>
     <row r="966" spans="1:14" x14ac:dyDescent="0.2">
@@ -41538,7 +41538,7 @@
       </c>
       <c r="N966" s="2">
         <f t="shared" si="17"/>
-        <v>2.1079091028920999E-2</v>
+        <v>2.1686498386668529E-2</v>
       </c>
     </row>
     <row r="967" spans="1:14" x14ac:dyDescent="0.2">
@@ -41580,7 +41580,7 @@
       </c>
       <c r="N967" s="2">
         <f t="shared" si="17"/>
-        <v>2.096560626230282E-2</v>
+        <v>2.1569466784068254E-2</v>
       </c>
     </row>
     <row r="968" spans="1:14" x14ac:dyDescent="0.2">
@@ -41622,7 +41622,7 @@
       </c>
       <c r="N968" s="2">
         <f t="shared" ref="N968:N1006" si="18">(B968*B$5+C968*C$5+D968*D$5+E968*E$5+F968*F$5+G968*G$5+H968*H$5+I968*I$5+J968*J$5+K968*K$5+L968*L$5)/SUM(B$5:L$5)</f>
-        <v>2.0853050029459339E-2</v>
+        <v>2.1453394832890115E-2</v>
       </c>
     </row>
     <row r="969" spans="1:14" x14ac:dyDescent="0.2">
@@ -41664,7 +41664,7 @@
       </c>
       <c r="N969" s="2">
         <f t="shared" si="18"/>
-        <v>2.0741412124071719E-2</v>
+        <v>2.1338271967446983E-2</v>
       </c>
     </row>
     <row r="970" spans="1:14" x14ac:dyDescent="0.2">
@@ -41706,7 +41706,7 @@
       </c>
       <c r="N970" s="2">
         <f t="shared" si="18"/>
-        <v>2.0630682480451235E-2</v>
+        <v>2.122408776775803E-2</v>
       </c>
     </row>
     <row r="971" spans="1:14" x14ac:dyDescent="0.2">
@@ -41748,7 +41748,7 @@
       </c>
       <c r="N971" s="2">
         <f t="shared" si="18"/>
-        <v>2.052085117121635E-2</v>
+        <v>2.111083195714198E-2</v>
       </c>
     </row>
     <row r="972" spans="1:14" x14ac:dyDescent="0.2">
@@ -41790,7 +41790,7 @@
       </c>
       <c r="N972" s="2">
         <f t="shared" si="18"/>
-        <v>2.0411908405014188E-2</v>
+        <v>2.0998494399856592E-2</v>
       </c>
     </row>
     <row r="973" spans="1:14" x14ac:dyDescent="0.2">
@@ -41832,7 +41832,7 @@
       </c>
       <c r="N973" s="2">
         <f t="shared" si="18"/>
-        <v>2.0303844524285544E-2</v>
+        <v>2.0887065098782936E-2</v>
       </c>
     </row>
     <row r="974" spans="1:14" x14ac:dyDescent="0.2">
@@ -41874,7 +41874,7 @@
       </c>
       <c r="N974" s="2">
         <f t="shared" si="18"/>
-        <v>2.0196650003072841E-2</v>
+        <v>2.0776534193154384E-2</v>
       </c>
     </row>
     <row r="975" spans="1:14" x14ac:dyDescent="0.2">
@@ -41916,7 +41916,7 @@
       </c>
       <c r="N975" s="2">
         <f t="shared" si="18"/>
-        <v>2.0090315444869764E-2</v>
+        <v>2.0666891956328533E-2</v>
       </c>
     </row>
     <row r="976" spans="1:14" x14ac:dyDescent="0.2">
@@ -41958,7 +41958,7 @@
       </c>
       <c r="N976" s="2">
         <f t="shared" si="18"/>
-        <v>1.9984831580511588E-2</v>
+        <v>2.0558128793601232E-2</v>
       </c>
     </row>
     <row r="977" spans="1:14" x14ac:dyDescent="0.2">
@@ -42000,7 +42000,7 @@
       </c>
       <c r="N977" s="2">
         <f t="shared" si="18"/>
-        <v>1.9880189266105602E-2</v>
+        <v>2.0450235240062405E-2</v>
       </c>
     </row>
     <row r="978" spans="1:14" x14ac:dyDescent="0.2">
@@ -42042,7 +42042,7 @@
       </c>
       <c r="N978" s="2">
         <f t="shared" si="18"/>
-        <v>1.9776379481000556E-2</v>
+        <v>2.0343201958491961E-2</v>
       </c>
     </row>
     <row r="979" spans="1:14" x14ac:dyDescent="0.2">
@@ -42084,7 +42084,7 @@
       </c>
       <c r="N979" s="2">
         <f t="shared" si="18"/>
-        <v>1.9673393325794538E-2</v>
+        <v>2.023701973729557E-2</v>
       </c>
     </row>
     <row r="980" spans="1:14" x14ac:dyDescent="0.2">
@@ -42126,7 +42126,7 @@
       </c>
       <c r="N980" s="2">
         <f t="shared" si="18"/>
-        <v>1.9571222020380113E-2</v>
+        <v>2.013167948847909E-2</v>
       </c>
     </row>
     <row r="981" spans="1:14" x14ac:dyDescent="0.2">
@@ -42168,7 +42168,7 @@
       </c>
       <c r="N981" s="2">
         <f t="shared" si="18"/>
-        <v>1.9469856902026156E-2</v>
+        <v>2.0027172245660949E-2</v>
       </c>
     </row>
     <row r="982" spans="1:14" x14ac:dyDescent="0.2">
@@ -42210,7 +42210,7 @@
       </c>
       <c r="N982" s="2">
         <f t="shared" si="18"/>
-        <v>1.9369289423495698E-2</v>
+        <v>1.9923489162121683E-2</v>
       </c>
     </row>
     <row r="983" spans="1:14" x14ac:dyDescent="0.2">
@@ -42252,7 +42252,7 @@
       </c>
       <c r="N983" s="2">
         <f t="shared" si="18"/>
-        <v>1.9269511151198633E-2</v>
+        <v>1.9820621508889951E-2</v>
       </c>
     </row>
     <row r="984" spans="1:14" x14ac:dyDescent="0.2">
@@ -42294,7 +42294,7 @@
       </c>
       <c r="N984" s="2">
         <f t="shared" si="18"/>
-        <v>1.9170513763378926E-2</v>
+        <v>1.9718560672863681E-2</v>
       </c>
     </row>
     <row r="985" spans="1:14" x14ac:dyDescent="0.2">
@@ -42336,7 +42336,7 @@
       </c>
       <c r="N985" s="2">
         <f t="shared" si="18"/>
-        <v>1.9072289048335488E-2</v>
+        <v>1.9617298154966663E-2</v>
       </c>
     </row>
     <row r="986" spans="1:14" x14ac:dyDescent="0.2">
@@ -42378,7 +42378,7 @@
       </c>
       <c r="N986" s="2">
         <f t="shared" si="18"/>
-        <v>1.8974828902675933E-2</v>
+        <v>1.951682556833877E-2</v>
       </c>
     </row>
     <row r="987" spans="1:14" x14ac:dyDescent="0.2">
@@ -42420,7 +42420,7 @@
       </c>
       <c r="N987" s="2">
         <f t="shared" si="18"/>
-        <v>1.8878125329602414E-2</v>
+        <v>1.9417134636559696E-2</v>
       </c>
     </row>
     <row r="988" spans="1:14" x14ac:dyDescent="0.2">
@@ -42462,7 +42462,7 @@
       </c>
       <c r="N988" s="2">
         <f t="shared" si="18"/>
-        <v>1.8782170437229326E-2</v>
+        <v>1.9318217191905452E-2</v>
       </c>
     </row>
     <row r="989" spans="1:14" x14ac:dyDescent="0.2">
@@ -42504,7 +42504,7 @@
       </c>
       <c r="N989" s="2">
         <f t="shared" si="18"/>
-        <v>1.8686956436931683E-2</v>
+        <v>1.9220065173636801E-2</v>
       </c>
     </row>
     <row r="990" spans="1:14" x14ac:dyDescent="0.2">
@@ -42546,7 +42546,7 @@
       </c>
       <c r="N990" s="2">
         <f t="shared" si="18"/>
-        <v>1.8592475641723637E-2</v>
+        <v>1.9122670626318852E-2</v>
       </c>
     </row>
     <row r="991" spans="1:14" x14ac:dyDescent="0.2">
@@ -42588,7 +42588,7 @@
       </c>
       <c r="N991" s="2">
         <f t="shared" si="18"/>
-        <v>1.8498720464667041E-2</v>
+        <v>1.9026025698171717E-2</v>
       </c>
     </row>
     <row r="992" spans="1:14" x14ac:dyDescent="0.2">
@@ -42630,7 +42630,7 @@
       </c>
       <c r="N992" s="2">
         <f t="shared" si="18"/>
-        <v>1.8405683417308517E-2</v>
+        <v>1.8930122639450812E-2</v>
       </c>
     </row>
     <row r="993" spans="1:14" x14ac:dyDescent="0.2">
@@ -42672,7 +42672,7 @@
       </c>
       <c r="N993" s="2">
         <f t="shared" si="18"/>
-        <v>1.8313357108145193E-2</v>
+        <v>1.8834953800856723E-2</v>
       </c>
     </row>
     <row r="994" spans="1:14" x14ac:dyDescent="0.2">
@@ -42714,7 +42714,7 @@
       </c>
       <c r="N994" s="2">
         <f t="shared" si="18"/>
-        <v>1.8221734241118347E-2</v>
+        <v>1.8740511631974023E-2</v>
       </c>
     </row>
     <row r="995" spans="1:14" x14ac:dyDescent="0.2">
@@ -42756,7 +42756,7 @@
       </c>
       <c r="N995" s="2">
         <f t="shared" si="18"/>
-        <v>1.8130807614134038E-2</v>
+        <v>1.8646788679738156E-2</v>
       </c>
     </row>
     <row r="996" spans="1:14" x14ac:dyDescent="0.2">
@@ -42798,7 +42798,7 @@
       </c>
       <c r="N996" s="2">
         <f t="shared" si="18"/>
-        <v>1.8040570117610538E-2</v>
+        <v>1.8553777586929908E-2</v>
       </c>
     </row>
     <row r="997" spans="1:14" x14ac:dyDescent="0.2">
@@ -42840,7 +42840,7 @@
       </c>
       <c r="N997" s="2">
         <f t="shared" si="18"/>
-        <v>1.7951014733051933E-2</v>
+        <v>1.8461471090697051E-2</v>
       </c>
     </row>
     <row r="998" spans="1:14" x14ac:dyDescent="0.2">
@@ -42882,7 +42882,7 @@
       </c>
       <c r="N998" s="2">
         <f t="shared" si="18"/>
-        <v>1.786213453164729E-2</v>
+        <v>1.836986202110253E-2</v>
       </c>
     </row>
     <row r="999" spans="1:14" x14ac:dyDescent="0.2">
@@ -42924,7 +42924,7 @@
       </c>
       <c r="N999" s="2">
         <f t="shared" si="18"/>
-        <v>1.7773922672894939E-2</v>
+        <v>1.8278943299698591E-2</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.2">
@@ -42966,7 +42966,7 @@
       </c>
       <c r="N1000" s="2">
         <f t="shared" si="18"/>
-        <v>1.7686372403251157E-2</v>
+        <v>1.8188707938126221E-2</v>
       </c>
     </row>
     <row r="1001" spans="1:14" x14ac:dyDescent="0.2">
@@ -43008,7 +43008,7 @@
       </c>
       <c r="N1001" s="2">
         <f t="shared" si="18"/>
-        <v>1.7599477054803185E-2</v>
+        <v>1.8099149036739818E-2</v>
       </c>
     </row>
     <row r="1002" spans="1:14" x14ac:dyDescent="0.2">
@@ -43050,7 +43050,7 @@
       </c>
       <c r="N1002" s="2">
         <f t="shared" si="18"/>
-        <v>1.7513230043965582E-2</v>
+        <v>1.8010259783255964E-2</v>
       </c>
     </row>
     <row r="1003" spans="1:14" x14ac:dyDescent="0.2">
@@ -43092,7 +43092,7 @@
       </c>
       <c r="N1003" s="2">
         <f t="shared" si="18"/>
-        <v>1.7427624870199811E-2</v>
+        <v>1.7922033451426466E-2</v>
       </c>
     </row>
     <row r="1004" spans="1:14" x14ac:dyDescent="0.2">
@@ -43134,7 +43134,7 @@
       </c>
       <c r="N1004" s="2">
         <f t="shared" si="18"/>
-        <v>1.7342655114756418E-2</v>
+        <v>1.7834463399734379E-2</v>
       </c>
     </row>
     <row r="1005" spans="1:14" x14ac:dyDescent="0.2">
@@ -43176,7 +43176,7 @@
       </c>
       <c r="N1005" s="2">
         <f t="shared" si="18"/>
-        <v>1.7258314439439426E-2</v>
+        <v>1.7747543070113631E-2</v>
       </c>
     </row>
     <row r="1006" spans="1:14" x14ac:dyDescent="0.2">
@@ -43218,7 +43218,7 @@
       </c>
       <c r="N1006" s="2">
         <f t="shared" si="18"/>
-        <v>1.717459658539245E-2</v>
+        <v>1.76612659866907E-2</v>
       </c>
     </row>
     <row r="1007" spans="1:14" x14ac:dyDescent="0.2">
